--- a/Home Loan Calculator.xlsx
+++ b/Home Loan Calculator.xlsx
@@ -202,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +223,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,12 +230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +548,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,16 +572,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -602,85 +590,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="B58:G58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
@@ -1298,7 +1286,7 @@
     <col min="23" max="23" width="18.2920353982301" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:23">
+    <row r="1" spans="1:23">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1405,10 +1393,10 @@
         <v>1000000</v>
       </c>
       <c r="W2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1417,79 +1405,79 @@
       </c>
       <c r="C3" s="6">
         <f>IF($W$2*52&gt;C$2*$B3,ROUND(NPER($B3,-$W$2*52,C$2),2)," ")</f>
-        <v>4.81</v>
+        <v>3.85</v>
       </c>
       <c r="D3" s="6">
         <f>IF($W$2*52&gt;D$2*$B3,ROUND(NPER($B3,-$W$2*52,D$2),2)," ")</f>
-        <v>7.21</v>
+        <v>5.77</v>
       </c>
       <c r="E3" s="6">
         <f>IF($W$2*52&gt;E$2*$B3,ROUND(NPER($B3,-$W$2*52,E$2),2)," ")</f>
-        <v>9.62</v>
+        <v>7.69</v>
       </c>
       <c r="F3" s="6">
         <f>IF($W$2*52&gt;F$2*$B3,ROUND(NPER($B3,-$W$2*52,F$2),2)," ")</f>
-        <v>12.02</v>
+        <v>9.62</v>
       </c>
       <c r="G3" s="6">
         <f>IF($W$2*52&gt;G$2*$B3,ROUND(NPER($B3,-$W$2*52,G$2),2)," ")</f>
-        <v>14.42</v>
+        <v>11.54</v>
       </c>
       <c r="H3" s="6">
         <f>IF($W$2*52&gt;H$2*$B3,ROUND(NPER($B3,-$W$2*52,H$2),2)," ")</f>
-        <v>16.83</v>
+        <v>13.46</v>
       </c>
       <c r="I3" s="6">
         <f>IF($W$2*52&gt;I$2*$B3,ROUND(NPER($B3,-$W$2*52,I$2),2)," ")</f>
-        <v>19.23</v>
+        <v>15.38</v>
       </c>
       <c r="J3" s="6">
         <f>IF($W$2*52&gt;J$2*$B3,ROUND(NPER($B3,-$W$2*52,J$2),2)," ")</f>
-        <v>21.63</v>
+        <v>17.31</v>
       </c>
       <c r="K3" s="6">
         <f>IF($W$2*52&gt;K$2*$B3,ROUND(NPER($B3,-$W$2*52,K$2),2)," ")</f>
-        <v>24.04</v>
+        <v>19.23</v>
       </c>
       <c r="L3" s="6">
         <f>IF($W$2*52&gt;L$2*$B3,ROUND(NPER($B3,-$W$2*52,L$2),2)," ")</f>
-        <v>26.44</v>
+        <v>21.15</v>
       </c>
       <c r="M3" s="6">
         <f>IF($W$2*52&gt;M$2*$B3,ROUND(NPER($B3,-$W$2*52,M$2),2)," ")</f>
-        <v>28.85</v>
+        <v>23.08</v>
       </c>
       <c r="N3" s="6">
         <f>IF($W$2*52&gt;N$2*$B3,ROUND(NPER($B3,-$W$2*52,N$2),2)," ")</f>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="O3" s="6">
         <f>IF($W$2*52&gt;O$2*$B3,ROUND(NPER($B3,-$W$2*52,O$2),2)," ")</f>
-        <v>33.65</v>
+        <v>26.92</v>
       </c>
       <c r="P3" s="6">
         <f>IF($W$2*52&gt;P$2*$B3,ROUND(NPER($B3,-$W$2*52,P$2),2)," ")</f>
-        <v>36.06</v>
+        <v>28.85</v>
       </c>
       <c r="Q3" s="6">
         <f>IF($W$2*52&gt;Q$2*$B3,ROUND(NPER($B3,-$W$2*52,Q$2),2)," ")</f>
-        <v>38.46</v>
+        <v>30.77</v>
       </c>
       <c r="R3" s="6">
         <f>IF($W$2*52&gt;R$2*$B3,ROUND(NPER($B3,-$W$2*52,R$2),2)," ")</f>
-        <v>40.87</v>
+        <v>32.69</v>
       </c>
       <c r="S3" s="6">
         <f>IF($W$2*52&gt;S$2*$B3,ROUND(NPER($B3,-$W$2*52,S$2),2)," ")</f>
-        <v>43.27</v>
+        <v>34.62</v>
       </c>
       <c r="T3" s="6">
         <f>IF($W$2*52&gt;T$2*$B3,ROUND(NPER($B3,-$W$2*52,T$2),2)," ")</f>
-        <v>45.67</v>
+        <v>36.54</v>
       </c>
       <c r="U3" s="6">
         <f>IF($W$2*52&gt;U$2*$B3,ROUND(NPER($B3,-$W$2*52,U$2),2)," ")</f>
-        <v>48.08</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1500,79 +1488,79 @@
       </c>
       <c r="C4" s="6">
         <f>IF($W$2*52&gt;C$2*$B4,ROUND(NPER($B4,-$W$2*52,C$2),2)," ")</f>
-        <v>4.82</v>
+        <v>3.86</v>
       </c>
       <c r="D4" s="6">
         <f>IF($W$2*52&gt;D$2*$B4,ROUND(NPER($B4,-$W$2*52,D$2),2)," ")</f>
-        <v>7.24</v>
+        <v>5.79</v>
       </c>
       <c r="E4" s="6">
         <f>IF($W$2*52&gt;E$2*$B4,ROUND(NPER($B4,-$W$2*52,E$2),2)," ")</f>
-        <v>9.67</v>
+        <v>7.73</v>
       </c>
       <c r="F4" s="6">
         <f>IF($W$2*52&gt;F$2*$B4,ROUND(NPER($B4,-$W$2*52,F$2),2)," ")</f>
-        <v>12.1</v>
+        <v>9.67</v>
       </c>
       <c r="G4" s="6">
         <f>IF($W$2*52&gt;G$2*$B4,ROUND(NPER($B4,-$W$2*52,G$2),2)," ")</f>
-        <v>14.54</v>
+        <v>11.61</v>
       </c>
       <c r="H4" s="6">
         <f>IF($W$2*52&gt;H$2*$B4,ROUND(NPER($B4,-$W$2*52,H$2),2)," ")</f>
-        <v>16.98</v>
+        <v>13.56</v>
       </c>
       <c r="I4" s="6">
         <f>IF($W$2*52&gt;I$2*$B4,ROUND(NPER($B4,-$W$2*52,I$2),2)," ")</f>
-        <v>19.43</v>
+        <v>15.51</v>
       </c>
       <c r="J4" s="6">
         <f>IF($W$2*52&gt;J$2*$B4,ROUND(NPER($B4,-$W$2*52,J$2),2)," ")</f>
-        <v>21.88</v>
+        <v>17.47</v>
       </c>
       <c r="K4" s="6">
         <f>IF($W$2*52&gt;K$2*$B4,ROUND(NPER($B4,-$W$2*52,K$2),2)," ")</f>
-        <v>24.34</v>
+        <v>19.43</v>
       </c>
       <c r="L4" s="6">
         <f>IF($W$2*52&gt;L$2*$B4,ROUND(NPER($B4,-$W$2*52,L$2),2)," ")</f>
-        <v>26.81</v>
+        <v>21.39</v>
       </c>
       <c r="M4" s="6">
         <f>IF($W$2*52&gt;M$2*$B4,ROUND(NPER($B4,-$W$2*52,M$2),2)," ")</f>
-        <v>29.29</v>
+        <v>23.36</v>
       </c>
       <c r="N4" s="6">
         <f>IF($W$2*52&gt;N$2*$B4,ROUND(NPER($B4,-$W$2*52,N$2),2)," ")</f>
-        <v>31.76</v>
+        <v>25.33</v>
       </c>
       <c r="O4" s="6">
         <f>IF($W$2*52&gt;O$2*$B4,ROUND(NPER($B4,-$W$2*52,O$2),2)," ")</f>
-        <v>34.25</v>
+        <v>27.31</v>
       </c>
       <c r="P4" s="6">
         <f>IF($W$2*52&gt;P$2*$B4,ROUND(NPER($B4,-$W$2*52,P$2),2)," ")</f>
-        <v>36.74</v>
+        <v>29.29</v>
       </c>
       <c r="Q4" s="6">
         <f>IF($W$2*52&gt;Q$2*$B4,ROUND(NPER($B4,-$W$2*52,Q$2),2)," ")</f>
-        <v>39.24</v>
+        <v>31.27</v>
       </c>
       <c r="R4" s="6">
         <f>IF($W$2*52&gt;R$2*$B4,ROUND(NPER($B4,-$W$2*52,R$2),2)," ")</f>
-        <v>41.74</v>
+        <v>33.26</v>
       </c>
       <c r="S4" s="6">
         <f>IF($W$2*52&gt;S$2*$B4,ROUND(NPER($B4,-$W$2*52,S$2),2)," ")</f>
-        <v>44.26</v>
+        <v>35.25</v>
       </c>
       <c r="T4" s="6">
         <f>IF($W$2*52&gt;T$2*$B4,ROUND(NPER($B4,-$W$2*52,T$2),2)," ")</f>
-        <v>46.77</v>
+        <v>37.24</v>
       </c>
       <c r="U4" s="6">
         <f>IF($W$2*52&gt;U$2*$B4,ROUND(NPER($B4,-$W$2*52,U$2),2)," ")</f>
-        <v>49.3</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1583,79 +1571,79 @@
       </c>
       <c r="C5" s="6">
         <f>IF($W$2*52&gt;C$2*$B5,ROUND(NPER($B5,-$W$2*52,C$2),2)," ")</f>
-        <v>4.84</v>
+        <v>3.86</v>
       </c>
       <c r="D5" s="6">
         <f>IF($W$2*52&gt;D$2*$B5,ROUND(NPER($B5,-$W$2*52,D$2),2)," ")</f>
-        <v>7.27</v>
+        <v>5.81</v>
       </c>
       <c r="E5" s="6">
         <f>IF($W$2*52&gt;E$2*$B5,ROUND(NPER($B5,-$W$2*52,E$2),2)," ")</f>
-        <v>9.72</v>
+        <v>7.76</v>
       </c>
       <c r="F5" s="6">
         <f>IF($W$2*52&gt;F$2*$B5,ROUND(NPER($B5,-$W$2*52,F$2),2)," ")</f>
-        <v>12.18</v>
+        <v>9.72</v>
       </c>
       <c r="G5" s="6">
         <f>IF($W$2*52&gt;G$2*$B5,ROUND(NPER($B5,-$W$2*52,G$2),2)," ")</f>
-        <v>14.65</v>
+        <v>11.69</v>
       </c>
       <c r="H5" s="6">
         <f>IF($W$2*52&gt;H$2*$B5,ROUND(NPER($B5,-$W$2*52,H$2),2)," ")</f>
-        <v>17.13</v>
+        <v>13.66</v>
       </c>
       <c r="I5" s="6">
         <f>IF($W$2*52&gt;I$2*$B5,ROUND(NPER($B5,-$W$2*52,I$2),2)," ")</f>
-        <v>19.63</v>
+        <v>15.64</v>
       </c>
       <c r="J5" s="6">
         <f>IF($W$2*52&gt;J$2*$B5,ROUND(NPER($B5,-$W$2*52,J$2),2)," ")</f>
-        <v>22.14</v>
+        <v>17.63</v>
       </c>
       <c r="K5" s="6">
         <f>IF($W$2*52&gt;K$2*$B5,ROUND(NPER($B5,-$W$2*52,K$2),2)," ")</f>
-        <v>24.66</v>
+        <v>19.63</v>
       </c>
       <c r="L5" s="6">
         <f>IF($W$2*52&gt;L$2*$B5,ROUND(NPER($B5,-$W$2*52,L$2),2)," ")</f>
-        <v>27.19</v>
+        <v>21.64</v>
       </c>
       <c r="M5" s="6">
         <f>IF($W$2*52&gt;M$2*$B5,ROUND(NPER($B5,-$W$2*52,M$2),2)," ")</f>
-        <v>29.74</v>
+        <v>23.65</v>
       </c>
       <c r="N5" s="6">
         <f>IF($W$2*52&gt;N$2*$B5,ROUND(NPER($B5,-$W$2*52,N$2),2)," ")</f>
-        <v>32.3</v>
+        <v>25.67</v>
       </c>
       <c r="O5" s="6">
         <f>IF($W$2*52&gt;O$2*$B5,ROUND(NPER($B5,-$W$2*52,O$2),2)," ")</f>
-        <v>34.87</v>
+        <v>27.7</v>
       </c>
       <c r="P5" s="6">
         <f>IF($W$2*52&gt;P$2*$B5,ROUND(NPER($B5,-$W$2*52,P$2),2)," ")</f>
-        <v>37.46</v>
+        <v>29.74</v>
       </c>
       <c r="Q5" s="6">
         <f>IF($W$2*52&gt;Q$2*$B5,ROUND(NPER($B5,-$W$2*52,Q$2),2)," ")</f>
-        <v>40.06</v>
+        <v>31.79</v>
       </c>
       <c r="R5" s="6">
         <f>IF($W$2*52&gt;R$2*$B5,ROUND(NPER($B5,-$W$2*52,R$2),2)," ")</f>
-        <v>42.67</v>
+        <v>33.84</v>
       </c>
       <c r="S5" s="6">
         <f>IF($W$2*52&gt;S$2*$B5,ROUND(NPER($B5,-$W$2*52,S$2),2)," ")</f>
-        <v>45.3</v>
+        <v>35.91</v>
       </c>
       <c r="T5" s="6">
         <f>IF($W$2*52&gt;T$2*$B5,ROUND(NPER($B5,-$W$2*52,T$2),2)," ")</f>
-        <v>47.94</v>
+        <v>37.98</v>
       </c>
       <c r="U5" s="6">
         <f>IF($W$2*52&gt;U$2*$B5,ROUND(NPER($B5,-$W$2*52,U$2),2)," ")</f>
-        <v>50.6</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1666,79 +1654,79 @@
       </c>
       <c r="C6" s="6">
         <f>IF($W$2*52&gt;C$2*$B6,ROUND(NPER($B6,-$W$2*52,C$2),2)," ")</f>
-        <v>4.85</v>
+        <v>3.87</v>
       </c>
       <c r="D6" s="6">
         <f>IF($W$2*52&gt;D$2*$B6,ROUND(NPER($B6,-$W$2*52,D$2),2)," ")</f>
-        <v>7.3</v>
+        <v>5.83</v>
       </c>
       <c r="E6" s="6">
         <f>IF($W$2*52&gt;E$2*$B6,ROUND(NPER($B6,-$W$2*52,E$2),2)," ")</f>
-        <v>9.77</v>
+        <v>7.79</v>
       </c>
       <c r="F6" s="6">
         <f>IF($W$2*52&gt;F$2*$B6,ROUND(NPER($B6,-$W$2*52,F$2),2)," ")</f>
-        <v>12.26</v>
+        <v>9.77</v>
       </c>
       <c r="G6" s="6">
         <f>IF($W$2*52&gt;G$2*$B6,ROUND(NPER($B6,-$W$2*52,G$2),2)," ")</f>
-        <v>14.77</v>
+        <v>11.76</v>
       </c>
       <c r="H6" s="6">
         <f>IF($W$2*52&gt;H$2*$B6,ROUND(NPER($B6,-$W$2*52,H$2),2)," ")</f>
-        <v>17.29</v>
+        <v>13.76</v>
       </c>
       <c r="I6" s="6">
         <f>IF($W$2*52&gt;I$2*$B6,ROUND(NPER($B6,-$W$2*52,I$2),2)," ")</f>
-        <v>19.84</v>
+        <v>15.77</v>
       </c>
       <c r="J6" s="6">
         <f>IF($W$2*52&gt;J$2*$B6,ROUND(NPER($B6,-$W$2*52,J$2),2)," ")</f>
-        <v>22.4</v>
+        <v>17.8</v>
       </c>
       <c r="K6" s="6">
         <f>IF($W$2*52&gt;K$2*$B6,ROUND(NPER($B6,-$W$2*52,K$2),2)," ")</f>
-        <v>24.99</v>
+        <v>19.84</v>
       </c>
       <c r="L6" s="6">
         <f>IF($W$2*52&gt;L$2*$B6,ROUND(NPER($B6,-$W$2*52,L$2),2)," ")</f>
-        <v>27.59</v>
+        <v>21.89</v>
       </c>
       <c r="M6" s="6">
         <f>IF($W$2*52&gt;M$2*$B6,ROUND(NPER($B6,-$W$2*52,M$2),2)," ")</f>
-        <v>30.22</v>
+        <v>23.95</v>
       </c>
       <c r="N6" s="6">
         <f>IF($W$2*52&gt;N$2*$B6,ROUND(NPER($B6,-$W$2*52,N$2),2)," ")</f>
-        <v>32.86</v>
+        <v>26.03</v>
       </c>
       <c r="O6" s="6">
         <f>IF($W$2*52&gt;O$2*$B6,ROUND(NPER($B6,-$W$2*52,O$2),2)," ")</f>
-        <v>35.53</v>
+        <v>28.11</v>
       </c>
       <c r="P6" s="6">
         <f>IF($W$2*52&gt;P$2*$B6,ROUND(NPER($B6,-$W$2*52,P$2),2)," ")</f>
-        <v>38.22</v>
+        <v>30.22</v>
       </c>
       <c r="Q6" s="6">
         <f>IF($W$2*52&gt;Q$2*$B6,ROUND(NPER($B6,-$W$2*52,Q$2),2)," ")</f>
-        <v>40.93</v>
+        <v>32.33</v>
       </c>
       <c r="R6" s="6">
         <f>IF($W$2*52&gt;R$2*$B6,ROUND(NPER($B6,-$W$2*52,R$2),2)," ")</f>
-        <v>43.66</v>
+        <v>34.46</v>
       </c>
       <c r="S6" s="6">
         <f>IF($W$2*52&gt;S$2*$B6,ROUND(NPER($B6,-$W$2*52,S$2),2)," ")</f>
-        <v>46.42</v>
+        <v>36.6</v>
       </c>
       <c r="T6" s="6">
         <f>IF($W$2*52&gt;T$2*$B6,ROUND(NPER($B6,-$W$2*52,T$2),2)," ")</f>
-        <v>49.19</v>
+        <v>38.76</v>
       </c>
       <c r="U6" s="6">
         <f>IF($W$2*52&gt;U$2*$B6,ROUND(NPER($B6,-$W$2*52,U$2),2)," ")</f>
-        <v>52</v>
+        <v>40.93</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1749,79 +1737,79 @@
       </c>
       <c r="C7" s="6">
         <f>IF($W$2*52&gt;C$2*$B7,ROUND(NPER($B7,-$W$2*52,C$2),2)," ")</f>
-        <v>4.86</v>
+        <v>3.88</v>
       </c>
       <c r="D7" s="6">
         <f>IF($W$2*52&gt;D$2*$B7,ROUND(NPER($B7,-$W$2*52,D$2),2)," ")</f>
-        <v>7.33</v>
+        <v>5.85</v>
       </c>
       <c r="E7" s="6">
         <f>IF($W$2*52&gt;E$2*$B7,ROUND(NPER($B7,-$W$2*52,E$2),2)," ")</f>
-        <v>9.82</v>
+        <v>7.83</v>
       </c>
       <c r="F7" s="6">
         <f>IF($W$2*52&gt;F$2*$B7,ROUND(NPER($B7,-$W$2*52,F$2),2)," ")</f>
-        <v>12.34</v>
+        <v>9.82</v>
       </c>
       <c r="G7" s="6">
         <f>IF($W$2*52&gt;G$2*$B7,ROUND(NPER($B7,-$W$2*52,G$2),2)," ")</f>
-        <v>14.89</v>
+        <v>11.84</v>
       </c>
       <c r="H7" s="6">
         <f>IF($W$2*52&gt;H$2*$B7,ROUND(NPER($B7,-$W$2*52,H$2),2)," ")</f>
-        <v>17.45</v>
+        <v>13.87</v>
       </c>
       <c r="I7" s="6">
         <f>IF($W$2*52&gt;I$2*$B7,ROUND(NPER($B7,-$W$2*52,I$2),2)," ")</f>
-        <v>20.05</v>
+        <v>15.91</v>
       </c>
       <c r="J7" s="6">
         <f>IF($W$2*52&gt;J$2*$B7,ROUND(NPER($B7,-$W$2*52,J$2),2)," ")</f>
-        <v>22.67</v>
+        <v>17.97</v>
       </c>
       <c r="K7" s="6">
         <f>IF($W$2*52&gt;K$2*$B7,ROUND(NPER($B7,-$W$2*52,K$2),2)," ")</f>
-        <v>25.32</v>
+        <v>20.05</v>
       </c>
       <c r="L7" s="6">
         <f>IF($W$2*52&gt;L$2*$B7,ROUND(NPER($B7,-$W$2*52,L$2),2)," ")</f>
-        <v>28</v>
+        <v>22.15</v>
       </c>
       <c r="M7" s="6">
         <f>IF($W$2*52&gt;M$2*$B7,ROUND(NPER($B7,-$W$2*52,M$2),2)," ")</f>
-        <v>30.71</v>
+        <v>24.26</v>
       </c>
       <c r="N7" s="6">
         <f>IF($W$2*52&gt;N$2*$B7,ROUND(NPER($B7,-$W$2*52,N$2),2)," ")</f>
-        <v>33.45</v>
+        <v>26.39</v>
       </c>
       <c r="O7" s="6">
         <f>IF($W$2*52&gt;O$2*$B7,ROUND(NPER($B7,-$W$2*52,O$2),2)," ")</f>
-        <v>36.22</v>
+        <v>28.54</v>
       </c>
       <c r="P7" s="6">
         <f>IF($W$2*52&gt;P$2*$B7,ROUND(NPER($B7,-$W$2*52,P$2),2)," ")</f>
-        <v>39.02</v>
+        <v>30.71</v>
       </c>
       <c r="Q7" s="6">
         <f>IF($W$2*52&gt;Q$2*$B7,ROUND(NPER($B7,-$W$2*52,Q$2),2)," ")</f>
-        <v>41.85</v>
+        <v>32.9</v>
       </c>
       <c r="R7" s="6">
         <f>IF($W$2*52&gt;R$2*$B7,ROUND(NPER($B7,-$W$2*52,R$2),2)," ")</f>
-        <v>44.71</v>
+        <v>35.11</v>
       </c>
       <c r="S7" s="6">
         <f>IF($W$2*52&gt;S$2*$B7,ROUND(NPER($B7,-$W$2*52,S$2),2)," ")</f>
-        <v>47.61</v>
+        <v>37.33</v>
       </c>
       <c r="T7" s="6">
         <f>IF($W$2*52&gt;T$2*$B7,ROUND(NPER($B7,-$W$2*52,T$2),2)," ")</f>
-        <v>50.54</v>
+        <v>39.58</v>
       </c>
       <c r="U7" s="6">
         <f>IF($W$2*52&gt;U$2*$B7,ROUND(NPER($B7,-$W$2*52,U$2),2)," ")</f>
-        <v>53.5</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1832,79 +1820,79 @@
       </c>
       <c r="C8" s="6">
         <f>IF($W$2*52&gt;C$2*$B8,ROUND(NPER($B8,-$W$2*52,C$2),2)," ")</f>
-        <v>4.88</v>
+        <v>3.89</v>
       </c>
       <c r="D8" s="6">
         <f>IF($W$2*52&gt;D$2*$B8,ROUND(NPER($B8,-$W$2*52,D$2),2)," ")</f>
-        <v>7.36</v>
+        <v>5.87</v>
       </c>
       <c r="E8" s="6">
         <f>IF($W$2*52&gt;E$2*$B8,ROUND(NPER($B8,-$W$2*52,E$2),2)," ")</f>
-        <v>9.88</v>
+        <v>7.86</v>
       </c>
       <c r="F8" s="6">
         <f>IF($W$2*52&gt;F$2*$B8,ROUND(NPER($B8,-$W$2*52,F$2),2)," ")</f>
-        <v>12.43</v>
+        <v>9.88</v>
       </c>
       <c r="G8" s="6">
         <f>IF($W$2*52&gt;G$2*$B8,ROUND(NPER($B8,-$W$2*52,G$2),2)," ")</f>
-        <v>15.01</v>
+        <v>11.91</v>
       </c>
       <c r="H8" s="6">
         <f>IF($W$2*52&gt;H$2*$B8,ROUND(NPER($B8,-$W$2*52,H$2),2)," ")</f>
-        <v>17.62</v>
+        <v>13.97</v>
       </c>
       <c r="I8" s="6">
         <f>IF($W$2*52&gt;I$2*$B8,ROUND(NPER($B8,-$W$2*52,I$2),2)," ")</f>
-        <v>20.27</v>
+        <v>16.05</v>
       </c>
       <c r="J8" s="6">
         <f>IF($W$2*52&gt;J$2*$B8,ROUND(NPER($B8,-$W$2*52,J$2),2)," ")</f>
-        <v>22.95</v>
+        <v>18.15</v>
       </c>
       <c r="K8" s="6">
         <f>IF($W$2*52&gt;K$2*$B8,ROUND(NPER($B8,-$W$2*52,K$2),2)," ")</f>
-        <v>25.67</v>
+        <v>20.27</v>
       </c>
       <c r="L8" s="6">
         <f>IF($W$2*52&gt;L$2*$B8,ROUND(NPER($B8,-$W$2*52,L$2),2)," ")</f>
-        <v>28.43</v>
+        <v>22.41</v>
       </c>
       <c r="M8" s="6">
         <f>IF($W$2*52&gt;M$2*$B8,ROUND(NPER($B8,-$W$2*52,M$2),2)," ")</f>
-        <v>31.23</v>
+        <v>24.58</v>
       </c>
       <c r="N8" s="6">
         <f>IF($W$2*52&gt;N$2*$B8,ROUND(NPER($B8,-$W$2*52,N$2),2)," ")</f>
-        <v>34.06</v>
+        <v>26.77</v>
       </c>
       <c r="O8" s="6">
         <f>IF($W$2*52&gt;O$2*$B8,ROUND(NPER($B8,-$W$2*52,O$2),2)," ")</f>
-        <v>36.94</v>
+        <v>28.99</v>
       </c>
       <c r="P8" s="6">
         <f>IF($W$2*52&gt;P$2*$B8,ROUND(NPER($B8,-$W$2*52,P$2),2)," ")</f>
-        <v>39.86</v>
+        <v>31.23</v>
       </c>
       <c r="Q8" s="6">
         <f>IF($W$2*52&gt;Q$2*$B8,ROUND(NPER($B8,-$W$2*52,Q$2),2)," ")</f>
-        <v>42.82</v>
+        <v>33.49</v>
       </c>
       <c r="R8" s="6">
         <f>IF($W$2*52&gt;R$2*$B8,ROUND(NPER($B8,-$W$2*52,R$2),2)," ")</f>
-        <v>45.83</v>
+        <v>35.79</v>
       </c>
       <c r="S8" s="6">
         <f>IF($W$2*52&gt;S$2*$B8,ROUND(NPER($B8,-$W$2*52,S$2),2)," ")</f>
-        <v>48.88</v>
+        <v>38.1</v>
       </c>
       <c r="T8" s="6">
         <f>IF($W$2*52&gt;T$2*$B8,ROUND(NPER($B8,-$W$2*52,T$2),2)," ")</f>
-        <v>51.98</v>
+        <v>40.45</v>
       </c>
       <c r="U8" s="6">
         <f>IF($W$2*52&gt;U$2*$B8,ROUND(NPER($B8,-$W$2*52,U$2),2)," ")</f>
-        <v>55.13</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1915,79 +1903,79 @@
       </c>
       <c r="C9" s="6">
         <f>IF($W$2*52&gt;C$2*$B9,ROUND(NPER($B9,-$W$2*52,C$2),2)," ")</f>
-        <v>4.89</v>
+        <v>3.9</v>
       </c>
       <c r="D9" s="6">
         <f>IF($W$2*52&gt;D$2*$B9,ROUND(NPER($B9,-$W$2*52,D$2),2)," ")</f>
-        <v>7.39</v>
+        <v>5.89</v>
       </c>
       <c r="E9" s="6">
         <f>IF($W$2*52&gt;E$2*$B9,ROUND(NPER($B9,-$W$2*52,E$2),2)," ")</f>
-        <v>9.93</v>
+        <v>7.9</v>
       </c>
       <c r="F9" s="6">
         <f>IF($W$2*52&gt;F$2*$B9,ROUND(NPER($B9,-$W$2*52,F$2),2)," ")</f>
-        <v>12.51</v>
+        <v>9.93</v>
       </c>
       <c r="G9" s="6">
         <f>IF($W$2*52&gt;G$2*$B9,ROUND(NPER($B9,-$W$2*52,G$2),2)," ")</f>
-        <v>15.13</v>
+        <v>11.99</v>
       </c>
       <c r="H9" s="6">
         <f>IF($W$2*52&gt;H$2*$B9,ROUND(NPER($B9,-$W$2*52,H$2),2)," ")</f>
-        <v>17.79</v>
+        <v>14.08</v>
       </c>
       <c r="I9" s="6">
         <f>IF($W$2*52&gt;I$2*$B9,ROUND(NPER($B9,-$W$2*52,I$2),2)," ")</f>
-        <v>20.49</v>
+        <v>16.19</v>
       </c>
       <c r="J9" s="6">
         <f>IF($W$2*52&gt;J$2*$B9,ROUND(NPER($B9,-$W$2*52,J$2),2)," ")</f>
-        <v>23.24</v>
+        <v>18.33</v>
       </c>
       <c r="K9" s="6">
         <f>IF($W$2*52&gt;K$2*$B9,ROUND(NPER($B9,-$W$2*52,K$2),2)," ")</f>
-        <v>26.04</v>
+        <v>20.49</v>
       </c>
       <c r="L9" s="6">
         <f>IF($W$2*52&gt;L$2*$B9,ROUND(NPER($B9,-$W$2*52,L$2),2)," ")</f>
-        <v>28.88</v>
+        <v>22.69</v>
       </c>
       <c r="M9" s="6">
         <f>IF($W$2*52&gt;M$2*$B9,ROUND(NPER($B9,-$W$2*52,M$2),2)," ")</f>
-        <v>31.77</v>
+        <v>24.91</v>
       </c>
       <c r="N9" s="6">
         <f>IF($W$2*52&gt;N$2*$B9,ROUND(NPER($B9,-$W$2*52,N$2),2)," ")</f>
-        <v>34.71</v>
+        <v>27.17</v>
       </c>
       <c r="O9" s="6">
         <f>IF($W$2*52&gt;O$2*$B9,ROUND(NPER($B9,-$W$2*52,O$2),2)," ")</f>
-        <v>37.7</v>
+        <v>29.45</v>
       </c>
       <c r="P9" s="6">
         <f>IF($W$2*52&gt;P$2*$B9,ROUND(NPER($B9,-$W$2*52,P$2),2)," ")</f>
-        <v>40.75</v>
+        <v>31.77</v>
       </c>
       <c r="Q9" s="6">
         <f>IF($W$2*52&gt;Q$2*$B9,ROUND(NPER($B9,-$W$2*52,Q$2),2)," ")</f>
-        <v>43.86</v>
+        <v>34.12</v>
       </c>
       <c r="R9" s="6">
         <f>IF($W$2*52&gt;R$2*$B9,ROUND(NPER($B9,-$W$2*52,R$2),2)," ")</f>
-        <v>47.02</v>
+        <v>36.5</v>
       </c>
       <c r="S9" s="6">
         <f>IF($W$2*52&gt;S$2*$B9,ROUND(NPER($B9,-$W$2*52,S$2),2)," ")</f>
-        <v>50.25</v>
+        <v>38.92</v>
       </c>
       <c r="T9" s="6">
         <f>IF($W$2*52&gt;T$2*$B9,ROUND(NPER($B9,-$W$2*52,T$2),2)," ")</f>
-        <v>53.54</v>
+        <v>41.37</v>
       </c>
       <c r="U9" s="6">
         <f>IF($W$2*52&gt;U$2*$B9,ROUND(NPER($B9,-$W$2*52,U$2),2)," ")</f>
-        <v>56.89</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1998,79 +1986,79 @@
       </c>
       <c r="C10" s="6">
         <f>IF($W$2*52&gt;C$2*$B10,ROUND(NPER($B10,-$W$2*52,C$2),2)," ")</f>
-        <v>4.91</v>
+        <v>3.91</v>
       </c>
       <c r="D10" s="6">
         <f>IF($W$2*52&gt;D$2*$B10,ROUND(NPER($B10,-$W$2*52,D$2),2)," ")</f>
-        <v>7.43</v>
+        <v>5.91</v>
       </c>
       <c r="E10" s="6">
         <f>IF($W$2*52&gt;E$2*$B10,ROUND(NPER($B10,-$W$2*52,E$2),2)," ")</f>
-        <v>9.99</v>
+        <v>7.93</v>
       </c>
       <c r="F10" s="6">
         <f>IF($W$2*52&gt;F$2*$B10,ROUND(NPER($B10,-$W$2*52,F$2),2)," ")</f>
-        <v>12.6</v>
+        <v>9.99</v>
       </c>
       <c r="G10" s="6">
         <f>IF($W$2*52&gt;G$2*$B10,ROUND(NPER($B10,-$W$2*52,G$2),2)," ")</f>
-        <v>15.26</v>
+        <v>12.07</v>
       </c>
       <c r="H10" s="6">
         <f>IF($W$2*52&gt;H$2*$B10,ROUND(NPER($B10,-$W$2*52,H$2),2)," ")</f>
-        <v>17.97</v>
+        <v>14.19</v>
       </c>
       <c r="I10" s="6">
         <f>IF($W$2*52&gt;I$2*$B10,ROUND(NPER($B10,-$W$2*52,I$2),2)," ")</f>
-        <v>20.73</v>
+        <v>16.33</v>
       </c>
       <c r="J10" s="6">
         <f>IF($W$2*52&gt;J$2*$B10,ROUND(NPER($B10,-$W$2*52,J$2),2)," ")</f>
-        <v>23.54</v>
+        <v>18.51</v>
       </c>
       <c r="K10" s="6">
         <f>IF($W$2*52&gt;K$2*$B10,ROUND(NPER($B10,-$W$2*52,K$2),2)," ")</f>
-        <v>26.41</v>
+        <v>20.73</v>
       </c>
       <c r="L10" s="6">
         <f>IF($W$2*52&gt;L$2*$B10,ROUND(NPER($B10,-$W$2*52,L$2),2)," ")</f>
-        <v>29.34</v>
+        <v>22.97</v>
       </c>
       <c r="M10" s="6">
         <f>IF($W$2*52&gt;M$2*$B10,ROUND(NPER($B10,-$W$2*52,M$2),2)," ")</f>
-        <v>32.33</v>
+        <v>25.26</v>
       </c>
       <c r="N10" s="6">
         <f>IF($W$2*52&gt;N$2*$B10,ROUND(NPER($B10,-$W$2*52,N$2),2)," ")</f>
-        <v>35.39</v>
+        <v>27.58</v>
       </c>
       <c r="O10" s="6">
         <f>IF($W$2*52&gt;O$2*$B10,ROUND(NPER($B10,-$W$2*52,O$2),2)," ")</f>
-        <v>38.51</v>
+        <v>29.94</v>
       </c>
       <c r="P10" s="6">
         <f>IF($W$2*52&gt;P$2*$B10,ROUND(NPER($B10,-$W$2*52,P$2),2)," ")</f>
-        <v>41.7</v>
+        <v>32.33</v>
       </c>
       <c r="Q10" s="6">
         <f>IF($W$2*52&gt;Q$2*$B10,ROUND(NPER($B10,-$W$2*52,Q$2),2)," ")</f>
-        <v>44.96</v>
+        <v>34.77</v>
       </c>
       <c r="R10" s="6">
         <f>IF($W$2*52&gt;R$2*$B10,ROUND(NPER($B10,-$W$2*52,R$2),2)," ")</f>
-        <v>48.3</v>
+        <v>37.25</v>
       </c>
       <c r="S10" s="6">
         <f>IF($W$2*52&gt;S$2*$B10,ROUND(NPER($B10,-$W$2*52,S$2),2)," ")</f>
-        <v>51.72</v>
+        <v>39.78</v>
       </c>
       <c r="T10" s="6">
         <f>IF($W$2*52&gt;T$2*$B10,ROUND(NPER($B10,-$W$2*52,T$2),2)," ")</f>
-        <v>55.23</v>
+        <v>42.35</v>
       </c>
       <c r="U10" s="6">
         <f>IF($W$2*52&gt;U$2*$B10,ROUND(NPER($B10,-$W$2*52,U$2),2)," ")</f>
-        <v>58.82</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2081,79 +2069,79 @@
       </c>
       <c r="C11" s="6">
         <f>IF($W$2*52&gt;C$2*$B11,ROUND(NPER($B11,-$W$2*52,C$2),2)," ")</f>
-        <v>4.92</v>
+        <v>3.92</v>
       </c>
       <c r="D11" s="6">
         <f>IF($W$2*52&gt;D$2*$B11,ROUND(NPER($B11,-$W$2*52,D$2),2)," ")</f>
-        <v>7.46</v>
+        <v>5.93</v>
       </c>
       <c r="E11" s="6">
         <f>IF($W$2*52&gt;E$2*$B11,ROUND(NPER($B11,-$W$2*52,E$2),2)," ")</f>
-        <v>10.05</v>
+        <v>7.97</v>
       </c>
       <c r="F11" s="6">
         <f>IF($W$2*52&gt;F$2*$B11,ROUND(NPER($B11,-$W$2*52,F$2),2)," ")</f>
-        <v>12.69</v>
+        <v>10.05</v>
       </c>
       <c r="G11" s="6">
         <f>IF($W$2*52&gt;G$2*$B11,ROUND(NPER($B11,-$W$2*52,G$2),2)," ")</f>
-        <v>15.39</v>
+        <v>12.15</v>
       </c>
       <c r="H11" s="6">
         <f>IF($W$2*52&gt;H$2*$B11,ROUND(NPER($B11,-$W$2*52,H$2),2)," ")</f>
-        <v>18.14</v>
+        <v>14.3</v>
       </c>
       <c r="I11" s="6">
         <f>IF($W$2*52&gt;I$2*$B11,ROUND(NPER($B11,-$W$2*52,I$2),2)," ")</f>
-        <v>20.97</v>
+        <v>16.48</v>
       </c>
       <c r="J11" s="6">
         <f>IF($W$2*52&gt;J$2*$B11,ROUND(NPER($B11,-$W$2*52,J$2),2)," ")</f>
-        <v>23.85</v>
+        <v>18.7</v>
       </c>
       <c r="K11" s="6">
         <f>IF($W$2*52&gt;K$2*$B11,ROUND(NPER($B11,-$W$2*52,K$2),2)," ")</f>
-        <v>26.8</v>
+        <v>20.97</v>
       </c>
       <c r="L11" s="6">
         <f>IF($W$2*52&gt;L$2*$B11,ROUND(NPER($B11,-$W$2*52,L$2),2)," ")</f>
-        <v>29.83</v>
+        <v>23.27</v>
       </c>
       <c r="M11" s="6">
         <f>IF($W$2*52&gt;M$2*$B11,ROUND(NPER($B11,-$W$2*52,M$2),2)," ")</f>
-        <v>32.93</v>
+        <v>25.61</v>
       </c>
       <c r="N11" s="6">
         <f>IF($W$2*52&gt;N$2*$B11,ROUND(NPER($B11,-$W$2*52,N$2),2)," ")</f>
-        <v>36.1</v>
+        <v>28</v>
       </c>
       <c r="O11" s="6">
         <f>IF($W$2*52&gt;O$2*$B11,ROUND(NPER($B11,-$W$2*52,O$2),2)," ")</f>
-        <v>39.36</v>
+        <v>30.44</v>
       </c>
       <c r="P11" s="6">
         <f>IF($W$2*52&gt;P$2*$B11,ROUND(NPER($B11,-$W$2*52,P$2),2)," ")</f>
-        <v>42.71</v>
+        <v>32.93</v>
       </c>
       <c r="Q11" s="6">
         <f>IF($W$2*52&gt;Q$2*$B11,ROUND(NPER($B11,-$W$2*52,Q$2),2)," ")</f>
-        <v>46.15</v>
+        <v>35.46</v>
       </c>
       <c r="R11" s="6">
         <f>IF($W$2*52&gt;R$2*$B11,ROUND(NPER($B11,-$W$2*52,R$2),2)," ")</f>
-        <v>49.68</v>
+        <v>38.05</v>
       </c>
       <c r="S11" s="6">
         <f>IF($W$2*52&gt;S$2*$B11,ROUND(NPER($B11,-$W$2*52,S$2),2)," ")</f>
-        <v>53.32</v>
+        <v>40.69</v>
       </c>
       <c r="T11" s="6">
         <f>IF($W$2*52&gt;T$2*$B11,ROUND(NPER($B11,-$W$2*52,T$2),2)," ")</f>
-        <v>57.07</v>
+        <v>43.39</v>
       </c>
       <c r="U11" s="6">
         <f>IF($W$2*52&gt;U$2*$B11,ROUND(NPER($B11,-$W$2*52,U$2),2)," ")</f>
-        <v>60.93</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2164,79 +2152,79 @@
       </c>
       <c r="C12" s="6">
         <f>IF($W$2*52&gt;C$2*$B12,ROUND(NPER($B12,-$W$2*52,C$2),2)," ")</f>
-        <v>4.94</v>
+        <v>3.93</v>
       </c>
       <c r="D12" s="6">
         <f>IF($W$2*52&gt;D$2*$B12,ROUND(NPER($B12,-$W$2*52,D$2),2)," ")</f>
-        <v>7.49</v>
+        <v>5.95</v>
       </c>
       <c r="E12" s="6">
         <f>IF($W$2*52&gt;E$2*$B12,ROUND(NPER($B12,-$W$2*52,E$2),2)," ")</f>
-        <v>10.1</v>
+        <v>8.01</v>
       </c>
       <c r="F12" s="6">
         <f>IF($W$2*52&gt;F$2*$B12,ROUND(NPER($B12,-$W$2*52,F$2),2)," ")</f>
-        <v>12.78</v>
+        <v>10.1</v>
       </c>
       <c r="G12" s="6">
         <f>IF($W$2*52&gt;G$2*$B12,ROUND(NPER($B12,-$W$2*52,G$2),2)," ")</f>
-        <v>15.52</v>
+        <v>12.24</v>
       </c>
       <c r="H12" s="6">
         <f>IF($W$2*52&gt;H$2*$B12,ROUND(NPER($B12,-$W$2*52,H$2),2)," ")</f>
-        <v>18.33</v>
+        <v>14.41</v>
       </c>
       <c r="I12" s="6">
         <f>IF($W$2*52&gt;I$2*$B12,ROUND(NPER($B12,-$W$2*52,I$2),2)," ")</f>
-        <v>21.21</v>
+        <v>16.63</v>
       </c>
       <c r="J12" s="6">
         <f>IF($W$2*52&gt;J$2*$B12,ROUND(NPER($B12,-$W$2*52,J$2),2)," ")</f>
-        <v>24.17</v>
+        <v>18.9</v>
       </c>
       <c r="K12" s="6">
         <f>IF($W$2*52&gt;K$2*$B12,ROUND(NPER($B12,-$W$2*52,K$2),2)," ")</f>
-        <v>27.21</v>
+        <v>21.21</v>
       </c>
       <c r="L12" s="6">
         <f>IF($W$2*52&gt;L$2*$B12,ROUND(NPER($B12,-$W$2*52,L$2),2)," ")</f>
-        <v>30.33</v>
+        <v>23.57</v>
       </c>
       <c r="M12" s="6">
         <f>IF($W$2*52&gt;M$2*$B12,ROUND(NPER($B12,-$W$2*52,M$2),2)," ")</f>
-        <v>33.55</v>
+        <v>25.98</v>
       </c>
       <c r="N12" s="6">
         <f>IF($W$2*52&gt;N$2*$B12,ROUND(NPER($B12,-$W$2*52,N$2),2)," ")</f>
-        <v>36.86</v>
+        <v>28.45</v>
       </c>
       <c r="O12" s="6">
         <f>IF($W$2*52&gt;O$2*$B12,ROUND(NPER($B12,-$W$2*52,O$2),2)," ")</f>
-        <v>40.27</v>
+        <v>30.97</v>
       </c>
       <c r="P12" s="6">
         <f>IF($W$2*52&gt;P$2*$B12,ROUND(NPER($B12,-$W$2*52,P$2),2)," ")</f>
-        <v>43.79</v>
+        <v>33.55</v>
       </c>
       <c r="Q12" s="6">
         <f>IF($W$2*52&gt;Q$2*$B12,ROUND(NPER($B12,-$W$2*52,Q$2),2)," ")</f>
-        <v>47.42</v>
+        <v>36.19</v>
       </c>
       <c r="R12" s="6">
         <f>IF($W$2*52&gt;R$2*$B12,ROUND(NPER($B12,-$W$2*52,R$2),2)," ")</f>
-        <v>51.18</v>
+        <v>38.89</v>
       </c>
       <c r="S12" s="6">
         <f>IF($W$2*52&gt;S$2*$B12,ROUND(NPER($B12,-$W$2*52,S$2),2)," ")</f>
-        <v>55.06</v>
+        <v>41.66</v>
       </c>
       <c r="T12" s="6">
         <f>IF($W$2*52&gt;T$2*$B12,ROUND(NPER($B12,-$W$2*52,T$2),2)," ")</f>
-        <v>59.09</v>
+        <v>44.51</v>
       </c>
       <c r="U12" s="6">
         <f>IF($W$2*52&gt;U$2*$B12,ROUND(NPER($B12,-$W$2*52,U$2),2)," ")</f>
-        <v>63.27</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2247,79 +2235,79 @@
       </c>
       <c r="C13" s="6">
         <f>IF($W$2*52&gt;C$2*$B13,ROUND(NPER($B13,-$W$2*52,C$2),2)," ")</f>
-        <v>4.95</v>
+        <v>3.94</v>
       </c>
       <c r="D13" s="6">
         <f>IF($W$2*52&gt;D$2*$B13,ROUND(NPER($B13,-$W$2*52,D$2),2)," ")</f>
-        <v>7.52</v>
+        <v>5.97</v>
       </c>
       <c r="E13" s="6">
         <f>IF($W$2*52&gt;E$2*$B13,ROUND(NPER($B13,-$W$2*52,E$2),2)," ")</f>
-        <v>10.16</v>
+        <v>8.04</v>
       </c>
       <c r="F13" s="6">
         <f>IF($W$2*52&gt;F$2*$B13,ROUND(NPER($B13,-$W$2*52,F$2),2)," ")</f>
-        <v>12.87</v>
+        <v>10.16</v>
       </c>
       <c r="G13" s="6">
         <f>IF($W$2*52&gt;G$2*$B13,ROUND(NPER($B13,-$W$2*52,G$2),2)," ")</f>
-        <v>15.65</v>
+        <v>12.32</v>
       </c>
       <c r="H13" s="6">
         <f>IF($W$2*52&gt;H$2*$B13,ROUND(NPER($B13,-$W$2*52,H$2),2)," ")</f>
-        <v>18.52</v>
+        <v>14.53</v>
       </c>
       <c r="I13" s="6">
         <f>IF($W$2*52&gt;I$2*$B13,ROUND(NPER($B13,-$W$2*52,I$2),2)," ")</f>
-        <v>21.46</v>
+        <v>16.79</v>
       </c>
       <c r="J13" s="6">
         <f>IF($W$2*52&gt;J$2*$B13,ROUND(NPER($B13,-$W$2*52,J$2),2)," ")</f>
-        <v>24.5</v>
+        <v>19.1</v>
       </c>
       <c r="K13" s="6">
         <f>IF($W$2*52&gt;K$2*$B13,ROUND(NPER($B13,-$W$2*52,K$2),2)," ")</f>
-        <v>27.63</v>
+        <v>21.46</v>
       </c>
       <c r="L13" s="6">
         <f>IF($W$2*52&gt;L$2*$B13,ROUND(NPER($B13,-$W$2*52,L$2),2)," ")</f>
-        <v>30.86</v>
+        <v>23.89</v>
       </c>
       <c r="M13" s="6">
         <f>IF($W$2*52&gt;M$2*$B13,ROUND(NPER($B13,-$W$2*52,M$2),2)," ")</f>
-        <v>34.2</v>
+        <v>26.37</v>
       </c>
       <c r="N13" s="6">
         <f>IF($W$2*52&gt;N$2*$B13,ROUND(NPER($B13,-$W$2*52,N$2),2)," ")</f>
-        <v>37.66</v>
+        <v>28.91</v>
       </c>
       <c r="O13" s="6">
         <f>IF($W$2*52&gt;O$2*$B13,ROUND(NPER($B13,-$W$2*52,O$2),2)," ")</f>
-        <v>41.23</v>
+        <v>31.52</v>
       </c>
       <c r="P13" s="6">
         <f>IF($W$2*52&gt;P$2*$B13,ROUND(NPER($B13,-$W$2*52,P$2),2)," ")</f>
-        <v>44.94</v>
+        <v>34.2</v>
       </c>
       <c r="Q13" s="6">
         <f>IF($W$2*52&gt;Q$2*$B13,ROUND(NPER($B13,-$W$2*52,Q$2),2)," ")</f>
-        <v>48.79</v>
+        <v>36.96</v>
       </c>
       <c r="R13" s="6">
         <f>IF($W$2*52&gt;R$2*$B13,ROUND(NPER($B13,-$W$2*52,R$2),2)," ")</f>
-        <v>52.8</v>
+        <v>39.79</v>
       </c>
       <c r="S13" s="6">
         <f>IF($W$2*52&gt;S$2*$B13,ROUND(NPER($B13,-$W$2*52,S$2),2)," ")</f>
-        <v>56.97</v>
+        <v>42.7</v>
       </c>
       <c r="T13" s="6">
         <f>IF($W$2*52&gt;T$2*$B13,ROUND(NPER($B13,-$W$2*52,T$2),2)," ")</f>
-        <v>61.32</v>
+        <v>45.7</v>
       </c>
       <c r="U13" s="6">
         <f>IF($W$2*52&gt;U$2*$B13,ROUND(NPER($B13,-$W$2*52,U$2),2)," ")</f>
-        <v>65.87</v>
+        <v>48.79</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2330,79 +2318,79 @@
       </c>
       <c r="C14" s="6">
         <f>IF($W$2*52&gt;C$2*$B14,ROUND(NPER($B14,-$W$2*52,C$2),2)," ")</f>
-        <v>4.97</v>
+        <v>3.95</v>
       </c>
       <c r="D14" s="6">
         <f>IF($W$2*52&gt;D$2*$B14,ROUND(NPER($B14,-$W$2*52,D$2),2)," ")</f>
-        <v>7.55</v>
+        <v>5.99</v>
       </c>
       <c r="E14" s="6">
         <f>IF($W$2*52&gt;E$2*$B14,ROUND(NPER($B14,-$W$2*52,E$2),2)," ")</f>
-        <v>10.22</v>
+        <v>8.08</v>
       </c>
       <c r="F14" s="6">
         <f>IF($W$2*52&gt;F$2*$B14,ROUND(NPER($B14,-$W$2*52,F$2),2)," ")</f>
-        <v>12.96</v>
+        <v>10.22</v>
       </c>
       <c r="G14" s="6">
         <f>IF($W$2*52&gt;G$2*$B14,ROUND(NPER($B14,-$W$2*52,G$2),2)," ")</f>
-        <v>15.79</v>
+        <v>12.41</v>
       </c>
       <c r="H14" s="6">
         <f>IF($W$2*52&gt;H$2*$B14,ROUND(NPER($B14,-$W$2*52,H$2),2)," ")</f>
-        <v>18.71</v>
+        <v>14.65</v>
       </c>
       <c r="I14" s="6">
         <f>IF($W$2*52&gt;I$2*$B14,ROUND(NPER($B14,-$W$2*52,I$2),2)," ")</f>
-        <v>21.73</v>
+        <v>16.95</v>
       </c>
       <c r="J14" s="6">
         <f>IF($W$2*52&gt;J$2*$B14,ROUND(NPER($B14,-$W$2*52,J$2),2)," ")</f>
-        <v>24.84</v>
+        <v>19.31</v>
       </c>
       <c r="K14" s="6">
         <f>IF($W$2*52&gt;K$2*$B14,ROUND(NPER($B14,-$W$2*52,K$2),2)," ")</f>
-        <v>28.07</v>
+        <v>21.73</v>
       </c>
       <c r="L14" s="6">
         <f>IF($W$2*52&gt;L$2*$B14,ROUND(NPER($B14,-$W$2*52,L$2),2)," ")</f>
-        <v>31.42</v>
+        <v>24.21</v>
       </c>
       <c r="M14" s="6">
         <f>IF($W$2*52&gt;M$2*$B14,ROUND(NPER($B14,-$W$2*52,M$2),2)," ")</f>
-        <v>34.89</v>
+        <v>26.77</v>
       </c>
       <c r="N14" s="6">
         <f>IF($W$2*52&gt;N$2*$B14,ROUND(NPER($B14,-$W$2*52,N$2),2)," ")</f>
-        <v>38.5</v>
+        <v>29.4</v>
       </c>
       <c r="O14" s="6">
         <f>IF($W$2*52&gt;O$2*$B14,ROUND(NPER($B14,-$W$2*52,O$2),2)," ")</f>
-        <v>42.26</v>
+        <v>32.1</v>
       </c>
       <c r="P14" s="6">
         <f>IF($W$2*52&gt;P$2*$B14,ROUND(NPER($B14,-$W$2*52,P$2),2)," ")</f>
-        <v>46.18</v>
+        <v>34.89</v>
       </c>
       <c r="Q14" s="6">
         <f>IF($W$2*52&gt;Q$2*$B14,ROUND(NPER($B14,-$W$2*52,Q$2),2)," ")</f>
-        <v>50.28</v>
+        <v>37.77</v>
       </c>
       <c r="R14" s="6">
         <f>IF($W$2*52&gt;R$2*$B14,ROUND(NPER($B14,-$W$2*52,R$2),2)," ")</f>
-        <v>54.57</v>
+        <v>40.74</v>
       </c>
       <c r="S14" s="6">
         <f>IF($W$2*52&gt;S$2*$B14,ROUND(NPER($B14,-$W$2*52,S$2),2)," ")</f>
-        <v>59.07</v>
+        <v>43.81</v>
       </c>
       <c r="T14" s="6">
         <f>IF($W$2*52&gt;T$2*$B14,ROUND(NPER($B14,-$W$2*52,T$2),2)," ")</f>
-        <v>63.8</v>
+        <v>46.99</v>
       </c>
       <c r="U14" s="6">
         <f>IF($W$2*52&gt;U$2*$B14,ROUND(NPER($B14,-$W$2*52,U$2),2)," ")</f>
-        <v>68.79</v>
+        <v>50.28</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2413,79 +2401,79 @@
       </c>
       <c r="C15" s="6">
         <f>IF($W$2*52&gt;C$2*$B15,ROUND(NPER($B15,-$W$2*52,C$2),2)," ")</f>
-        <v>4.98</v>
+        <v>3.96</v>
       </c>
       <c r="D15" s="6">
         <f>IF($W$2*52&gt;D$2*$B15,ROUND(NPER($B15,-$W$2*52,D$2),2)," ")</f>
-        <v>7.59</v>
+        <v>6.01</v>
       </c>
       <c r="E15" s="6">
         <f>IF($W$2*52&gt;E$2*$B15,ROUND(NPER($B15,-$W$2*52,E$2),2)," ")</f>
-        <v>10.28</v>
+        <v>8.12</v>
       </c>
       <c r="F15" s="6">
         <f>IF($W$2*52&gt;F$2*$B15,ROUND(NPER($B15,-$W$2*52,F$2),2)," ")</f>
-        <v>13.06</v>
+        <v>10.28</v>
       </c>
       <c r="G15" s="6">
         <f>IF($W$2*52&gt;G$2*$B15,ROUND(NPER($B15,-$W$2*52,G$2),2)," ")</f>
-        <v>15.93</v>
+        <v>12.49</v>
       </c>
       <c r="H15" s="6">
         <f>IF($W$2*52&gt;H$2*$B15,ROUND(NPER($B15,-$W$2*52,H$2),2)," ")</f>
-        <v>18.91</v>
+        <v>14.77</v>
       </c>
       <c r="I15" s="6">
         <f>IF($W$2*52&gt;I$2*$B15,ROUND(NPER($B15,-$W$2*52,I$2),2)," ")</f>
-        <v>21.99</v>
+        <v>17.11</v>
       </c>
       <c r="J15" s="6">
         <f>IF($W$2*52&gt;J$2*$B15,ROUND(NPER($B15,-$W$2*52,J$2),2)," ")</f>
-        <v>25.2</v>
+        <v>19.52</v>
       </c>
       <c r="K15" s="6">
         <f>IF($W$2*52&gt;K$2*$B15,ROUND(NPER($B15,-$W$2*52,K$2),2)," ")</f>
-        <v>28.53</v>
+        <v>21.99</v>
       </c>
       <c r="L15" s="6">
         <f>IF($W$2*52&gt;L$2*$B15,ROUND(NPER($B15,-$W$2*52,L$2),2)," ")</f>
-        <v>32</v>
+        <v>24.55</v>
       </c>
       <c r="M15" s="6">
         <f>IF($W$2*52&gt;M$2*$B15,ROUND(NPER($B15,-$W$2*52,M$2),2)," ")</f>
-        <v>35.62</v>
+        <v>27.18</v>
       </c>
       <c r="N15" s="6">
         <f>IF($W$2*52&gt;N$2*$B15,ROUND(NPER($B15,-$W$2*52,N$2),2)," ")</f>
-        <v>39.4</v>
+        <v>29.9</v>
       </c>
       <c r="O15" s="6">
         <f>IF($W$2*52&gt;O$2*$B15,ROUND(NPER($B15,-$W$2*52,O$2),2)," ")</f>
-        <v>43.36</v>
+        <v>32.71</v>
       </c>
       <c r="P15" s="6">
         <f>IF($W$2*52&gt;P$2*$B15,ROUND(NPER($B15,-$W$2*52,P$2),2)," ")</f>
-        <v>47.52</v>
+        <v>35.62</v>
       </c>
       <c r="Q15" s="6">
         <f>IF($W$2*52&gt;Q$2*$B15,ROUND(NPER($B15,-$W$2*52,Q$2),2)," ")</f>
-        <v>51.9</v>
+        <v>38.63</v>
       </c>
       <c r="R15" s="6">
         <f>IF($W$2*52&gt;R$2*$B15,ROUND(NPER($B15,-$W$2*52,R$2),2)," ")</f>
-        <v>56.51</v>
+        <v>41.76</v>
       </c>
       <c r="S15" s="6">
         <f>IF($W$2*52&gt;S$2*$B15,ROUND(NPER($B15,-$W$2*52,S$2),2)," ")</f>
-        <v>61.4</v>
+        <v>45</v>
       </c>
       <c r="T15" s="6">
         <f>IF($W$2*52&gt;T$2*$B15,ROUND(NPER($B15,-$W$2*52,T$2),2)," ")</f>
-        <v>66.58</v>
+        <v>48.38</v>
       </c>
       <c r="U15" s="6">
         <f>IF($W$2*52&gt;U$2*$B15,ROUND(NPER($B15,-$W$2*52,U$2),2)," ")</f>
-        <v>72.11</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2496,79 +2484,79 @@
       </c>
       <c r="C16" s="6">
         <f>IF($W$2*52&gt;C$2*$B16,ROUND(NPER($B16,-$W$2*52,C$2),2)," ")</f>
-        <v>5</v>
+        <v>3.97</v>
       </c>
       <c r="D16" s="6">
         <f>IF($W$2*52&gt;D$2*$B16,ROUND(NPER($B16,-$W$2*52,D$2),2)," ")</f>
-        <v>7.62</v>
+        <v>6.04</v>
       </c>
       <c r="E16" s="6">
         <f>IF($W$2*52&gt;E$2*$B16,ROUND(NPER($B16,-$W$2*52,E$2),2)," ")</f>
-        <v>10.34</v>
+        <v>8.16</v>
       </c>
       <c r="F16" s="6">
         <f>IF($W$2*52&gt;F$2*$B16,ROUND(NPER($B16,-$W$2*52,F$2),2)," ")</f>
-        <v>13.15</v>
+        <v>10.34</v>
       </c>
       <c r="G16" s="6">
         <f>IF($W$2*52&gt;G$2*$B16,ROUND(NPER($B16,-$W$2*52,G$2),2)," ")</f>
-        <v>16.08</v>
+        <v>12.58</v>
       </c>
       <c r="H16" s="6">
         <f>IF($W$2*52&gt;H$2*$B16,ROUND(NPER($B16,-$W$2*52,H$2),2)," ")</f>
-        <v>19.11</v>
+        <v>14.89</v>
       </c>
       <c r="I16" s="6">
         <f>IF($W$2*52&gt;I$2*$B16,ROUND(NPER($B16,-$W$2*52,I$2),2)," ")</f>
-        <v>22.27</v>
+        <v>17.28</v>
       </c>
       <c r="J16" s="6">
         <f>IF($W$2*52&gt;J$2*$B16,ROUND(NPER($B16,-$W$2*52,J$2),2)," ")</f>
-        <v>25.57</v>
+        <v>19.73</v>
       </c>
       <c r="K16" s="6">
         <f>IF($W$2*52&gt;K$2*$B16,ROUND(NPER($B16,-$W$2*52,K$2),2)," ")</f>
-        <v>29.01</v>
+        <v>22.27</v>
       </c>
       <c r="L16" s="6">
         <f>IF($W$2*52&gt;L$2*$B16,ROUND(NPER($B16,-$W$2*52,L$2),2)," ")</f>
-        <v>32.61</v>
+        <v>24.9</v>
       </c>
       <c r="M16" s="6">
         <f>IF($W$2*52&gt;M$2*$B16,ROUND(NPER($B16,-$W$2*52,M$2),2)," ")</f>
-        <v>36.39</v>
+        <v>27.61</v>
       </c>
       <c r="N16" s="6">
         <f>IF($W$2*52&gt;N$2*$B16,ROUND(NPER($B16,-$W$2*52,N$2),2)," ")</f>
-        <v>40.36</v>
+        <v>30.43</v>
       </c>
       <c r="O16" s="6">
         <f>IF($W$2*52&gt;O$2*$B16,ROUND(NPER($B16,-$W$2*52,O$2),2)," ")</f>
-        <v>44.55</v>
+        <v>33.35</v>
       </c>
       <c r="P16" s="6">
         <f>IF($W$2*52&gt;P$2*$B16,ROUND(NPER($B16,-$W$2*52,P$2),2)," ")</f>
-        <v>48.97</v>
+        <v>36.39</v>
       </c>
       <c r="Q16" s="6">
         <f>IF($W$2*52&gt;Q$2*$B16,ROUND(NPER($B16,-$W$2*52,Q$2),2)," ")</f>
-        <v>53.66</v>
+        <v>39.55</v>
       </c>
       <c r="R16" s="6">
         <f>IF($W$2*52&gt;R$2*$B16,ROUND(NPER($B16,-$W$2*52,R$2),2)," ")</f>
-        <v>58.66</v>
+        <v>42.84</v>
       </c>
       <c r="S16" s="6">
         <f>IF($W$2*52&gt;S$2*$B16,ROUND(NPER($B16,-$W$2*52,S$2),2)," ")</f>
-        <v>64</v>
+        <v>46.29</v>
       </c>
       <c r="T16" s="6">
         <f>IF($W$2*52&gt;T$2*$B16,ROUND(NPER($B16,-$W$2*52,T$2),2)," ")</f>
-        <v>69.74</v>
+        <v>49.89</v>
       </c>
       <c r="U16" s="6">
         <f>IF($W$2*52&gt;U$2*$B16,ROUND(NPER($B16,-$W$2*52,U$2),2)," ")</f>
-        <v>75.94</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2579,79 +2567,79 @@
       </c>
       <c r="C17" s="6">
         <f>IF($W$2*52&gt;C$2*$B17,ROUND(NPER($B17,-$W$2*52,C$2),2)," ")</f>
-        <v>5.01</v>
+        <v>3.98</v>
       </c>
       <c r="D17" s="6">
         <f>IF($W$2*52&gt;D$2*$B17,ROUND(NPER($B17,-$W$2*52,D$2),2)," ")</f>
-        <v>7.66</v>
+        <v>6.06</v>
       </c>
       <c r="E17" s="6">
         <f>IF($W$2*52&gt;E$2*$B17,ROUND(NPER($B17,-$W$2*52,E$2),2)," ")</f>
-        <v>10.4</v>
+        <v>8.2</v>
       </c>
       <c r="F17" s="6">
         <f>IF($W$2*52&gt;F$2*$B17,ROUND(NPER($B17,-$W$2*52,F$2),2)," ")</f>
-        <v>13.25</v>
+        <v>10.4</v>
       </c>
       <c r="G17" s="6">
         <f>IF($W$2*52&gt;G$2*$B17,ROUND(NPER($B17,-$W$2*52,G$2),2)," ")</f>
-        <v>16.22</v>
+        <v>12.67</v>
       </c>
       <c r="H17" s="6">
         <f>IF($W$2*52&gt;H$2*$B17,ROUND(NPER($B17,-$W$2*52,H$2),2)," ")</f>
-        <v>19.32</v>
+        <v>15.02</v>
       </c>
       <c r="I17" s="6">
         <f>IF($W$2*52&gt;I$2*$B17,ROUND(NPER($B17,-$W$2*52,I$2),2)," ")</f>
-        <v>22.56</v>
+        <v>17.45</v>
       </c>
       <c r="J17" s="6">
         <f>IF($W$2*52&gt;J$2*$B17,ROUND(NPER($B17,-$W$2*52,J$2),2)," ")</f>
-        <v>25.95</v>
+        <v>19.96</v>
       </c>
       <c r="K17" s="6">
         <f>IF($W$2*52&gt;K$2*$B17,ROUND(NPER($B17,-$W$2*52,K$2),2)," ")</f>
-        <v>29.51</v>
+        <v>22.56</v>
       </c>
       <c r="L17" s="6">
         <f>IF($W$2*52&gt;L$2*$B17,ROUND(NPER($B17,-$W$2*52,L$2),2)," ")</f>
-        <v>33.25</v>
+        <v>25.26</v>
       </c>
       <c r="M17" s="6">
         <f>IF($W$2*52&gt;M$2*$B17,ROUND(NPER($B17,-$W$2*52,M$2),2)," ")</f>
-        <v>37.2</v>
+        <v>28.07</v>
       </c>
       <c r="N17" s="6">
         <f>IF($W$2*52&gt;N$2*$B17,ROUND(NPER($B17,-$W$2*52,N$2),2)," ")</f>
-        <v>41.38</v>
+        <v>30.99</v>
       </c>
       <c r="O17" s="6">
         <f>IF($W$2*52&gt;O$2*$B17,ROUND(NPER($B17,-$W$2*52,O$2),2)," ")</f>
-        <v>45.82</v>
+        <v>34.03</v>
       </c>
       <c r="P17" s="6">
         <f>IF($W$2*52&gt;P$2*$B17,ROUND(NPER($B17,-$W$2*52,P$2),2)," ")</f>
-        <v>50.55</v>
+        <v>37.2</v>
       </c>
       <c r="Q17" s="6">
         <f>IF($W$2*52&gt;Q$2*$B17,ROUND(NPER($B17,-$W$2*52,Q$2),2)," ")</f>
-        <v>55.61</v>
+        <v>40.53</v>
       </c>
       <c r="R17" s="6">
         <f>IF($W$2*52&gt;R$2*$B17,ROUND(NPER($B17,-$W$2*52,R$2),2)," ")</f>
-        <v>61.06</v>
+        <v>44.01</v>
       </c>
       <c r="S17" s="6">
         <f>IF($W$2*52&gt;S$2*$B17,ROUND(NPER($B17,-$W$2*52,S$2),2)," ")</f>
-        <v>66.95</v>
+        <v>47.68</v>
       </c>
       <c r="T17" s="6">
         <f>IF($W$2*52&gt;T$2*$B17,ROUND(NPER($B17,-$W$2*52,T$2),2)," ")</f>
-        <v>73.37</v>
+        <v>51.54</v>
       </c>
       <c r="U17" s="6">
         <f>IF($W$2*52&gt;U$2*$B17,ROUND(NPER($B17,-$W$2*52,U$2),2)," ")</f>
-        <v>80.42</v>
+        <v>55.61</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2662,79 +2650,79 @@
       </c>
       <c r="C18" s="6">
         <f>IF($W$2*52&gt;C$2*$B18,ROUND(NPER($B18,-$W$2*52,C$2),2)," ")</f>
-        <v>5.03</v>
+        <v>3.99</v>
       </c>
       <c r="D18" s="6">
         <f>IF($W$2*52&gt;D$2*$B18,ROUND(NPER($B18,-$W$2*52,D$2),2)," ")</f>
-        <v>7.69</v>
+        <v>6.08</v>
       </c>
       <c r="E18" s="6">
         <f>IF($W$2*52&gt;E$2*$B18,ROUND(NPER($B18,-$W$2*52,E$2),2)," ")</f>
-        <v>10.46</v>
+        <v>8.23</v>
       </c>
       <c r="F18" s="6">
         <f>IF($W$2*52&gt;F$2*$B18,ROUND(NPER($B18,-$W$2*52,F$2),2)," ")</f>
-        <v>13.35</v>
+        <v>10.46</v>
       </c>
       <c r="G18" s="6">
         <f>IF($W$2*52&gt;G$2*$B18,ROUND(NPER($B18,-$W$2*52,G$2),2)," ")</f>
-        <v>16.37</v>
+        <v>12.76</v>
       </c>
       <c r="H18" s="6">
         <f>IF($W$2*52&gt;H$2*$B18,ROUND(NPER($B18,-$W$2*52,H$2),2)," ")</f>
-        <v>19.54</v>
+        <v>15.15</v>
       </c>
       <c r="I18" s="6">
         <f>IF($W$2*52&gt;I$2*$B18,ROUND(NPER($B18,-$W$2*52,I$2),2)," ")</f>
-        <v>22.86</v>
+        <v>17.62</v>
       </c>
       <c r="J18" s="6">
         <f>IF($W$2*52&gt;J$2*$B18,ROUND(NPER($B18,-$W$2*52,J$2),2)," ")</f>
-        <v>26.35</v>
+        <v>20.19</v>
       </c>
       <c r="K18" s="6">
         <f>IF($W$2*52&gt;K$2*$B18,ROUND(NPER($B18,-$W$2*52,K$2),2)," ")</f>
-        <v>30.04</v>
+        <v>22.86</v>
       </c>
       <c r="L18" s="6">
         <f>IF($W$2*52&gt;L$2*$B18,ROUND(NPER($B18,-$W$2*52,L$2),2)," ")</f>
-        <v>33.93</v>
+        <v>25.64</v>
       </c>
       <c r="M18" s="6">
         <f>IF($W$2*52&gt;M$2*$B18,ROUND(NPER($B18,-$W$2*52,M$2),2)," ")</f>
-        <v>38.07</v>
+        <v>28.54</v>
       </c>
       <c r="N18" s="6">
         <f>IF($W$2*52&gt;N$2*$B18,ROUND(NPER($B18,-$W$2*52,N$2),2)," ")</f>
-        <v>42.48</v>
+        <v>31.57</v>
       </c>
       <c r="O18" s="6">
         <f>IF($W$2*52&gt;O$2*$B18,ROUND(NPER($B18,-$W$2*52,O$2),2)," ")</f>
-        <v>47.2</v>
+        <v>34.74</v>
       </c>
       <c r="P18" s="6">
         <f>IF($W$2*52&gt;P$2*$B18,ROUND(NPER($B18,-$W$2*52,P$2),2)," ")</f>
-        <v>52.28</v>
+        <v>38.07</v>
       </c>
       <c r="Q18" s="6">
         <f>IF($W$2*52&gt;Q$2*$B18,ROUND(NPER($B18,-$W$2*52,Q$2),2)," ")</f>
-        <v>57.78</v>
+        <v>41.58</v>
       </c>
       <c r="R18" s="6">
         <f>IF($W$2*52&gt;R$2*$B18,ROUND(NPER($B18,-$W$2*52,R$2),2)," ")</f>
-        <v>63.76</v>
+        <v>45.28</v>
       </c>
       <c r="S18" s="6">
         <f>IF($W$2*52&gt;S$2*$B18,ROUND(NPER($B18,-$W$2*52,S$2),2)," ")</f>
-        <v>70.33</v>
+        <v>49.19</v>
       </c>
       <c r="T18" s="6">
         <f>IF($W$2*52&gt;T$2*$B18,ROUND(NPER($B18,-$W$2*52,T$2),2)," ")</f>
-        <v>77.61</v>
+        <v>53.35</v>
       </c>
       <c r="U18" s="6">
         <f>IF($W$2*52&gt;U$2*$B18,ROUND(NPER($B18,-$W$2*52,U$2),2)," ")</f>
-        <v>85.78</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2745,79 +2733,79 @@
       </c>
       <c r="C19" s="6">
         <f>IF($W$2*52&gt;C$2*$B19,ROUND(NPER($B19,-$W$2*52,C$2),2)," ")</f>
-        <v>5.04</v>
+        <v>4</v>
       </c>
       <c r="D19" s="6">
         <f>IF($W$2*52&gt;D$2*$B19,ROUND(NPER($B19,-$W$2*52,D$2),2)," ")</f>
-        <v>7.72</v>
+        <v>6.1</v>
       </c>
       <c r="E19" s="6">
         <f>IF($W$2*52&gt;E$2*$B19,ROUND(NPER($B19,-$W$2*52,E$2),2)," ")</f>
-        <v>10.52</v>
+        <v>8.27</v>
       </c>
       <c r="F19" s="6">
         <f>IF($W$2*52&gt;F$2*$B19,ROUND(NPER($B19,-$W$2*52,F$2),2)," ")</f>
-        <v>13.45</v>
+        <v>10.52</v>
       </c>
       <c r="G19" s="6">
         <f>IF($W$2*52&gt;G$2*$B19,ROUND(NPER($B19,-$W$2*52,G$2),2)," ")</f>
-        <v>16.53</v>
+        <v>12.86</v>
       </c>
       <c r="H19" s="6">
         <f>IF($W$2*52&gt;H$2*$B19,ROUND(NPER($B19,-$W$2*52,H$2),2)," ")</f>
-        <v>19.76</v>
+        <v>15.28</v>
       </c>
       <c r="I19" s="6">
         <f>IF($W$2*52&gt;I$2*$B19,ROUND(NPER($B19,-$W$2*52,I$2),2)," ")</f>
-        <v>23.17</v>
+        <v>17.8</v>
       </c>
       <c r="J19" s="6">
         <f>IF($W$2*52&gt;J$2*$B19,ROUND(NPER($B19,-$W$2*52,J$2),2)," ")</f>
-        <v>26.77</v>
+        <v>20.43</v>
       </c>
       <c r="K19" s="6">
         <f>IF($W$2*52&gt;K$2*$B19,ROUND(NPER($B19,-$W$2*52,K$2),2)," ")</f>
-        <v>30.59</v>
+        <v>23.17</v>
       </c>
       <c r="L19" s="6">
         <f>IF($W$2*52&gt;L$2*$B19,ROUND(NPER($B19,-$W$2*52,L$2),2)," ")</f>
-        <v>34.65</v>
+        <v>26.03</v>
       </c>
       <c r="M19" s="6">
         <f>IF($W$2*52&gt;M$2*$B19,ROUND(NPER($B19,-$W$2*52,M$2),2)," ")</f>
-        <v>39</v>
+        <v>29.03</v>
       </c>
       <c r="N19" s="6">
         <f>IF($W$2*52&gt;N$2*$B19,ROUND(NPER($B19,-$W$2*52,N$2),2)," ")</f>
-        <v>43.67</v>
+        <v>32.18</v>
       </c>
       <c r="O19" s="6">
         <f>IF($W$2*52&gt;O$2*$B19,ROUND(NPER($B19,-$W$2*52,O$2),2)," ")</f>
-        <v>48.71</v>
+        <v>35.5</v>
       </c>
       <c r="P19" s="6">
         <f>IF($W$2*52&gt;P$2*$B19,ROUND(NPER($B19,-$W$2*52,P$2),2)," ")</f>
-        <v>54.19</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="6">
         <f>IF($W$2*52&gt;Q$2*$B19,ROUND(NPER($B19,-$W$2*52,Q$2),2)," ")</f>
-        <v>60.2</v>
+        <v>42.71</v>
       </c>
       <c r="R19" s="6">
         <f>IF($W$2*52&gt;R$2*$B19,ROUND(NPER($B19,-$W$2*52,R$2),2)," ")</f>
-        <v>66.83</v>
+        <v>46.64</v>
       </c>
       <c r="S19" s="6">
         <f>IF($W$2*52&gt;S$2*$B19,ROUND(NPER($B19,-$W$2*52,S$2),2)," ")</f>
-        <v>74.25</v>
+        <v>50.85</v>
       </c>
       <c r="T19" s="6">
         <f>IF($W$2*52&gt;T$2*$B19,ROUND(NPER($B19,-$W$2*52,T$2),2)," ")</f>
-        <v>82.67</v>
+        <v>55.35</v>
       </c>
       <c r="U19" s="6">
         <f>IF($W$2*52&gt;U$2*$B19,ROUND(NPER($B19,-$W$2*52,U$2),2)," ")</f>
-        <v>92.38</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2828,79 +2816,79 @@
       </c>
       <c r="C20" s="6">
         <f>IF($W$2*52&gt;C$2*$B20,ROUND(NPER($B20,-$W$2*52,C$2),2)," ")</f>
-        <v>5.06</v>
+        <v>4.01</v>
       </c>
       <c r="D20" s="6">
         <f>IF($W$2*52&gt;D$2*$B20,ROUND(NPER($B20,-$W$2*52,D$2),2)," ")</f>
-        <v>7.76</v>
+        <v>6.12</v>
       </c>
       <c r="E20" s="6">
         <f>IF($W$2*52&gt;E$2*$B20,ROUND(NPER($B20,-$W$2*52,E$2),2)," ")</f>
-        <v>10.59</v>
+        <v>8.31</v>
       </c>
       <c r="F20" s="6">
         <f>IF($W$2*52&gt;F$2*$B20,ROUND(NPER($B20,-$W$2*52,F$2),2)," ")</f>
-        <v>13.56</v>
+        <v>10.59</v>
       </c>
       <c r="G20" s="6">
         <f>IF($W$2*52&gt;G$2*$B20,ROUND(NPER($B20,-$W$2*52,G$2),2)," ")</f>
-        <v>16.69</v>
+        <v>12.95</v>
       </c>
       <c r="H20" s="6">
         <f>IF($W$2*52&gt;H$2*$B20,ROUND(NPER($B20,-$W$2*52,H$2),2)," ")</f>
-        <v>19.99</v>
+        <v>15.42</v>
       </c>
       <c r="I20" s="6">
         <f>IF($W$2*52&gt;I$2*$B20,ROUND(NPER($B20,-$W$2*52,I$2),2)," ")</f>
-        <v>23.49</v>
+        <v>17.99</v>
       </c>
       <c r="J20" s="6">
         <f>IF($W$2*52&gt;J$2*$B20,ROUND(NPER($B20,-$W$2*52,J$2),2)," ")</f>
-        <v>27.2</v>
+        <v>20.67</v>
       </c>
       <c r="K20" s="6">
         <f>IF($W$2*52&gt;K$2*$B20,ROUND(NPER($B20,-$W$2*52,K$2),2)," ")</f>
-        <v>31.17</v>
+        <v>23.49</v>
       </c>
       <c r="L20" s="6">
         <f>IF($W$2*52&gt;L$2*$B20,ROUND(NPER($B20,-$W$2*52,L$2),2)," ")</f>
-        <v>35.41</v>
+        <v>26.44</v>
       </c>
       <c r="M20" s="6">
         <f>IF($W$2*52&gt;M$2*$B20,ROUND(NPER($B20,-$W$2*52,M$2),2)," ")</f>
-        <v>39.99</v>
+        <v>29.55</v>
       </c>
       <c r="N20" s="6">
         <f>IF($W$2*52&gt;N$2*$B20,ROUND(NPER($B20,-$W$2*52,N$2),2)," ")</f>
-        <v>44.95</v>
+        <v>32.83</v>
       </c>
       <c r="O20" s="6">
         <f>IF($W$2*52&gt;O$2*$B20,ROUND(NPER($B20,-$W$2*52,O$2),2)," ")</f>
-        <v>50.36</v>
+        <v>36.3</v>
       </c>
       <c r="P20" s="6">
         <f>IF($W$2*52&gt;P$2*$B20,ROUND(NPER($B20,-$W$2*52,P$2),2)," ")</f>
-        <v>56.31</v>
+        <v>39.99</v>
       </c>
       <c r="Q20" s="6">
         <f>IF($W$2*52&gt;Q$2*$B20,ROUND(NPER($B20,-$W$2*52,Q$2),2)," ")</f>
-        <v>62.93</v>
+        <v>43.92</v>
       </c>
       <c r="R20" s="6">
         <f>IF($W$2*52&gt;R$2*$B20,ROUND(NPER($B20,-$W$2*52,R$2),2)," ")</f>
-        <v>70.39</v>
+        <v>48.13</v>
       </c>
       <c r="S20" s="6">
         <f>IF($W$2*52&gt;S$2*$B20,ROUND(NPER($B20,-$W$2*52,S$2),2)," ")</f>
-        <v>78.91</v>
+        <v>52.67</v>
       </c>
       <c r="T20" s="6">
         <f>IF($W$2*52&gt;T$2*$B20,ROUND(NPER($B20,-$W$2*52,T$2),2)," ")</f>
-        <v>88.87</v>
+        <v>57.58</v>
       </c>
       <c r="U20" s="6">
         <f>IF($W$2*52&gt;U$2*$B20,ROUND(NPER($B20,-$W$2*52,U$2),2)," ")</f>
-        <v>100.84</v>
+        <v>62.93</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2911,79 +2899,79 @@
       </c>
       <c r="C21" s="6">
         <f>IF($W$2*52&gt;C$2*$B21,ROUND(NPER($B21,-$W$2*52,C$2),2)," ")</f>
-        <v>5.07</v>
+        <v>4.02</v>
       </c>
       <c r="D21" s="6">
         <f>IF($W$2*52&gt;D$2*$B21,ROUND(NPER($B21,-$W$2*52,D$2),2)," ")</f>
-        <v>7.79</v>
+        <v>6.15</v>
       </c>
       <c r="E21" s="6">
         <f>IF($W$2*52&gt;E$2*$B21,ROUND(NPER($B21,-$W$2*52,E$2),2)," ")</f>
-        <v>10.65</v>
+        <v>8.35</v>
       </c>
       <c r="F21" s="6">
         <f>IF($W$2*52&gt;F$2*$B21,ROUND(NPER($B21,-$W$2*52,F$2),2)," ")</f>
-        <v>13.67</v>
+        <v>10.65</v>
       </c>
       <c r="G21" s="6">
         <f>IF($W$2*52&gt;G$2*$B21,ROUND(NPER($B21,-$W$2*52,G$2),2)," ")</f>
-        <v>16.85</v>
+        <v>13.05</v>
       </c>
       <c r="H21" s="6">
         <f>IF($W$2*52&gt;H$2*$B21,ROUND(NPER($B21,-$W$2*52,H$2),2)," ")</f>
-        <v>20.22</v>
+        <v>15.55</v>
       </c>
       <c r="I21" s="6">
         <f>IF($W$2*52&gt;I$2*$B21,ROUND(NPER($B21,-$W$2*52,I$2),2)," ")</f>
-        <v>23.82</v>
+        <v>18.17</v>
       </c>
       <c r="J21" s="6">
         <f>IF($W$2*52&gt;J$2*$B21,ROUND(NPER($B21,-$W$2*52,J$2),2)," ")</f>
-        <v>27.65</v>
+        <v>20.92</v>
       </c>
       <c r="K21" s="6">
         <f>IF($W$2*52&gt;K$2*$B21,ROUND(NPER($B21,-$W$2*52,K$2),2)," ")</f>
-        <v>31.77</v>
+        <v>23.82</v>
       </c>
       <c r="L21" s="6">
         <f>IF($W$2*52&gt;L$2*$B21,ROUND(NPER($B21,-$W$2*52,L$2),2)," ")</f>
-        <v>36.22</v>
+        <v>26.87</v>
       </c>
       <c r="M21" s="6">
         <f>IF($W$2*52&gt;M$2*$B21,ROUND(NPER($B21,-$W$2*52,M$2),2)," ")</f>
-        <v>41.05</v>
+        <v>30.09</v>
       </c>
       <c r="N21" s="6">
         <f>IF($W$2*52&gt;N$2*$B21,ROUND(NPER($B21,-$W$2*52,N$2),2)," ")</f>
-        <v>46.34</v>
+        <v>33.51</v>
       </c>
       <c r="O21" s="6">
         <f>IF($W$2*52&gt;O$2*$B21,ROUND(NPER($B21,-$W$2*52,O$2),2)," ")</f>
-        <v>52.18</v>
+        <v>37.15</v>
       </c>
       <c r="P21" s="6">
         <f>IF($W$2*52&gt;P$2*$B21,ROUND(NPER($B21,-$W$2*52,P$2),2)," ")</f>
-        <v>58.69</v>
+        <v>41.05</v>
       </c>
       <c r="Q21" s="6">
         <f>IF($W$2*52&gt;Q$2*$B21,ROUND(NPER($B21,-$W$2*52,Q$2),2)," ")</f>
-        <v>66.07</v>
+        <v>45.24</v>
       </c>
       <c r="R21" s="6">
         <f>IF($W$2*52&gt;R$2*$B21,ROUND(NPER($B21,-$W$2*52,R$2),2)," ")</f>
-        <v>74.56</v>
+        <v>49.77</v>
       </c>
       <c r="S21" s="6">
         <f>IF($W$2*52&gt;S$2*$B21,ROUND(NPER($B21,-$W$2*52,S$2),2)," ")</f>
-        <v>84.58</v>
+        <v>54.69</v>
       </c>
       <c r="T21" s="6">
         <f>IF($W$2*52&gt;T$2*$B21,ROUND(NPER($B21,-$W$2*52,T$2),2)," ")</f>
-        <v>96.78</v>
+        <v>60.09</v>
       </c>
       <c r="U21" s="6">
         <f>IF($W$2*52&gt;U$2*$B21,ROUND(NPER($B21,-$W$2*52,U$2),2)," ")</f>
-        <v>112.41</v>
+        <v>66.07</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2994,79 +2982,79 @@
       </c>
       <c r="C22" s="6">
         <f>IF($W$2*52&gt;C$2*$B22,ROUND(NPER($B22,-$W$2*52,C$2),2)," ")</f>
-        <v>5.09</v>
+        <v>4.03</v>
       </c>
       <c r="D22" s="6">
         <f>IF($W$2*52&gt;D$2*$B22,ROUND(NPER($B22,-$W$2*52,D$2),2)," ")</f>
-        <v>7.83</v>
+        <v>6.17</v>
       </c>
       <c r="E22" s="6">
         <f>IF($W$2*52&gt;E$2*$B22,ROUND(NPER($B22,-$W$2*52,E$2),2)," ")</f>
-        <v>10.72</v>
+        <v>8.39</v>
       </c>
       <c r="F22" s="6">
         <f>IF($W$2*52&gt;F$2*$B22,ROUND(NPER($B22,-$W$2*52,F$2),2)," ")</f>
-        <v>13.77</v>
+        <v>10.72</v>
       </c>
       <c r="G22" s="6">
         <f>IF($W$2*52&gt;G$2*$B22,ROUND(NPER($B22,-$W$2*52,G$2),2)," ")</f>
-        <v>17.02</v>
+        <v>13.15</v>
       </c>
       <c r="H22" s="6">
         <f>IF($W$2*52&gt;H$2*$B22,ROUND(NPER($B22,-$W$2*52,H$2),2)," ")</f>
-        <v>20.47</v>
+        <v>15.69</v>
       </c>
       <c r="I22" s="6">
         <f>IF($W$2*52&gt;I$2*$B22,ROUND(NPER($B22,-$W$2*52,I$2),2)," ")</f>
-        <v>24.16</v>
+        <v>18.37</v>
       </c>
       <c r="J22" s="6">
         <f>IF($W$2*52&gt;J$2*$B22,ROUND(NPER($B22,-$W$2*52,J$2),2)," ")</f>
-        <v>28.13</v>
+        <v>21.19</v>
       </c>
       <c r="K22" s="6">
         <f>IF($W$2*52&gt;K$2*$B22,ROUND(NPER($B22,-$W$2*52,K$2),2)," ")</f>
-        <v>32.42</v>
+        <v>24.16</v>
       </c>
       <c r="L22" s="6">
         <f>IF($W$2*52&gt;L$2*$B22,ROUND(NPER($B22,-$W$2*52,L$2),2)," ")</f>
-        <v>37.08</v>
+        <v>27.31</v>
       </c>
       <c r="M22" s="6">
         <f>IF($W$2*52&gt;M$2*$B22,ROUND(NPER($B22,-$W$2*52,M$2),2)," ")</f>
-        <v>42.2</v>
+        <v>30.66</v>
       </c>
       <c r="N22" s="6">
         <f>IF($W$2*52&gt;N$2*$B22,ROUND(NPER($B22,-$W$2*52,N$2),2)," ")</f>
-        <v>47.86</v>
+        <v>34.23</v>
       </c>
       <c r="O22" s="6">
         <f>IF($W$2*52&gt;O$2*$B22,ROUND(NPER($B22,-$W$2*52,O$2),2)," ")</f>
-        <v>54.2</v>
+        <v>38.07</v>
       </c>
       <c r="P22" s="6">
         <f>IF($W$2*52&gt;P$2*$B22,ROUND(NPER($B22,-$W$2*52,P$2),2)," ")</f>
-        <v>61.39</v>
+        <v>42.2</v>
       </c>
       <c r="Q22" s="6">
         <f>IF($W$2*52&gt;Q$2*$B22,ROUND(NPER($B22,-$W$2*52,Q$2),2)," ")</f>
-        <v>69.72</v>
+        <v>46.68</v>
       </c>
       <c r="R22" s="6">
         <f>IF($W$2*52&gt;R$2*$B22,ROUND(NPER($B22,-$W$2*52,R$2),2)," ")</f>
-        <v>79.59</v>
+        <v>51.57</v>
       </c>
       <c r="S22" s="6">
         <f>IF($W$2*52&gt;S$2*$B22,ROUND(NPER($B22,-$W$2*52,S$2),2)," ")</f>
-        <v>91.74</v>
+        <v>56.96</v>
       </c>
       <c r="T22" s="6">
         <f>IF($W$2*52&gt;T$2*$B22,ROUND(NPER($B22,-$W$2*52,T$2),2)," ")</f>
-        <v>107.5</v>
+        <v>62.96</v>
       </c>
       <c r="U22" s="6">
         <f>IF($W$2*52&gt;U$2*$B22,ROUND(NPER($B22,-$W$2*52,U$2),2)," ")</f>
-        <v>130.02</v>
+        <v>69.72</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -3077,79 +3065,79 @@
       </c>
       <c r="C23" s="6">
         <f>IF($W$2*52&gt;C$2*$B23,ROUND(NPER($B23,-$W$2*52,C$2),2)," ")</f>
-        <v>5.11</v>
+        <v>4.04</v>
       </c>
       <c r="D23" s="6">
         <f>IF($W$2*52&gt;D$2*$B23,ROUND(NPER($B23,-$W$2*52,D$2),2)," ")</f>
-        <v>7.87</v>
+        <v>6.19</v>
       </c>
       <c r="E23" s="6">
         <f>IF($W$2*52&gt;E$2*$B23,ROUND(NPER($B23,-$W$2*52,E$2),2)," ")</f>
-        <v>10.79</v>
+        <v>8.44</v>
       </c>
       <c r="F23" s="6">
         <f>IF($W$2*52&gt;F$2*$B23,ROUND(NPER($B23,-$W$2*52,F$2),2)," ")</f>
-        <v>13.88</v>
+        <v>10.79</v>
       </c>
       <c r="G23" s="6">
         <f>IF($W$2*52&gt;G$2*$B23,ROUND(NPER($B23,-$W$2*52,G$2),2)," ")</f>
-        <v>17.19</v>
+        <v>13.25</v>
       </c>
       <c r="H23" s="6">
         <f>IF($W$2*52&gt;H$2*$B23,ROUND(NPER($B23,-$W$2*52,H$2),2)," ")</f>
-        <v>20.72</v>
+        <v>15.84</v>
       </c>
       <c r="I23" s="6">
         <f>IF($W$2*52&gt;I$2*$B23,ROUND(NPER($B23,-$W$2*52,I$2),2)," ")</f>
-        <v>24.52</v>
+        <v>18.57</v>
       </c>
       <c r="J23" s="6">
         <f>IF($W$2*52&gt;J$2*$B23,ROUND(NPER($B23,-$W$2*52,J$2),2)," ")</f>
-        <v>28.63</v>
+        <v>21.46</v>
       </c>
       <c r="K23" s="6">
         <f>IF($W$2*52&gt;K$2*$B23,ROUND(NPER($B23,-$W$2*52,K$2),2)," ")</f>
-        <v>33.1</v>
+        <v>24.52</v>
       </c>
       <c r="L23" s="6">
         <f>IF($W$2*52&gt;L$2*$B23,ROUND(NPER($B23,-$W$2*52,L$2),2)," ")</f>
-        <v>38</v>
+        <v>27.78</v>
       </c>
       <c r="M23" s="6">
         <f>IF($W$2*52&gt;M$2*$B23,ROUND(NPER($B23,-$W$2*52,M$2),2)," ")</f>
-        <v>43.44</v>
+        <v>31.26</v>
       </c>
       <c r="N23" s="6">
         <f>IF($W$2*52&gt;N$2*$B23,ROUND(NPER($B23,-$W$2*52,N$2),2)," ")</f>
-        <v>49.53</v>
+        <v>35</v>
       </c>
       <c r="O23" s="6">
         <f>IF($W$2*52&gt;O$2*$B23,ROUND(NPER($B23,-$W$2*52,O$2),2)," ")</f>
-        <v>56.46</v>
+        <v>39.04</v>
       </c>
       <c r="P23" s="6">
         <f>IF($W$2*52&gt;P$2*$B23,ROUND(NPER($B23,-$W$2*52,P$2),2)," ")</f>
-        <v>64.49</v>
+        <v>43.44</v>
       </c>
       <c r="Q23" s="6">
         <f>IF($W$2*52&gt;Q$2*$B23,ROUND(NPER($B23,-$W$2*52,Q$2),2)," ")</f>
-        <v>74.05</v>
+        <v>48.25</v>
       </c>
       <c r="R23" s="6">
         <f>IF($W$2*52&gt;R$2*$B23,ROUND(NPER($B23,-$W$2*52,R$2),2)," ")</f>
-        <v>85.84</v>
+        <v>53.57</v>
       </c>
       <c r="S23" s="6">
         <f>IF($W$2*52&gt;S$2*$B23,ROUND(NPER($B23,-$W$2*52,S$2),2)," ")</f>
-        <v>101.27</v>
+        <v>59.52</v>
       </c>
       <c r="T23" s="6">
         <f>IF($W$2*52&gt;T$2*$B23,ROUND(NPER($B23,-$W$2*52,T$2),2)," ")</f>
-        <v>123.58</v>
+        <v>66.26</v>
       </c>
       <c r="U23" s="6">
         <f>IF($W$2*52&gt;U$2*$B23,ROUND(NPER($B23,-$W$2*52,U$2),2)," ")</f>
-        <v>164.53</v>
+        <v>74.05</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -3160,79 +3148,79 @@
       </c>
       <c r="C24" s="6">
         <f>IF($W$2*52&gt;C$2*$B24,ROUND(NPER($B24,-$W$2*52,C$2),2)," ")</f>
-        <v>5.12</v>
+        <v>4.05</v>
       </c>
       <c r="D24" s="6">
         <f>IF($W$2*52&gt;D$2*$B24,ROUND(NPER($B24,-$W$2*52,D$2),2)," ")</f>
-        <v>7.9</v>
+        <v>6.21</v>
       </c>
       <c r="E24" s="6">
         <f>IF($W$2*52&gt;E$2*$B24,ROUND(NPER($B24,-$W$2*52,E$2),2)," ")</f>
-        <v>10.85</v>
+        <v>8.48</v>
       </c>
       <c r="F24" s="6">
         <f>IF($W$2*52&gt;F$2*$B24,ROUND(NPER($B24,-$W$2*52,F$2),2)," ")</f>
-        <v>14</v>
+        <v>10.85</v>
       </c>
       <c r="G24" s="6">
         <f>IF($W$2*52&gt;G$2*$B24,ROUND(NPER($B24,-$W$2*52,G$2),2)," ")</f>
-        <v>17.36</v>
+        <v>13.35</v>
       </c>
       <c r="H24" s="6">
         <f>IF($W$2*52&gt;H$2*$B24,ROUND(NPER($B24,-$W$2*52,H$2),2)," ")</f>
-        <v>20.98</v>
+        <v>15.99</v>
       </c>
       <c r="I24" s="6">
         <f>IF($W$2*52&gt;I$2*$B24,ROUND(NPER($B24,-$W$2*52,I$2),2)," ")</f>
-        <v>24.89</v>
+        <v>18.78</v>
       </c>
       <c r="J24" s="6">
         <f>IF($W$2*52&gt;J$2*$B24,ROUND(NPER($B24,-$W$2*52,J$2),2)," ")</f>
-        <v>29.15</v>
+        <v>21.74</v>
       </c>
       <c r="K24" s="6">
         <f>IF($W$2*52&gt;K$2*$B24,ROUND(NPER($B24,-$W$2*52,K$2),2)," ")</f>
-        <v>33.82</v>
+        <v>24.89</v>
       </c>
       <c r="L24" s="6">
         <f>IF($W$2*52&gt;L$2*$B24,ROUND(NPER($B24,-$W$2*52,L$2),2)," ")</f>
-        <v>38.99</v>
+        <v>28.26</v>
       </c>
       <c r="M24" s="6">
         <f>IF($W$2*52&gt;M$2*$B24,ROUND(NPER($B24,-$W$2*52,M$2),2)," ")</f>
-        <v>44.79</v>
+        <v>31.89</v>
       </c>
       <c r="N24" s="6">
         <f>IF($W$2*52&gt;N$2*$B24,ROUND(NPER($B24,-$W$2*52,N$2),2)," ")</f>
-        <v>51.38</v>
+        <v>35.82</v>
       </c>
       <c r="O24" s="6">
         <f>IF($W$2*52&gt;O$2*$B24,ROUND(NPER($B24,-$W$2*52,O$2),2)," ")</f>
-        <v>59.02</v>
+        <v>40.1</v>
       </c>
       <c r="P24" s="6">
         <f>IF($W$2*52&gt;P$2*$B24,ROUND(NPER($B24,-$W$2*52,P$2),2)," ")</f>
-        <v>68.11</v>
+        <v>44.79</v>
       </c>
       <c r="Q24" s="6">
         <f>IF($W$2*52&gt;Q$2*$B24,ROUND(NPER($B24,-$W$2*52,Q$2),2)," ")</f>
-        <v>79.33</v>
+        <v>49.99</v>
       </c>
       <c r="R24" s="6">
         <f>IF($W$2*52&gt;R$2*$B24,ROUND(NPER($B24,-$W$2*52,R$2),2)," ")</f>
-        <v>93.98</v>
+        <v>55.82</v>
       </c>
       <c r="S24" s="6">
         <f>IF($W$2*52&gt;S$2*$B24,ROUND(NPER($B24,-$W$2*52,S$2),2)," ")</f>
-        <v>115.15</v>
+        <v>62.46</v>
       </c>
       <c r="T24" s="6">
         <f>IF($W$2*52&gt;T$2*$B24,ROUND(NPER($B24,-$W$2*52,T$2),2)," ")</f>
-        <v>153.85</v>
-      </c>
-      <c r="U24" s="6" t="str">
+        <v>70.16</v>
+      </c>
+      <c r="U24" s="6">
         <f>IF($W$2*52&gt;U$2*$B24,ROUND(NPER($B24,-$W$2*52,U$2),2)," ")</f>
-        <v> </v>
+        <v>79.33</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3243,79 +3231,79 @@
       </c>
       <c r="C25" s="6">
         <f>IF($W$2*52&gt;C$2*$B25,ROUND(NPER($B25,-$W$2*52,C$2),2)," ")</f>
-        <v>5.14</v>
+        <v>4.06</v>
       </c>
       <c r="D25" s="6">
         <f>IF($W$2*52&gt;D$2*$B25,ROUND(NPER($B25,-$W$2*52,D$2),2)," ")</f>
-        <v>7.94</v>
+        <v>6.24</v>
       </c>
       <c r="E25" s="6">
         <f>IF($W$2*52&gt;E$2*$B25,ROUND(NPER($B25,-$W$2*52,E$2),2)," ")</f>
-        <v>10.92</v>
+        <v>8.52</v>
       </c>
       <c r="F25" s="6">
         <f>IF($W$2*52&gt;F$2*$B25,ROUND(NPER($B25,-$W$2*52,F$2),2)," ")</f>
-        <v>14.11</v>
+        <v>10.92</v>
       </c>
       <c r="G25" s="6">
         <f>IF($W$2*52&gt;G$2*$B25,ROUND(NPER($B25,-$W$2*52,G$2),2)," ")</f>
-        <v>17.54</v>
+        <v>13.46</v>
       </c>
       <c r="H25" s="6">
         <f>IF($W$2*52&gt;H$2*$B25,ROUND(NPER($B25,-$W$2*52,H$2),2)," ")</f>
-        <v>21.25</v>
+        <v>16.14</v>
       </c>
       <c r="I25" s="6">
         <f>IF($W$2*52&gt;I$2*$B25,ROUND(NPER($B25,-$W$2*52,I$2),2)," ")</f>
-        <v>25.28</v>
+        <v>18.99</v>
       </c>
       <c r="J25" s="6">
         <f>IF($W$2*52&gt;J$2*$B25,ROUND(NPER($B25,-$W$2*52,J$2),2)," ")</f>
-        <v>29.69</v>
+        <v>22.02</v>
       </c>
       <c r="K25" s="6">
         <f>IF($W$2*52&gt;K$2*$B25,ROUND(NPER($B25,-$W$2*52,K$2),2)," ")</f>
-        <v>34.58</v>
+        <v>25.28</v>
       </c>
       <c r="L25" s="6">
         <f>IF($W$2*52&gt;L$2*$B25,ROUND(NPER($B25,-$W$2*52,L$2),2)," ")</f>
-        <v>40.05</v>
+        <v>28.78</v>
       </c>
       <c r="M25" s="6">
         <f>IF($W$2*52&gt;M$2*$B25,ROUND(NPER($B25,-$W$2*52,M$2),2)," ")</f>
-        <v>46.27</v>
+        <v>32.56</v>
       </c>
       <c r="N25" s="6">
         <f>IF($W$2*52&gt;N$2*$B25,ROUND(NPER($B25,-$W$2*52,N$2),2)," ")</f>
-        <v>53.45</v>
+        <v>36.69</v>
       </c>
       <c r="O25" s="6">
         <f>IF($W$2*52&gt;O$2*$B25,ROUND(NPER($B25,-$W$2*52,O$2),2)," ")</f>
-        <v>61.97</v>
+        <v>41.23</v>
       </c>
       <c r="P25" s="6">
         <f>IF($W$2*52&gt;P$2*$B25,ROUND(NPER($B25,-$W$2*52,P$2),2)," ")</f>
-        <v>72.44</v>
+        <v>46.27</v>
       </c>
       <c r="Q25" s="6">
         <f>IF($W$2*52&gt;Q$2*$B25,ROUND(NPER($B25,-$W$2*52,Q$2),2)," ")</f>
-        <v>86.01</v>
+        <v>51.92</v>
       </c>
       <c r="R25" s="6">
         <f>IF($W$2*52&gt;R$2*$B25,ROUND(NPER($B25,-$W$2*52,R$2),2)," ")</f>
-        <v>105.37</v>
+        <v>58.37</v>
       </c>
       <c r="S25" s="6">
         <f>IF($W$2*52&gt;S$2*$B25,ROUND(NPER($B25,-$W$2*52,S$2),2)," ")</f>
-        <v>139.46</v>
-      </c>
-      <c r="T25" s="6" t="str">
+        <v>65.88</v>
+      </c>
+      <c r="T25" s="6">
         <f>IF($W$2*52&gt;T$2*$B25,ROUND(NPER($B25,-$W$2*52,T$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="U25" s="6" t="str">
+        <v>74.85</v>
+      </c>
+      <c r="U25" s="6">
         <f>IF($W$2*52&gt;U$2*$B25,ROUND(NPER($B25,-$W$2*52,U$2),2)," ")</f>
-        <v> </v>
+        <v>86.01</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3326,79 +3314,79 @@
       </c>
       <c r="C26" s="6">
         <f>IF($W$2*52&gt;C$2*$B26,ROUND(NPER($B26,-$W$2*52,C$2),2)," ")</f>
-        <v>5.15</v>
+        <v>4.07</v>
       </c>
       <c r="D26" s="6">
         <f>IF($W$2*52&gt;D$2*$B26,ROUND(NPER($B26,-$W$2*52,D$2),2)," ")</f>
-        <v>7.98</v>
+        <v>6.26</v>
       </c>
       <c r="E26" s="6">
         <f>IF($W$2*52&gt;E$2*$B26,ROUND(NPER($B26,-$W$2*52,E$2),2)," ")</f>
-        <v>10.99</v>
+        <v>8.56</v>
       </c>
       <c r="F26" s="6">
         <f>IF($W$2*52&gt;F$2*$B26,ROUND(NPER($B26,-$W$2*52,F$2),2)," ")</f>
-        <v>14.23</v>
+        <v>10.99</v>
       </c>
       <c r="G26" s="6">
         <f>IF($W$2*52&gt;G$2*$B26,ROUND(NPER($B26,-$W$2*52,G$2),2)," ")</f>
-        <v>17.73</v>
+        <v>13.56</v>
       </c>
       <c r="H26" s="6">
         <f>IF($W$2*52&gt;H$2*$B26,ROUND(NPER($B26,-$W$2*52,H$2),2)," ")</f>
-        <v>21.52</v>
+        <v>16.29</v>
       </c>
       <c r="I26" s="6">
         <f>IF($W$2*52&gt;I$2*$B26,ROUND(NPER($B26,-$W$2*52,I$2),2)," ")</f>
-        <v>25.68</v>
+        <v>19.21</v>
       </c>
       <c r="J26" s="6">
         <f>IF($W$2*52&gt;J$2*$B26,ROUND(NPER($B26,-$W$2*52,J$2),2)," ")</f>
-        <v>30.27</v>
+        <v>22.32</v>
       </c>
       <c r="K26" s="6">
         <f>IF($W$2*52&gt;K$2*$B26,ROUND(NPER($B26,-$W$2*52,K$2),2)," ")</f>
-        <v>35.4</v>
+        <v>25.68</v>
       </c>
       <c r="L26" s="6">
         <f>IF($W$2*52&gt;L$2*$B26,ROUND(NPER($B26,-$W$2*52,L$2),2)," ")</f>
-        <v>41.2</v>
+        <v>29.31</v>
       </c>
       <c r="M26" s="6">
         <f>IF($W$2*52&gt;M$2*$B26,ROUND(NPER($B26,-$W$2*52,M$2),2)," ")</f>
-        <v>47.89</v>
+        <v>33.28</v>
       </c>
       <c r="N26" s="6">
         <f>IF($W$2*52&gt;N$2*$B26,ROUND(NPER($B26,-$W$2*52,N$2),2)," ")</f>
-        <v>55.78</v>
+        <v>37.63</v>
       </c>
       <c r="O26" s="6">
         <f>IF($W$2*52&gt;O$2*$B26,ROUND(NPER($B26,-$W$2*52,O$2),2)," ")</f>
-        <v>65.41</v>
+        <v>42.46</v>
       </c>
       <c r="P26" s="6">
         <f>IF($W$2*52&gt;P$2*$B26,ROUND(NPER($B26,-$W$2*52,P$2),2)," ")</f>
-        <v>77.75</v>
+        <v>47.89</v>
       </c>
       <c r="Q26" s="6">
         <f>IF($W$2*52&gt;Q$2*$B26,ROUND(NPER($B26,-$W$2*52,Q$2),2)," ")</f>
-        <v>94.97</v>
+        <v>54.09</v>
       </c>
       <c r="R26" s="6">
         <f>IF($W$2*52&gt;R$2*$B26,ROUND(NPER($B26,-$W$2*52,R$2),2)," ")</f>
-        <v>123.65</v>
+        <v>61.3</v>
       </c>
       <c r="S26" s="6">
         <f>IF($W$2*52&gt;S$2*$B26,ROUND(NPER($B26,-$W$2*52,S$2),2)," ")</f>
-        <v>234.73</v>
-      </c>
-      <c r="T26" s="6" t="str">
+        <v>69.94</v>
+      </c>
+      <c r="T26" s="6">
         <f>IF($W$2*52&gt;T$2*$B26,ROUND(NPER($B26,-$W$2*52,T$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="U26" s="6" t="str">
+        <v>80.7</v>
+      </c>
+      <c r="U26" s="6">
         <f>IF($W$2*52&gt;U$2*$B26,ROUND(NPER($B26,-$W$2*52,U$2),2)," ")</f>
-        <v> </v>
+        <v>94.97</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3409,79 +3397,79 @@
       </c>
       <c r="C27" s="6">
         <f>IF($W$2*52&gt;C$2*$B27,ROUND(NPER($B27,-$W$2*52,C$2),2)," ")</f>
-        <v>5.17</v>
+        <v>4.08</v>
       </c>
       <c r="D27" s="6">
         <f>IF($W$2*52&gt;D$2*$B27,ROUND(NPER($B27,-$W$2*52,D$2),2)," ")</f>
-        <v>8.01</v>
+        <v>6.28</v>
       </c>
       <c r="E27" s="6">
         <f>IF($W$2*52&gt;E$2*$B27,ROUND(NPER($B27,-$W$2*52,E$2),2)," ")</f>
-        <v>11.06</v>
+        <v>8.61</v>
       </c>
       <c r="F27" s="6">
         <f>IF($W$2*52&gt;F$2*$B27,ROUND(NPER($B27,-$W$2*52,F$2),2)," ")</f>
-        <v>14.35</v>
+        <v>11.06</v>
       </c>
       <c r="G27" s="6">
         <f>IF($W$2*52&gt;G$2*$B27,ROUND(NPER($B27,-$W$2*52,G$2),2)," ")</f>
-        <v>17.92</v>
+        <v>13.67</v>
       </c>
       <c r="H27" s="6">
         <f>IF($W$2*52&gt;H$2*$B27,ROUND(NPER($B27,-$W$2*52,H$2),2)," ")</f>
-        <v>21.81</v>
+        <v>16.45</v>
       </c>
       <c r="I27" s="6">
         <f>IF($W$2*52&gt;I$2*$B27,ROUND(NPER($B27,-$W$2*52,I$2),2)," ")</f>
-        <v>26.1</v>
+        <v>19.43</v>
       </c>
       <c r="J27" s="6">
         <f>IF($W$2*52&gt;J$2*$B27,ROUND(NPER($B27,-$W$2*52,J$2),2)," ")</f>
-        <v>30.88</v>
+        <v>22.63</v>
       </c>
       <c r="K27" s="6">
         <f>IF($W$2*52&gt;K$2*$B27,ROUND(NPER($B27,-$W$2*52,K$2),2)," ")</f>
-        <v>36.27</v>
+        <v>26.1</v>
       </c>
       <c r="L27" s="6">
         <f>IF($W$2*52&gt;L$2*$B27,ROUND(NPER($B27,-$W$2*52,L$2),2)," ")</f>
-        <v>42.45</v>
+        <v>29.88</v>
       </c>
       <c r="M27" s="6">
         <f>IF($W$2*52&gt;M$2*$B27,ROUND(NPER($B27,-$W$2*52,M$2),2)," ")</f>
-        <v>49.7</v>
+        <v>34.03</v>
       </c>
       <c r="N27" s="6">
         <f>IF($W$2*52&gt;N$2*$B27,ROUND(NPER($B27,-$W$2*52,N$2),2)," ")</f>
-        <v>58.45</v>
+        <v>38.64</v>
       </c>
       <c r="O27" s="6">
         <f>IF($W$2*52&gt;O$2*$B27,ROUND(NPER($B27,-$W$2*52,O$2),2)," ")</f>
-        <v>69.52</v>
+        <v>43.8</v>
       </c>
       <c r="P27" s="6">
         <f>IF($W$2*52&gt;P$2*$B27,ROUND(NPER($B27,-$W$2*52,P$2),2)," ")</f>
-        <v>84.55</v>
+        <v>49.7</v>
       </c>
       <c r="Q27" s="6">
         <f>IF($W$2*52&gt;Q$2*$B27,ROUND(NPER($B27,-$W$2*52,Q$2),2)," ")</f>
-        <v>108.15</v>
+        <v>56.55</v>
       </c>
       <c r="R27" s="6">
         <f>IF($W$2*52&gt;R$2*$B27,ROUND(NPER($B27,-$W$2*52,R$2),2)," ")</f>
-        <v>166.6</v>
-      </c>
-      <c r="S27" s="6" t="str">
+        <v>64.74</v>
+      </c>
+      <c r="S27" s="6">
         <f>IF($W$2*52&gt;S$2*$B27,ROUND(NPER($B27,-$W$2*52,S$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="T27" s="6" t="str">
+        <v>74.91</v>
+      </c>
+      <c r="T27" s="6">
         <f>IF($W$2*52&gt;T$2*$B27,ROUND(NPER($B27,-$W$2*52,T$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="U27" s="6" t="str">
+        <v>88.33</v>
+      </c>
+      <c r="U27" s="6">
         <f>IF($W$2*52&gt;U$2*$B27,ROUND(NPER($B27,-$W$2*52,U$2),2)," ")</f>
-        <v> </v>
+        <v>108.15</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -3492,79 +3480,79 @@
       </c>
       <c r="C28" s="6">
         <f>IF($W$2*52&gt;C$2*$B28,ROUND(NPER($B28,-$W$2*52,C$2),2)," ")</f>
-        <v>5.19</v>
+        <v>4.09</v>
       </c>
       <c r="D28" s="6">
         <f>IF($W$2*52&gt;D$2*$B28,ROUND(NPER($B28,-$W$2*52,D$2),2)," ")</f>
-        <v>8.05</v>
+        <v>6.31</v>
       </c>
       <c r="E28" s="6">
         <f>IF($W$2*52&gt;E$2*$B28,ROUND(NPER($B28,-$W$2*52,E$2),2)," ")</f>
-        <v>11.13</v>
+        <v>8.65</v>
       </c>
       <c r="F28" s="6">
         <f>IF($W$2*52&gt;F$2*$B28,ROUND(NPER($B28,-$W$2*52,F$2),2)," ")</f>
-        <v>14.47</v>
+        <v>11.13</v>
       </c>
       <c r="G28" s="6">
         <f>IF($W$2*52&gt;G$2*$B28,ROUND(NPER($B28,-$W$2*52,G$2),2)," ")</f>
-        <v>18.11</v>
+        <v>13.78</v>
       </c>
       <c r="H28" s="6">
         <f>IF($W$2*52&gt;H$2*$B28,ROUND(NPER($B28,-$W$2*52,H$2),2)," ")</f>
-        <v>22.11</v>
+        <v>16.62</v>
       </c>
       <c r="I28" s="6">
         <f>IF($W$2*52&gt;I$2*$B28,ROUND(NPER($B28,-$W$2*52,I$2),2)," ")</f>
-        <v>26.54</v>
+        <v>19.66</v>
       </c>
       <c r="J28" s="6">
         <f>IF($W$2*52&gt;J$2*$B28,ROUND(NPER($B28,-$W$2*52,J$2),2)," ")</f>
-        <v>31.52</v>
+        <v>22.96</v>
       </c>
       <c r="K28" s="6">
         <f>IF($W$2*52&gt;K$2*$B28,ROUND(NPER($B28,-$W$2*52,K$2),2)," ")</f>
-        <v>37.21</v>
+        <v>26.54</v>
       </c>
       <c r="L28" s="6">
         <f>IF($W$2*52&gt;L$2*$B28,ROUND(NPER($B28,-$W$2*52,L$2),2)," ")</f>
-        <v>43.82</v>
+        <v>30.48</v>
       </c>
       <c r="M28" s="6">
         <f>IF($W$2*52&gt;M$2*$B28,ROUND(NPER($B28,-$W$2*52,M$2),2)," ")</f>
-        <v>51.72</v>
+        <v>34.84</v>
       </c>
       <c r="N28" s="6">
         <f>IF($W$2*52&gt;N$2*$B28,ROUND(NPER($B28,-$W$2*52,N$2),2)," ")</f>
-        <v>61.55</v>
+        <v>39.72</v>
       </c>
       <c r="O28" s="6">
         <f>IF($W$2*52&gt;O$2*$B28,ROUND(NPER($B28,-$W$2*52,O$2),2)," ")</f>
-        <v>74.56</v>
+        <v>45.28</v>
       </c>
       <c r="P28" s="6">
         <f>IF($W$2*52&gt;P$2*$B28,ROUND(NPER($B28,-$W$2*52,P$2),2)," ")</f>
-        <v>93.84</v>
+        <v>51.72</v>
       </c>
       <c r="Q28" s="6">
         <f>IF($W$2*52&gt;Q$2*$B28,ROUND(NPER($B28,-$W$2*52,Q$2),2)," ")</f>
+        <v>59.38</v>
+      </c>
+      <c r="R28" s="6">
+        <f>IF($W$2*52&gt;R$2*$B28,ROUND(NPER($B28,-$W$2*52,R$2),2)," ")</f>
+        <v>68.84</v>
+      </c>
+      <c r="S28" s="6">
+        <f>IF($W$2*52&gt;S$2*$B28,ROUND(NPER($B28,-$W$2*52,S$2),2)," ")</f>
+        <v>81.21</v>
+      </c>
+      <c r="T28" s="6">
+        <f>IF($W$2*52&gt;T$2*$B28,ROUND(NPER($B28,-$W$2*52,T$2),2)," ")</f>
+        <v>99.11</v>
+      </c>
+      <c r="U28" s="6">
+        <f>IF($W$2*52&gt;U$2*$B28,ROUND(NPER($B28,-$W$2*52,U$2),2)," ")</f>
         <v>131.95</v>
-      </c>
-      <c r="R28" s="6" t="str">
-        <f>IF($W$2*52&gt;R$2*$B28,ROUND(NPER($B28,-$W$2*52,R$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="S28" s="6" t="str">
-        <f>IF($W$2*52&gt;S$2*$B28,ROUND(NPER($B28,-$W$2*52,S$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="T28" s="6" t="str">
-        <f>IF($W$2*52&gt;T$2*$B28,ROUND(NPER($B28,-$W$2*52,T$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="U28" s="6" t="str">
-        <f>IF($W$2*52&gt;U$2*$B28,ROUND(NPER($B28,-$W$2*52,U$2),2)," ")</f>
-        <v> </v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3575,75 +3563,75 @@
       </c>
       <c r="C29" s="6">
         <f>IF($W$2*52&gt;C$2*$B29,ROUND(NPER($B29,-$W$2*52,C$2),2)," ")</f>
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="D29" s="6">
         <f>IF($W$2*52&gt;D$2*$B29,ROUND(NPER($B29,-$W$2*52,D$2),2)," ")</f>
-        <v>8.09</v>
+        <v>6.33</v>
       </c>
       <c r="E29" s="6">
         <f>IF($W$2*52&gt;E$2*$B29,ROUND(NPER($B29,-$W$2*52,E$2),2)," ")</f>
-        <v>11.21</v>
+        <v>8.69</v>
       </c>
       <c r="F29" s="6">
         <f>IF($W$2*52&gt;F$2*$B29,ROUND(NPER($B29,-$W$2*52,F$2),2)," ")</f>
-        <v>14.6</v>
+        <v>11.21</v>
       </c>
       <c r="G29" s="6">
         <f>IF($W$2*52&gt;G$2*$B29,ROUND(NPER($B29,-$W$2*52,G$2),2)," ")</f>
-        <v>18.31</v>
+        <v>13.9</v>
       </c>
       <c r="H29" s="6">
         <f>IF($W$2*52&gt;H$2*$B29,ROUND(NPER($B29,-$W$2*52,H$2),2)," ")</f>
-        <v>22.42</v>
+        <v>16.78</v>
       </c>
       <c r="I29" s="6">
         <f>IF($W$2*52&gt;I$2*$B29,ROUND(NPER($B29,-$W$2*52,I$2),2)," ")</f>
-        <v>27</v>
+        <v>19.9</v>
       </c>
       <c r="J29" s="6">
         <f>IF($W$2*52&gt;J$2*$B29,ROUND(NPER($B29,-$W$2*52,J$2),2)," ")</f>
-        <v>32.21</v>
+        <v>23.29</v>
       </c>
       <c r="K29" s="6">
         <f>IF($W$2*52&gt;K$2*$B29,ROUND(NPER($B29,-$W$2*52,K$2),2)," ")</f>
-        <v>38.21</v>
+        <v>27</v>
       </c>
       <c r="L29" s="6">
         <f>IF($W$2*52&gt;L$2*$B29,ROUND(NPER($B29,-$W$2*52,L$2),2)," ")</f>
-        <v>45.32</v>
+        <v>31.11</v>
       </c>
       <c r="M29" s="6">
         <f>IF($W$2*52&gt;M$2*$B29,ROUND(NPER($B29,-$W$2*52,M$2),2)," ")</f>
-        <v>54.01</v>
+        <v>35.7</v>
       </c>
       <c r="N29" s="6">
         <f>IF($W$2*52&gt;N$2*$B29,ROUND(NPER($B29,-$W$2*52,N$2),2)," ")</f>
-        <v>65.22</v>
+        <v>40.9</v>
       </c>
       <c r="O29" s="6">
         <f>IF($W$2*52&gt;O$2*$B29,ROUND(NPER($B29,-$W$2*52,O$2),2)," ")</f>
-        <v>81.01</v>
+        <v>46.91</v>
       </c>
       <c r="P29" s="6">
         <f>IF($W$2*52&gt;P$2*$B29,ROUND(NPER($B29,-$W$2*52,P$2),2)," ")</f>
-        <v>108.02</v>
-      </c>
-      <c r="Q29" s="6" t="str">
+        <v>54.01</v>
+      </c>
+      <c r="Q29" s="6">
         <f>IF($W$2*52&gt;Q$2*$B29,ROUND(NPER($B29,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="R29" s="6" t="str">
+        <v>62.7</v>
+      </c>
+      <c r="R29" s="6">
         <f>IF($W$2*52&gt;R$2*$B29,ROUND(NPER($B29,-$W$2*52,R$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="S29" s="6" t="str">
+        <v>73.91</v>
+      </c>
+      <c r="S29" s="6">
         <f>IF($W$2*52&gt;S$2*$B29,ROUND(NPER($B29,-$W$2*52,S$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="T29" s="6" t="str">
+        <v>89.71</v>
+      </c>
+      <c r="T29" s="6">
         <f>IF($W$2*52&gt;T$2*$B29,ROUND(NPER($B29,-$W$2*52,T$2),2)," ")</f>
-        <v> </v>
+        <v>116.71</v>
       </c>
       <c r="U29" s="6" t="str">
         <f>IF($W$2*52&gt;U$2*$B29,ROUND(NPER($B29,-$W$2*52,U$2),2)," ")</f>
@@ -3658,75 +3646,75 @@
       </c>
       <c r="C30" s="6">
         <f>IF($W$2*52&gt;C$2*$B30,ROUND(NPER($B30,-$W$2*52,C$2),2)," ")</f>
-        <v>5.22</v>
+        <v>4.12</v>
       </c>
       <c r="D30" s="6">
         <f>IF($W$2*52&gt;D$2*$B30,ROUND(NPER($B30,-$W$2*52,D$2),2)," ")</f>
-        <v>8.13</v>
+        <v>6.36</v>
       </c>
       <c r="E30" s="6">
         <f>IF($W$2*52&gt;E$2*$B30,ROUND(NPER($B30,-$W$2*52,E$2),2)," ")</f>
-        <v>11.28</v>
+        <v>8.74</v>
       </c>
       <c r="F30" s="6">
         <f>IF($W$2*52&gt;F$2*$B30,ROUND(NPER($B30,-$W$2*52,F$2),2)," ")</f>
-        <v>14.73</v>
+        <v>11.28</v>
       </c>
       <c r="G30" s="6">
         <f>IF($W$2*52&gt;G$2*$B30,ROUND(NPER($B30,-$W$2*52,G$2),2)," ")</f>
-        <v>18.52</v>
+        <v>14.01</v>
       </c>
       <c r="H30" s="6">
         <f>IF($W$2*52&gt;H$2*$B30,ROUND(NPER($B30,-$W$2*52,H$2),2)," ")</f>
-        <v>22.74</v>
+        <v>16.95</v>
       </c>
       <c r="I30" s="6">
         <f>IF($W$2*52&gt;I$2*$B30,ROUND(NPER($B30,-$W$2*52,I$2),2)," ")</f>
-        <v>27.49</v>
+        <v>20.15</v>
       </c>
       <c r="J30" s="6">
         <f>IF($W$2*52&gt;J$2*$B30,ROUND(NPER($B30,-$W$2*52,J$2),2)," ")</f>
-        <v>32.93</v>
+        <v>23.64</v>
       </c>
       <c r="K30" s="6">
         <f>IF($W$2*52&gt;K$2*$B30,ROUND(NPER($B30,-$W$2*52,K$2),2)," ")</f>
-        <v>39.3</v>
+        <v>27.49</v>
       </c>
       <c r="L30" s="6">
         <f>IF($W$2*52&gt;L$2*$B30,ROUND(NPER($B30,-$W$2*52,L$2),2)," ")</f>
-        <v>46.98</v>
+        <v>31.78</v>
       </c>
       <c r="M30" s="6">
         <f>IF($W$2*52&gt;M$2*$B30,ROUND(NPER($B30,-$W$2*52,M$2),2)," ")</f>
-        <v>56.64</v>
+        <v>36.62</v>
       </c>
       <c r="N30" s="6">
         <f>IF($W$2*52&gt;N$2*$B30,ROUND(NPER($B30,-$W$2*52,N$2),2)," ")</f>
-        <v>69.68</v>
+        <v>42.19</v>
       </c>
       <c r="O30" s="6">
         <f>IF($W$2*52&gt;O$2*$B30,ROUND(NPER($B30,-$W$2*52,O$2),2)," ")</f>
-        <v>89.82</v>
+        <v>48.72</v>
       </c>
       <c r="P30" s="6">
         <f>IF($W$2*52&gt;P$2*$B30,ROUND(NPER($B30,-$W$2*52,P$2),2)," ")</f>
-        <v>136.36</v>
-      </c>
-      <c r="Q30" s="6" t="str">
+        <v>56.64</v>
+      </c>
+      <c r="Q30" s="6">
         <f>IF($W$2*52&gt;Q$2*$B30,ROUND(NPER($B30,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="R30" s="6" t="str">
+        <v>66.68</v>
+      </c>
+      <c r="R30" s="6">
         <f>IF($W$2*52&gt;R$2*$B30,ROUND(NPER($B30,-$W$2*52,R$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="S30" s="6" t="str">
+        <v>80.44</v>
+      </c>
+      <c r="S30" s="6">
         <f>IF($W$2*52&gt;S$2*$B30,ROUND(NPER($B30,-$W$2*52,S$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="T30" s="6" t="str">
+        <v>102.38</v>
+      </c>
+      <c r="T30" s="6">
         <f>IF($W$2*52&gt;T$2*$B30,ROUND(NPER($B30,-$W$2*52,T$2),2)," ")</f>
-        <v> </v>
+        <v>161.7</v>
       </c>
       <c r="U30" s="6" t="str">
         <f>IF($W$2*52&gt;U$2*$B30,ROUND(NPER($B30,-$W$2*52,U$2),2)," ")</f>
@@ -3741,71 +3729,71 @@
       </c>
       <c r="C31" s="6">
         <f>IF($W$2*52&gt;C$2*$B31,ROUND(NPER($B31,-$W$2*52,C$2),2)," ")</f>
-        <v>5.24</v>
+        <v>4.13</v>
       </c>
       <c r="D31" s="6">
         <f>IF($W$2*52&gt;D$2*$B31,ROUND(NPER($B31,-$W$2*52,D$2),2)," ")</f>
-        <v>8.17</v>
+        <v>6.38</v>
       </c>
       <c r="E31" s="6">
         <f>IF($W$2*52&gt;E$2*$B31,ROUND(NPER($B31,-$W$2*52,E$2),2)," ")</f>
-        <v>11.36</v>
+        <v>8.78</v>
       </c>
       <c r="F31" s="6">
         <f>IF($W$2*52&gt;F$2*$B31,ROUND(NPER($B31,-$W$2*52,F$2),2)," ")</f>
-        <v>14.86</v>
+        <v>11.36</v>
       </c>
       <c r="G31" s="6">
         <f>IF($W$2*52&gt;G$2*$B31,ROUND(NPER($B31,-$W$2*52,G$2),2)," ")</f>
-        <v>18.73</v>
+        <v>14.13</v>
       </c>
       <c r="H31" s="6">
         <f>IF($W$2*52&gt;H$2*$B31,ROUND(NPER($B31,-$W$2*52,H$2),2)," ")</f>
-        <v>23.07</v>
+        <v>17.13</v>
       </c>
       <c r="I31" s="6">
         <f>IF($W$2*52&gt;I$2*$B31,ROUND(NPER($B31,-$W$2*52,I$2),2)," ")</f>
-        <v>28</v>
+        <v>20.4</v>
       </c>
       <c r="J31" s="6">
         <f>IF($W$2*52&gt;J$2*$B31,ROUND(NPER($B31,-$W$2*52,J$2),2)," ")</f>
-        <v>33.71</v>
+        <v>24</v>
       </c>
       <c r="K31" s="6">
         <f>IF($W$2*52&gt;K$2*$B31,ROUND(NPER($B31,-$W$2*52,K$2),2)," ")</f>
-        <v>40.49</v>
+        <v>28</v>
       </c>
       <c r="L31" s="6">
         <f>IF($W$2*52&gt;L$2*$B31,ROUND(NPER($B31,-$W$2*52,L$2),2)," ")</f>
-        <v>48.83</v>
+        <v>32.49</v>
       </c>
       <c r="M31" s="6">
         <f>IF($W$2*52&gt;M$2*$B31,ROUND(NPER($B31,-$W$2*52,M$2),2)," ")</f>
-        <v>59.7</v>
+        <v>37.62</v>
       </c>
       <c r="N31" s="6">
         <f>IF($W$2*52&gt;N$2*$B31,ROUND(NPER($B31,-$W$2*52,N$2),2)," ")</f>
-        <v>75.3</v>
+        <v>43.6</v>
       </c>
       <c r="O31" s="6">
         <f>IF($W$2*52&gt;O$2*$B31,ROUND(NPER($B31,-$W$2*52,O$2),2)," ")</f>
-        <v>103.3</v>
-      </c>
-      <c r="P31" s="6" t="str">
+        <v>50.76</v>
+      </c>
+      <c r="P31" s="6">
         <f>IF($W$2*52&gt;P$2*$B31,ROUND(NPER($B31,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="Q31" s="6" t="str">
+        <v>59.7</v>
+      </c>
+      <c r="Q31" s="6">
         <f>IF($W$2*52&gt;Q$2*$B31,ROUND(NPER($B31,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="R31" s="6" t="str">
+        <v>71.6</v>
+      </c>
+      <c r="R31" s="6">
         <f>IF($W$2*52&gt;R$2*$B31,ROUND(NPER($B31,-$W$2*52,R$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="S31" s="6" t="str">
+        <v>89.43</v>
+      </c>
+      <c r="S31" s="6">
         <f>IF($W$2*52&gt;S$2*$B31,ROUND(NPER($B31,-$W$2*52,S$2),2)," ")</f>
-        <v> </v>
+        <v>126.06</v>
       </c>
       <c r="T31" s="6" t="str">
         <f>IF($W$2*52&gt;T$2*$B31,ROUND(NPER($B31,-$W$2*52,T$2),2)," ")</f>
@@ -3824,67 +3812,67 @@
       </c>
       <c r="C32" s="6">
         <f>IF($W$2*52&gt;C$2*$B32,ROUND(NPER($B32,-$W$2*52,C$2),2)," ")</f>
-        <v>5.25</v>
+        <v>4.14</v>
       </c>
       <c r="D32" s="6">
         <f>IF($W$2*52&gt;D$2*$B32,ROUND(NPER($B32,-$W$2*52,D$2),2)," ")</f>
-        <v>8.21</v>
+        <v>6.4</v>
       </c>
       <c r="E32" s="6">
         <f>IF($W$2*52&gt;E$2*$B32,ROUND(NPER($B32,-$W$2*52,E$2),2)," ")</f>
-        <v>11.44</v>
+        <v>8.83</v>
       </c>
       <c r="F32" s="6">
         <f>IF($W$2*52&gt;F$2*$B32,ROUND(NPER($B32,-$W$2*52,F$2),2)," ")</f>
-        <v>14.99</v>
+        <v>11.44</v>
       </c>
       <c r="G32" s="6">
         <f>IF($W$2*52&gt;G$2*$B32,ROUND(NPER($B32,-$W$2*52,G$2),2)," ")</f>
-        <v>18.95</v>
+        <v>14.25</v>
       </c>
       <c r="H32" s="6">
         <f>IF($W$2*52&gt;H$2*$B32,ROUND(NPER($B32,-$W$2*52,H$2),2)," ")</f>
-        <v>23.42</v>
+        <v>17.31</v>
       </c>
       <c r="I32" s="6">
         <f>IF($W$2*52&gt;I$2*$B32,ROUND(NPER($B32,-$W$2*52,I$2),2)," ")</f>
-        <v>28.54</v>
+        <v>20.67</v>
       </c>
       <c r="J32" s="6">
         <f>IF($W$2*52&gt;J$2*$B32,ROUND(NPER($B32,-$W$2*52,J$2),2)," ")</f>
-        <v>34.53</v>
+        <v>24.38</v>
       </c>
       <c r="K32" s="6">
         <f>IF($W$2*52&gt;K$2*$B32,ROUND(NPER($B32,-$W$2*52,K$2),2)," ")</f>
-        <v>41.78</v>
+        <v>28.54</v>
       </c>
       <c r="L32" s="6">
         <f>IF($W$2*52&gt;L$2*$B32,ROUND(NPER($B32,-$W$2*52,L$2),2)," ")</f>
-        <v>50.93</v>
+        <v>33.25</v>
       </c>
       <c r="M32" s="6">
         <f>IF($W$2*52&gt;M$2*$B32,ROUND(NPER($B32,-$W$2*52,M$2),2)," ")</f>
-        <v>63.36</v>
+        <v>38.7</v>
       </c>
       <c r="N32" s="6">
         <f>IF($W$2*52&gt;N$2*$B32,ROUND(NPER($B32,-$W$2*52,N$2),2)," ")</f>
-        <v>82.8</v>
+        <v>45.16</v>
       </c>
       <c r="O32" s="6">
         <f>IF($W$2*52&gt;O$2*$B32,ROUND(NPER($B32,-$W$2*52,O$2),2)," ")</f>
-        <v>130.41</v>
-      </c>
-      <c r="P32" s="6" t="str">
+        <v>53.09</v>
+      </c>
+      <c r="P32" s="6">
         <f>IF($W$2*52&gt;P$2*$B32,ROUND(NPER($B32,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="Q32" s="6" t="str">
+        <v>63.36</v>
+      </c>
+      <c r="Q32" s="6">
         <f>IF($W$2*52&gt;Q$2*$B32,ROUND(NPER($B32,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="R32" s="6" t="str">
+        <v>77.95</v>
+      </c>
+      <c r="R32" s="6">
         <f>IF($W$2*52&gt;R$2*$B32,ROUND(NPER($B32,-$W$2*52,R$2),2)," ")</f>
-        <v> </v>
+        <v>103.47</v>
       </c>
       <c r="S32" s="6" t="str">
         <f>IF($W$2*52&gt;S$2*$B32,ROUND(NPER($B32,-$W$2*52,S$2),2)," ")</f>
@@ -3907,67 +3895,67 @@
       </c>
       <c r="C33" s="6">
         <f>IF($W$2*52&gt;C$2*$B33,ROUND(NPER($B33,-$W$2*52,C$2),2)," ")</f>
-        <v>5.27</v>
+        <v>4.15</v>
       </c>
       <c r="D33" s="6">
         <f>IF($W$2*52&gt;D$2*$B33,ROUND(NPER($B33,-$W$2*52,D$2),2)," ")</f>
-        <v>8.25</v>
+        <v>6.43</v>
       </c>
       <c r="E33" s="6">
         <f>IF($W$2*52&gt;E$2*$B33,ROUND(NPER($B33,-$W$2*52,E$2),2)," ")</f>
-        <v>11.51</v>
+        <v>8.88</v>
       </c>
       <c r="F33" s="6">
         <f>IF($W$2*52&gt;F$2*$B33,ROUND(NPER($B33,-$W$2*52,F$2),2)," ")</f>
-        <v>15.13</v>
+        <v>11.51</v>
       </c>
       <c r="G33" s="6">
         <f>IF($W$2*52&gt;G$2*$B33,ROUND(NPER($B33,-$W$2*52,G$2),2)," ")</f>
-        <v>19.18</v>
+        <v>14.37</v>
       </c>
       <c r="H33" s="6">
         <f>IF($W$2*52&gt;H$2*$B33,ROUND(NPER($B33,-$W$2*52,H$2),2)," ")</f>
-        <v>23.78</v>
+        <v>17.5</v>
       </c>
       <c r="I33" s="6">
         <f>IF($W$2*52&gt;I$2*$B33,ROUND(NPER($B33,-$W$2*52,I$2),2)," ")</f>
-        <v>29.1</v>
+        <v>20.94</v>
       </c>
       <c r="J33" s="6">
         <f>IF($W$2*52&gt;J$2*$B33,ROUND(NPER($B33,-$W$2*52,J$2),2)," ")</f>
-        <v>35.42</v>
+        <v>24.78</v>
       </c>
       <c r="K33" s="6">
         <f>IF($W$2*52&gt;K$2*$B33,ROUND(NPER($B33,-$W$2*52,K$2),2)," ")</f>
-        <v>43.21</v>
+        <v>29.1</v>
       </c>
       <c r="L33" s="6">
         <f>IF($W$2*52&gt;L$2*$B33,ROUND(NPER($B33,-$W$2*52,L$2),2)," ")</f>
-        <v>53.33</v>
+        <v>34.06</v>
       </c>
       <c r="M33" s="6">
         <f>IF($W$2*52&gt;M$2*$B33,ROUND(NPER($B33,-$W$2*52,M$2),2)," ")</f>
-        <v>67.84</v>
+        <v>39.87</v>
       </c>
       <c r="N33" s="6">
         <f>IF($W$2*52&gt;N$2*$B33,ROUND(NPER($B33,-$W$2*52,N$2),2)," ")</f>
-        <v>93.8</v>
-      </c>
-      <c r="O33" s="6" t="str">
+        <v>46.9</v>
+      </c>
+      <c r="O33" s="6">
         <f>IF($W$2*52&gt;O$2*$B33,ROUND(NPER($B33,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="P33" s="6" t="str">
+        <v>55.78</v>
+      </c>
+      <c r="P33" s="6">
         <f>IF($W$2*52&gt;P$2*$B33,ROUND(NPER($B33,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="Q33" s="6" t="str">
+        <v>67.84</v>
+      </c>
+      <c r="Q33" s="6">
         <f>IF($W$2*52&gt;Q$2*$B33,ROUND(NPER($B33,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="R33" s="6" t="str">
+        <v>86.77</v>
+      </c>
+      <c r="R33" s="6">
         <f>IF($W$2*52&gt;R$2*$B33,ROUND(NPER($B33,-$W$2*52,R$2),2)," ")</f>
-        <v> </v>
+        <v>133.67</v>
       </c>
       <c r="S33" s="6" t="str">
         <f>IF($W$2*52&gt;S$2*$B33,ROUND(NPER($B33,-$W$2*52,S$2),2)," ")</f>
@@ -3990,63 +3978,63 @@
       </c>
       <c r="C34" s="6">
         <f>IF($W$2*52&gt;C$2*$B34,ROUND(NPER($B34,-$W$2*52,C$2),2)," ")</f>
-        <v>5.29</v>
+        <v>4.16</v>
       </c>
       <c r="D34" s="6">
         <f>IF($W$2*52&gt;D$2*$B34,ROUND(NPER($B34,-$W$2*52,D$2),2)," ")</f>
-        <v>8.29</v>
+        <v>6.45</v>
       </c>
       <c r="E34" s="6">
         <f>IF($W$2*52&gt;E$2*$B34,ROUND(NPER($B34,-$W$2*52,E$2),2)," ")</f>
-        <v>11.59</v>
+        <v>8.92</v>
       </c>
       <c r="F34" s="6">
         <f>IF($W$2*52&gt;F$2*$B34,ROUND(NPER($B34,-$W$2*52,F$2),2)," ")</f>
-        <v>15.27</v>
+        <v>11.59</v>
       </c>
       <c r="G34" s="6">
         <f>IF($W$2*52&gt;G$2*$B34,ROUND(NPER($B34,-$W$2*52,G$2),2)," ")</f>
-        <v>19.41</v>
+        <v>14.5</v>
       </c>
       <c r="H34" s="6">
         <f>IF($W$2*52&gt;H$2*$B34,ROUND(NPER($B34,-$W$2*52,H$2),2)," ")</f>
-        <v>24.15</v>
+        <v>17.69</v>
       </c>
       <c r="I34" s="6">
         <f>IF($W$2*52&gt;I$2*$B34,ROUND(NPER($B34,-$W$2*52,I$2),2)," ")</f>
-        <v>29.7</v>
+        <v>21.23</v>
       </c>
       <c r="J34" s="6">
         <f>IF($W$2*52&gt;J$2*$B34,ROUND(NPER($B34,-$W$2*52,J$2),2)," ")</f>
-        <v>36.38</v>
+        <v>25.19</v>
       </c>
       <c r="K34" s="6">
         <f>IF($W$2*52&gt;K$2*$B34,ROUND(NPER($B34,-$W$2*52,K$2),2)," ")</f>
-        <v>44.78</v>
+        <v>29.7</v>
       </c>
       <c r="L34" s="6">
         <f>IF($W$2*52&gt;L$2*$B34,ROUND(NPER($B34,-$W$2*52,L$2),2)," ")</f>
-        <v>56.12</v>
+        <v>34.93</v>
       </c>
       <c r="M34" s="6">
         <f>IF($W$2*52&gt;M$2*$B34,ROUND(NPER($B34,-$W$2*52,M$2),2)," ")</f>
-        <v>73.59</v>
+        <v>41.16</v>
       </c>
       <c r="N34" s="6">
         <f>IF($W$2*52&gt;N$2*$B34,ROUND(NPER($B34,-$W$2*52,N$2),2)," ")</f>
-        <v>113.52</v>
-      </c>
-      <c r="O34" s="6" t="str">
+        <v>48.86</v>
+      </c>
+      <c r="O34" s="6">
         <f>IF($W$2*52&gt;O$2*$B34,ROUND(NPER($B34,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="P34" s="6" t="str">
+        <v>58.94</v>
+      </c>
+      <c r="P34" s="6">
         <f>IF($W$2*52&gt;P$2*$B34,ROUND(NPER($B34,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="Q34" s="6" t="str">
+        <v>73.59</v>
+      </c>
+      <c r="Q34" s="6">
         <f>IF($W$2*52&gt;Q$2*$B34,ROUND(NPER($B34,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
+        <v>100.75</v>
       </c>
       <c r="R34" s="6" t="str">
         <f>IF($W$2*52&gt;R$2*$B34,ROUND(NPER($B34,-$W$2*52,R$2),2)," ")</f>
@@ -4073,63 +4061,63 @@
       </c>
       <c r="C35" s="6">
         <f>IF($W$2*52&gt;C$2*$B35,ROUND(NPER($B35,-$W$2*52,C$2),2)," ")</f>
-        <v>5.3</v>
+        <v>4.17</v>
       </c>
       <c r="D35" s="6">
         <f>IF($W$2*52&gt;D$2*$B35,ROUND(NPER($B35,-$W$2*52,D$2),2)," ")</f>
-        <v>8.33</v>
+        <v>6.48</v>
       </c>
       <c r="E35" s="6">
         <f>IF($W$2*52&gt;E$2*$B35,ROUND(NPER($B35,-$W$2*52,E$2),2)," ")</f>
-        <v>11.67</v>
+        <v>8.97</v>
       </c>
       <c r="F35" s="6">
         <f>IF($W$2*52&gt;F$2*$B35,ROUND(NPER($B35,-$W$2*52,F$2),2)," ")</f>
-        <v>15.41</v>
+        <v>11.67</v>
       </c>
       <c r="G35" s="6">
         <f>IF($W$2*52&gt;G$2*$B35,ROUND(NPER($B35,-$W$2*52,G$2),2)," ")</f>
-        <v>19.65</v>
+        <v>14.63</v>
       </c>
       <c r="H35" s="6">
         <f>IF($W$2*52&gt;H$2*$B35,ROUND(NPER($B35,-$W$2*52,H$2),2)," ")</f>
-        <v>24.55</v>
+        <v>17.89</v>
       </c>
       <c r="I35" s="6">
         <f>IF($W$2*52&gt;I$2*$B35,ROUND(NPER($B35,-$W$2*52,I$2),2)," ")</f>
-        <v>30.33</v>
+        <v>21.52</v>
       </c>
       <c r="J35" s="6">
         <f>IF($W$2*52&gt;J$2*$B35,ROUND(NPER($B35,-$W$2*52,J$2),2)," ")</f>
-        <v>37.42</v>
+        <v>25.62</v>
       </c>
       <c r="K35" s="6">
         <f>IF($W$2*52&gt;K$2*$B35,ROUND(NPER($B35,-$W$2*52,K$2),2)," ")</f>
-        <v>46.55</v>
+        <v>30.33</v>
       </c>
       <c r="L35" s="6">
         <f>IF($W$2*52&gt;L$2*$B35,ROUND(NPER($B35,-$W$2*52,L$2),2)," ")</f>
-        <v>59.42</v>
+        <v>35.87</v>
       </c>
       <c r="M35" s="6">
         <f>IF($W$2*52&gt;M$2*$B35,ROUND(NPER($B35,-$W$2*52,M$2),2)," ")</f>
+        <v>42.58</v>
+      </c>
+      <c r="N35" s="6">
+        <f>IF($W$2*52&gt;N$2*$B35,ROUND(NPER($B35,-$W$2*52,N$2),2)," ")</f>
+        <v>51.1</v>
+      </c>
+      <c r="O35" s="6">
+        <f>IF($W$2*52&gt;O$2*$B35,ROUND(NPER($B35,-$W$2*52,O$2),2)," ")</f>
+        <v>62.77</v>
+      </c>
+      <c r="P35" s="6">
+        <f>IF($W$2*52&gt;P$2*$B35,ROUND(NPER($B35,-$W$2*52,P$2),2)," ")</f>
         <v>81.43</v>
       </c>
-      <c r="N35" s="6" t="str">
-        <f>IF($W$2*52&gt;N$2*$B35,ROUND(NPER($B35,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="O35" s="6" t="str">
-        <f>IF($W$2*52&gt;O$2*$B35,ROUND(NPER($B35,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="P35" s="6" t="str">
-        <f>IF($W$2*52&gt;P$2*$B35,ROUND(NPER($B35,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="Q35" s="6" t="str">
+      <c r="Q35" s="6">
         <f>IF($W$2*52&gt;Q$2*$B35,ROUND(NPER($B35,-$W$2*52,Q$2),2)," ")</f>
-        <v> </v>
+        <v>132.53</v>
       </c>
       <c r="R35" s="6" t="str">
         <f>IF($W$2*52&gt;R$2*$B35,ROUND(NPER($B35,-$W$2*52,R$2),2)," ")</f>
@@ -4156,59 +4144,59 @@
       </c>
       <c r="C36" s="6">
         <f>IF($W$2*52&gt;C$2*$B36,ROUND(NPER($B36,-$W$2*52,C$2),2)," ")</f>
-        <v>5.32</v>
+        <v>4.18</v>
       </c>
       <c r="D36" s="6">
         <f>IF($W$2*52&gt;D$2*$B36,ROUND(NPER($B36,-$W$2*52,D$2),2)," ")</f>
-        <v>8.37</v>
+        <v>6.5</v>
       </c>
       <c r="E36" s="6">
         <f>IF($W$2*52&gt;E$2*$B36,ROUND(NPER($B36,-$W$2*52,E$2),2)," ")</f>
-        <v>11.76</v>
+        <v>9.02</v>
       </c>
       <c r="F36" s="6">
         <f>IF($W$2*52&gt;F$2*$B36,ROUND(NPER($B36,-$W$2*52,F$2),2)," ")</f>
-        <v>15.56</v>
+        <v>11.76</v>
       </c>
       <c r="G36" s="6">
         <f>IF($W$2*52&gt;G$2*$B36,ROUND(NPER($B36,-$W$2*52,G$2),2)," ")</f>
-        <v>19.9</v>
+        <v>14.76</v>
       </c>
       <c r="H36" s="6">
         <f>IF($W$2*52&gt;H$2*$B36,ROUND(NPER($B36,-$W$2*52,H$2),2)," ")</f>
-        <v>24.96</v>
+        <v>18.09</v>
       </c>
       <c r="I36" s="6">
         <f>IF($W$2*52&gt;I$2*$B36,ROUND(NPER($B36,-$W$2*52,I$2),2)," ")</f>
-        <v>31.01</v>
+        <v>21.83</v>
       </c>
       <c r="J36" s="6">
         <f>IF($W$2*52&gt;J$2*$B36,ROUND(NPER($B36,-$W$2*52,J$2),2)," ")</f>
-        <v>38.55</v>
+        <v>26.08</v>
       </c>
       <c r="K36" s="6">
         <f>IF($W$2*52&gt;K$2*$B36,ROUND(NPER($B36,-$W$2*52,K$2),2)," ")</f>
-        <v>48.55</v>
+        <v>31.01</v>
       </c>
       <c r="L36" s="6">
         <f>IF($W$2*52&gt;L$2*$B36,ROUND(NPER($B36,-$W$2*52,L$2),2)," ")</f>
-        <v>63.46</v>
+        <v>36.89</v>
       </c>
       <c r="M36" s="6">
         <f>IF($W$2*52&gt;M$2*$B36,ROUND(NPER($B36,-$W$2*52,M$2),2)," ")</f>
+        <v>44.15</v>
+      </c>
+      <c r="N36" s="6">
+        <f>IF($W$2*52&gt;N$2*$B36,ROUND(NPER($B36,-$W$2*52,N$2),2)," ")</f>
+        <v>53.68</v>
+      </c>
+      <c r="O36" s="6">
+        <f>IF($W$2*52&gt;O$2*$B36,ROUND(NPER($B36,-$W$2*52,O$2),2)," ")</f>
+        <v>67.56</v>
+      </c>
+      <c r="P36" s="6">
+        <f>IF($W$2*52&gt;P$2*$B36,ROUND(NPER($B36,-$W$2*52,P$2),2)," ")</f>
         <v>93.48</v>
-      </c>
-      <c r="N36" s="6" t="str">
-        <f>IF($W$2*52&gt;N$2*$B36,ROUND(NPER($B36,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="O36" s="6" t="str">
-        <f>IF($W$2*52&gt;O$2*$B36,ROUND(NPER($B36,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="P36" s="6" t="str">
-        <f>IF($W$2*52&gt;P$2*$B36,ROUND(NPER($B36,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="Q36" s="6" t="str">
         <f>IF($W$2*52&gt;Q$2*$B36,ROUND(NPER($B36,-$W$2*52,Q$2),2)," ")</f>
@@ -4239,59 +4227,59 @@
       </c>
       <c r="C37" s="6">
         <f>IF($W$2*52&gt;C$2*$B37,ROUND(NPER($B37,-$W$2*52,C$2),2)," ")</f>
-        <v>5.34</v>
+        <v>4.19</v>
       </c>
       <c r="D37" s="6">
         <f>IF($W$2*52&gt;D$2*$B37,ROUND(NPER($B37,-$W$2*52,D$2),2)," ")</f>
-        <v>8.41</v>
+        <v>6.53</v>
       </c>
       <c r="E37" s="6">
         <f>IF($W$2*52&gt;E$2*$B37,ROUND(NPER($B37,-$W$2*52,E$2),2)," ")</f>
-        <v>11.84</v>
+        <v>9.07</v>
       </c>
       <c r="F37" s="6">
         <f>IF($W$2*52&gt;F$2*$B37,ROUND(NPER($B37,-$W$2*52,F$2),2)," ")</f>
-        <v>15.71</v>
+        <v>11.84</v>
       </c>
       <c r="G37" s="6">
         <f>IF($W$2*52&gt;G$2*$B37,ROUND(NPER($B37,-$W$2*52,G$2),2)," ")</f>
-        <v>20.16</v>
+        <v>14.9</v>
       </c>
       <c r="H37" s="6">
         <f>IF($W$2*52&gt;H$2*$B37,ROUND(NPER($B37,-$W$2*52,H$2),2)," ")</f>
-        <v>25.39</v>
+        <v>18.3</v>
       </c>
       <c r="I37" s="6">
         <f>IF($W$2*52&gt;I$2*$B37,ROUND(NPER($B37,-$W$2*52,I$2),2)," ")</f>
-        <v>31.73</v>
+        <v>22.14</v>
       </c>
       <c r="J37" s="6">
         <f>IF($W$2*52&gt;J$2*$B37,ROUND(NPER($B37,-$W$2*52,J$2),2)," ")</f>
-        <v>39.79</v>
+        <v>26.55</v>
       </c>
       <c r="K37" s="6">
         <f>IF($W$2*52&gt;K$2*$B37,ROUND(NPER($B37,-$W$2*52,K$2),2)," ")</f>
-        <v>50.84</v>
+        <v>31.73</v>
       </c>
       <c r="L37" s="6">
         <f>IF($W$2*52&gt;L$2*$B37,ROUND(NPER($B37,-$W$2*52,L$2),2)," ")</f>
-        <v>68.58</v>
+        <v>37.99</v>
       </c>
       <c r="M37" s="6">
         <f>IF($W$2*52&gt;M$2*$B37,ROUND(NPER($B37,-$W$2*52,M$2),2)," ")</f>
+        <v>45.92</v>
+      </c>
+      <c r="N37" s="6">
+        <f>IF($W$2*52&gt;N$2*$B37,ROUND(NPER($B37,-$W$2*52,N$2),2)," ")</f>
+        <v>56.74</v>
+      </c>
+      <c r="O37" s="6">
+        <f>IF($W$2*52&gt;O$2*$B37,ROUND(NPER($B37,-$W$2*52,O$2),2)," ")</f>
+        <v>73.86</v>
+      </c>
+      <c r="P37" s="6">
+        <f>IF($W$2*52&gt;P$2*$B37,ROUND(NPER($B37,-$W$2*52,P$2),2)," ")</f>
         <v>118.18</v>
-      </c>
-      <c r="N37" s="6" t="str">
-        <f>IF($W$2*52&gt;N$2*$B37,ROUND(NPER($B37,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="O37" s="6" t="str">
-        <f>IF($W$2*52&gt;O$2*$B37,ROUND(NPER($B37,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="P37" s="6" t="str">
-        <f>IF($W$2*52&gt;P$2*$B37,ROUND(NPER($B37,-$W$2*52,P$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="Q37" s="6" t="str">
         <f>IF($W$2*52&gt;Q$2*$B37,ROUND(NPER($B37,-$W$2*52,Q$2),2)," ")</f>
@@ -4322,55 +4310,55 @@
       </c>
       <c r="C38" s="6">
         <f>IF($W$2*52&gt;C$2*$B38,ROUND(NPER($B38,-$W$2*52,C$2),2)," ")</f>
-        <v>5.36</v>
+        <v>4.2</v>
       </c>
       <c r="D38" s="6">
         <f>IF($W$2*52&gt;D$2*$B38,ROUND(NPER($B38,-$W$2*52,D$2),2)," ")</f>
-        <v>8.46</v>
+        <v>6.56</v>
       </c>
       <c r="E38" s="6">
         <f>IF($W$2*52&gt;E$2*$B38,ROUND(NPER($B38,-$W$2*52,E$2),2)," ")</f>
-        <v>11.93</v>
+        <v>9.12</v>
       </c>
       <c r="F38" s="6">
         <f>IF($W$2*52&gt;F$2*$B38,ROUND(NPER($B38,-$W$2*52,F$2),2)," ")</f>
-        <v>15.87</v>
+        <v>11.93</v>
       </c>
       <c r="G38" s="6">
         <f>IF($W$2*52&gt;G$2*$B38,ROUND(NPER($B38,-$W$2*52,G$2),2)," ")</f>
-        <v>20.43</v>
+        <v>15.04</v>
       </c>
       <c r="H38" s="6">
         <f>IF($W$2*52&gt;H$2*$B38,ROUND(NPER($B38,-$W$2*52,H$2),2)," ")</f>
-        <v>25.84</v>
+        <v>18.52</v>
       </c>
       <c r="I38" s="6">
         <f>IF($W$2*52&gt;I$2*$B38,ROUND(NPER($B38,-$W$2*52,I$2),2)," ")</f>
-        <v>32.5</v>
+        <v>22.48</v>
       </c>
       <c r="J38" s="6">
         <f>IF($W$2*52&gt;J$2*$B38,ROUND(NPER($B38,-$W$2*52,J$2),2)," ")</f>
-        <v>41.15</v>
+        <v>27.06</v>
       </c>
       <c r="K38" s="6">
         <f>IF($W$2*52&gt;K$2*$B38,ROUND(NPER($B38,-$W$2*52,K$2),2)," ")</f>
-        <v>53.52</v>
+        <v>32.5</v>
       </c>
       <c r="L38" s="6">
         <f>IF($W$2*52&gt;L$2*$B38,ROUND(NPER($B38,-$W$2*52,L$2),2)," ")</f>
-        <v>75.48</v>
-      </c>
-      <c r="M38" s="6" t="str">
+        <v>39.2</v>
+      </c>
+      <c r="M38" s="6">
         <f>IF($W$2*52&gt;M$2*$B38,ROUND(NPER($B38,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="N38" s="6" t="str">
+        <v>47.92</v>
+      </c>
+      <c r="N38" s="6">
         <f>IF($W$2*52&gt;N$2*$B38,ROUND(NPER($B38,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="O38" s="6" t="str">
+        <v>60.45</v>
+      </c>
+      <c r="O38" s="6">
         <f>IF($W$2*52&gt;O$2*$B38,ROUND(NPER($B38,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
+        <v>82.92</v>
       </c>
       <c r="P38" s="6" t="str">
         <f>IF($W$2*52&gt;P$2*$B38,ROUND(NPER($B38,-$W$2*52,P$2),2)," ")</f>
@@ -4405,55 +4393,55 @@
       </c>
       <c r="C39" s="6">
         <f>IF($W$2*52&gt;C$2*$B39,ROUND(NPER($B39,-$W$2*52,C$2),2)," ")</f>
-        <v>5.37</v>
+        <v>4.21</v>
       </c>
       <c r="D39" s="6">
         <f>IF($W$2*52&gt;D$2*$B39,ROUND(NPER($B39,-$W$2*52,D$2),2)," ")</f>
-        <v>8.5</v>
+        <v>6.58</v>
       </c>
       <c r="E39" s="6">
         <f>IF($W$2*52&gt;E$2*$B39,ROUND(NPER($B39,-$W$2*52,E$2),2)," ")</f>
-        <v>12.01</v>
+        <v>9.17</v>
       </c>
       <c r="F39" s="6">
         <f>IF($W$2*52&gt;F$2*$B39,ROUND(NPER($B39,-$W$2*52,F$2),2)," ")</f>
-        <v>16.03</v>
+        <v>12.01</v>
       </c>
       <c r="G39" s="6">
         <f>IF($W$2*52&gt;G$2*$B39,ROUND(NPER($B39,-$W$2*52,G$2),2)," ")</f>
-        <v>20.71</v>
+        <v>15.18</v>
       </c>
       <c r="H39" s="6">
         <f>IF($W$2*52&gt;H$2*$B39,ROUND(NPER($B39,-$W$2*52,H$2),2)," ")</f>
-        <v>26.32</v>
+        <v>18.74</v>
       </c>
       <c r="I39" s="6">
         <f>IF($W$2*52&gt;I$2*$B39,ROUND(NPER($B39,-$W$2*52,I$2),2)," ")</f>
-        <v>33.33</v>
+        <v>22.82</v>
       </c>
       <c r="J39" s="6">
         <f>IF($W$2*52&gt;J$2*$B39,ROUND(NPER($B39,-$W$2*52,J$2),2)," ")</f>
-        <v>42.66</v>
+        <v>27.59</v>
       </c>
       <c r="K39" s="6">
         <f>IF($W$2*52&gt;K$2*$B39,ROUND(NPER($B39,-$W$2*52,K$2),2)," ")</f>
-        <v>56.7</v>
+        <v>33.33</v>
       </c>
       <c r="L39" s="6">
         <f>IF($W$2*52&gt;L$2*$B39,ROUND(NPER($B39,-$W$2*52,L$2),2)," ")</f>
-        <v>85.81</v>
-      </c>
-      <c r="M39" s="6" t="str">
+        <v>40.53</v>
+      </c>
+      <c r="M39" s="6">
         <f>IF($W$2*52&gt;M$2*$B39,ROUND(NPER($B39,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="N39" s="6" t="str">
+        <v>50.23</v>
+      </c>
+      <c r="N39" s="6">
         <f>IF($W$2*52&gt;N$2*$B39,ROUND(NPER($B39,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="O39" s="6" t="str">
+        <v>65.11</v>
+      </c>
+      <c r="O39" s="6">
         <f>IF($W$2*52&gt;O$2*$B39,ROUND(NPER($B39,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
+        <v>98.43</v>
       </c>
       <c r="P39" s="6" t="str">
         <f>IF($W$2*52&gt;P$2*$B39,ROUND(NPER($B39,-$W$2*52,P$2),2)," ")</f>
@@ -4488,55 +4476,55 @@
       </c>
       <c r="C40" s="6">
         <f>IF($W$2*52&gt;C$2*$B40,ROUND(NPER($B40,-$W$2*52,C$2),2)," ")</f>
-        <v>5.39</v>
+        <v>4.23</v>
       </c>
       <c r="D40" s="6">
         <f>IF($W$2*52&gt;D$2*$B40,ROUND(NPER($B40,-$W$2*52,D$2),2)," ")</f>
-        <v>8.54</v>
+        <v>6.61</v>
       </c>
       <c r="E40" s="6">
         <f>IF($W$2*52&gt;E$2*$B40,ROUND(NPER($B40,-$W$2*52,E$2),2)," ")</f>
-        <v>12.1</v>
+        <v>9.22</v>
       </c>
       <c r="F40" s="6">
         <f>IF($W$2*52&gt;F$2*$B40,ROUND(NPER($B40,-$W$2*52,F$2),2)," ")</f>
-        <v>16.19</v>
+        <v>12.1</v>
       </c>
       <c r="G40" s="6">
         <f>IF($W$2*52&gt;G$2*$B40,ROUND(NPER($B40,-$W$2*52,G$2),2)," ")</f>
-        <v>21</v>
+        <v>15.32</v>
       </c>
       <c r="H40" s="6">
         <f>IF($W$2*52&gt;H$2*$B40,ROUND(NPER($B40,-$W$2*52,H$2),2)," ")</f>
-        <v>26.82</v>
+        <v>18.97</v>
       </c>
       <c r="I40" s="6">
         <f>IF($W$2*52&gt;I$2*$B40,ROUND(NPER($B40,-$W$2*52,I$2),2)," ")</f>
-        <v>34.22</v>
+        <v>23.18</v>
       </c>
       <c r="J40" s="6">
         <f>IF($W$2*52&gt;J$2*$B40,ROUND(NPER($B40,-$W$2*52,J$2),2)," ")</f>
-        <v>44.36</v>
+        <v>28.15</v>
       </c>
       <c r="K40" s="6">
         <f>IF($W$2*52&gt;K$2*$B40,ROUND(NPER($B40,-$W$2*52,K$2),2)," ")</f>
-        <v>60.61</v>
+        <v>34.22</v>
       </c>
       <c r="L40" s="6">
         <f>IF($W$2*52&gt;L$2*$B40,ROUND(NPER($B40,-$W$2*52,L$2),2)," ")</f>
-        <v>105.51</v>
-      </c>
-      <c r="M40" s="6" t="str">
+        <v>42.01</v>
+      </c>
+      <c r="M40" s="6">
         <f>IF($W$2*52&gt;M$2*$B40,ROUND(NPER($B40,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="N40" s="6" t="str">
+        <v>52.93</v>
+      </c>
+      <c r="N40" s="6">
         <f>IF($W$2*52&gt;N$2*$B40,ROUND(NPER($B40,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="O40" s="6" t="str">
+        <v>71.29</v>
+      </c>
+      <c r="O40" s="6">
         <f>IF($W$2*52&gt;O$2*$B40,ROUND(NPER($B40,-$W$2*52,O$2),2)," ")</f>
-        <v> </v>
+        <v>153.05</v>
       </c>
       <c r="P40" s="6" t="str">
         <f>IF($W$2*52&gt;P$2*$B40,ROUND(NPER($B40,-$W$2*52,P$2),2)," ")</f>
@@ -4571,51 +4559,51 @@
       </c>
       <c r="C41" s="6">
         <f>IF($W$2*52&gt;C$2*$B41,ROUND(NPER($B41,-$W$2*52,C$2),2)," ")</f>
-        <v>5.41</v>
+        <v>4.24</v>
       </c>
       <c r="D41" s="6">
         <f>IF($W$2*52&gt;D$2*$B41,ROUND(NPER($B41,-$W$2*52,D$2),2)," ")</f>
-        <v>8.59</v>
+        <v>6.64</v>
       </c>
       <c r="E41" s="6">
         <f>IF($W$2*52&gt;E$2*$B41,ROUND(NPER($B41,-$W$2*52,E$2),2)," ")</f>
-        <v>12.19</v>
+        <v>9.27</v>
       </c>
       <c r="F41" s="6">
         <f>IF($W$2*52&gt;F$2*$B41,ROUND(NPER($B41,-$W$2*52,F$2),2)," ")</f>
-        <v>16.36</v>
+        <v>12.19</v>
       </c>
       <c r="G41" s="6">
         <f>IF($W$2*52&gt;G$2*$B41,ROUND(NPER($B41,-$W$2*52,G$2),2)," ")</f>
-        <v>21.3</v>
+        <v>15.47</v>
       </c>
       <c r="H41" s="6">
         <f>IF($W$2*52&gt;H$2*$B41,ROUND(NPER($B41,-$W$2*52,H$2),2)," ")</f>
-        <v>27.35</v>
+        <v>19.21</v>
       </c>
       <c r="I41" s="6">
         <f>IF($W$2*52&gt;I$2*$B41,ROUND(NPER($B41,-$W$2*52,I$2),2)," ")</f>
-        <v>35.18</v>
+        <v>23.56</v>
       </c>
       <c r="J41" s="6">
         <f>IF($W$2*52&gt;J$2*$B41,ROUND(NPER($B41,-$W$2*52,J$2),2)," ")</f>
-        <v>46.3</v>
+        <v>28.74</v>
       </c>
       <c r="K41" s="6">
         <f>IF($W$2*52&gt;K$2*$B41,ROUND(NPER($B41,-$W$2*52,K$2),2)," ")</f>
-        <v>65.62</v>
-      </c>
-      <c r="L41" s="6" t="str">
+        <v>35.18</v>
+      </c>
+      <c r="L41" s="6">
         <f>IF($W$2*52&gt;L$2*$B41,ROUND(NPER($B41,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="M41" s="6" t="str">
+        <v>43.67</v>
+      </c>
+      <c r="M41" s="6">
         <f>IF($W$2*52&gt;M$2*$B41,ROUND(NPER($B41,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="N41" s="6" t="str">
+        <v>56.17</v>
+      </c>
+      <c r="N41" s="6">
         <f>IF($W$2*52&gt;N$2*$B41,ROUND(NPER($B41,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
+        <v>80.32</v>
       </c>
       <c r="O41" s="6" t="str">
         <f>IF($W$2*52&gt;O$2*$B41,ROUND(NPER($B41,-$W$2*52,O$2),2)," ")</f>
@@ -4654,51 +4642,51 @@
       </c>
       <c r="C42" s="6">
         <f>IF($W$2*52&gt;C$2*$B42,ROUND(NPER($B42,-$W$2*52,C$2),2)," ")</f>
-        <v>5.43</v>
+        <v>4.25</v>
       </c>
       <c r="D42" s="6">
         <f>IF($W$2*52&gt;D$2*$B42,ROUND(NPER($B42,-$W$2*52,D$2),2)," ")</f>
-        <v>8.63</v>
+        <v>6.66</v>
       </c>
       <c r="E42" s="6">
         <f>IF($W$2*52&gt;E$2*$B42,ROUND(NPER($B42,-$W$2*52,E$2),2)," ")</f>
-        <v>12.28</v>
+        <v>9.32</v>
       </c>
       <c r="F42" s="6">
         <f>IF($W$2*52&gt;F$2*$B42,ROUND(NPER($B42,-$W$2*52,F$2),2)," ")</f>
-        <v>16.53</v>
+        <v>12.28</v>
       </c>
       <c r="G42" s="6">
         <f>IF($W$2*52&gt;G$2*$B42,ROUND(NPER($B42,-$W$2*52,G$2),2)," ")</f>
-        <v>21.61</v>
+        <v>15.63</v>
       </c>
       <c r="H42" s="6">
         <f>IF($W$2*52&gt;H$2*$B42,ROUND(NPER($B42,-$W$2*52,H$2),2)," ")</f>
-        <v>27.91</v>
+        <v>19.46</v>
       </c>
       <c r="I42" s="6">
         <f>IF($W$2*52&gt;I$2*$B42,ROUND(NPER($B42,-$W$2*52,I$2),2)," ")</f>
-        <v>36.23</v>
+        <v>23.95</v>
       </c>
       <c r="J42" s="6">
         <f>IF($W$2*52&gt;J$2*$B42,ROUND(NPER($B42,-$W$2*52,J$2),2)," ")</f>
-        <v>48.52</v>
+        <v>29.38</v>
       </c>
       <c r="K42" s="6">
         <f>IF($W$2*52&gt;K$2*$B42,ROUND(NPER($B42,-$W$2*52,K$2),2)," ")</f>
-        <v>72.47</v>
-      </c>
-      <c r="L42" s="6" t="str">
+        <v>36.23</v>
+      </c>
+      <c r="L42" s="6">
         <f>IF($W$2*52&gt;L$2*$B42,ROUND(NPER($B42,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="M42" s="6" t="str">
+        <v>45.56</v>
+      </c>
+      <c r="M42" s="6">
         <f>IF($W$2*52&gt;M$2*$B42,ROUND(NPER($B42,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="N42" s="6" t="str">
+        <v>60.18</v>
+      </c>
+      <c r="N42" s="6">
         <f>IF($W$2*52&gt;N$2*$B42,ROUND(NPER($B42,-$W$2*52,N$2),2)," ")</f>
-        <v> </v>
+        <v>96.42</v>
       </c>
       <c r="O42" s="6" t="str">
         <f>IF($W$2*52&gt;O$2*$B42,ROUND(NPER($B42,-$W$2*52,O$2),2)," ")</f>
@@ -4737,47 +4725,47 @@
       </c>
       <c r="C43" s="6">
         <f>IF($W$2*52&gt;C$2*$B43,ROUND(NPER($B43,-$W$2*52,C$2),2)," ")</f>
-        <v>5.45</v>
+        <v>4.26</v>
       </c>
       <c r="D43" s="6">
         <f>IF($W$2*52&gt;D$2*$B43,ROUND(NPER($B43,-$W$2*52,D$2),2)," ")</f>
-        <v>8.68</v>
+        <v>6.69</v>
       </c>
       <c r="E43" s="6">
         <f>IF($W$2*52&gt;E$2*$B43,ROUND(NPER($B43,-$W$2*52,E$2),2)," ")</f>
-        <v>12.38</v>
+        <v>9.38</v>
       </c>
       <c r="F43" s="6">
         <f>IF($W$2*52&gt;F$2*$B43,ROUND(NPER($B43,-$W$2*52,F$2),2)," ")</f>
-        <v>16.71</v>
+        <v>12.38</v>
       </c>
       <c r="G43" s="6">
         <f>IF($W$2*52&gt;G$2*$B43,ROUND(NPER($B43,-$W$2*52,G$2),2)," ")</f>
-        <v>21.93</v>
+        <v>15.78</v>
       </c>
       <c r="H43" s="6">
         <f>IF($W$2*52&gt;H$2*$B43,ROUND(NPER($B43,-$W$2*52,H$2),2)," ")</f>
-        <v>28.51</v>
+        <v>19.71</v>
       </c>
       <c r="I43" s="6">
         <f>IF($W$2*52&gt;I$2*$B43,ROUND(NPER($B43,-$W$2*52,I$2),2)," ")</f>
-        <v>37.39</v>
+        <v>24.36</v>
       </c>
       <c r="J43" s="6">
         <f>IF($W$2*52&gt;J$2*$B43,ROUND(NPER($B43,-$W$2*52,J$2),2)," ")</f>
-        <v>51.13</v>
+        <v>30.05</v>
       </c>
       <c r="K43" s="6">
         <f>IF($W$2*52&gt;K$2*$B43,ROUND(NPER($B43,-$W$2*52,K$2),2)," ")</f>
-        <v>83.07</v>
-      </c>
-      <c r="L43" s="6" t="str">
+        <v>37.39</v>
+      </c>
+      <c r="L43" s="6">
         <f>IF($W$2*52&gt;L$2*$B43,ROUND(NPER($B43,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="M43" s="6" t="str">
+        <v>47.72</v>
+      </c>
+      <c r="M43" s="6">
         <f>IF($W$2*52&gt;M$2*$B43,ROUND(NPER($B43,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
+        <v>65.4</v>
       </c>
       <c r="N43" s="6" t="str">
         <f>IF($W$2*52&gt;N$2*$B43,ROUND(NPER($B43,-$W$2*52,N$2),2)," ")</f>
@@ -4820,47 +4808,47 @@
       </c>
       <c r="C44" s="6">
         <f>IF($W$2*52&gt;C$2*$B44,ROUND(NPER($B44,-$W$2*52,C$2),2)," ")</f>
-        <v>5.46</v>
+        <v>4.27</v>
       </c>
       <c r="D44" s="6">
         <f>IF($W$2*52&gt;D$2*$B44,ROUND(NPER($B44,-$W$2*52,D$2),2)," ")</f>
-        <v>8.72</v>
+        <v>6.72</v>
       </c>
       <c r="E44" s="6">
         <f>IF($W$2*52&gt;E$2*$B44,ROUND(NPER($B44,-$W$2*52,E$2),2)," ")</f>
-        <v>12.47</v>
+        <v>9.43</v>
       </c>
       <c r="F44" s="6">
         <f>IF($W$2*52&gt;F$2*$B44,ROUND(NPER($B44,-$W$2*52,F$2),2)," ")</f>
-        <v>16.89</v>
+        <v>12.47</v>
       </c>
       <c r="G44" s="6">
         <f>IF($W$2*52&gt;G$2*$B44,ROUND(NPER($B44,-$W$2*52,G$2),2)," ")</f>
-        <v>22.27</v>
+        <v>15.95</v>
       </c>
       <c r="H44" s="6">
         <f>IF($W$2*52&gt;H$2*$B44,ROUND(NPER($B44,-$W$2*52,H$2),2)," ")</f>
-        <v>29.14</v>
+        <v>19.98</v>
       </c>
       <c r="I44" s="6">
         <f>IF($W$2*52&gt;I$2*$B44,ROUND(NPER($B44,-$W$2*52,I$2),2)," ")</f>
-        <v>38.66</v>
+        <v>24.8</v>
       </c>
       <c r="J44" s="6">
         <f>IF($W$2*52&gt;J$2*$B44,ROUND(NPER($B44,-$W$2*52,J$2),2)," ")</f>
-        <v>54.27</v>
+        <v>30.77</v>
       </c>
       <c r="K44" s="6">
         <f>IF($W$2*52&gt;K$2*$B44,ROUND(NPER($B44,-$W$2*52,K$2),2)," ")</f>
-        <v>105.49</v>
-      </c>
-      <c r="L44" s="6" t="str">
+        <v>38.66</v>
+      </c>
+      <c r="L44" s="6">
         <f>IF($W$2*52&gt;L$2*$B44,ROUND(NPER($B44,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="M44" s="6" t="str">
+        <v>50.26</v>
+      </c>
+      <c r="M44" s="6">
         <f>IF($W$2*52&gt;M$2*$B44,ROUND(NPER($B44,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
+        <v>72.71</v>
       </c>
       <c r="N44" s="6" t="str">
         <f>IF($W$2*52&gt;N$2*$B44,ROUND(NPER($B44,-$W$2*52,N$2),2)," ")</f>
@@ -4903,47 +4891,47 @@
       </c>
       <c r="C45" s="6">
         <f>IF($W$2*52&gt;C$2*$B45,ROUND(NPER($B45,-$W$2*52,C$2),2)," ")</f>
-        <v>5.48</v>
+        <v>4.28</v>
       </c>
       <c r="D45" s="6">
         <f>IF($W$2*52&gt;D$2*$B45,ROUND(NPER($B45,-$W$2*52,D$2),2)," ")</f>
-        <v>8.77</v>
+        <v>6.74</v>
       </c>
       <c r="E45" s="6">
         <f>IF($W$2*52&gt;E$2*$B45,ROUND(NPER($B45,-$W$2*52,E$2),2)," ")</f>
-        <v>12.57</v>
+        <v>9.48</v>
       </c>
       <c r="F45" s="6">
         <f>IF($W$2*52&gt;F$2*$B45,ROUND(NPER($B45,-$W$2*52,F$2),2)," ")</f>
-        <v>17.08</v>
+        <v>12.57</v>
       </c>
       <c r="G45" s="6">
         <f>IF($W$2*52&gt;G$2*$B45,ROUND(NPER($B45,-$W$2*52,G$2),2)," ")</f>
-        <v>22.62</v>
+        <v>16.11</v>
       </c>
       <c r="H45" s="6">
         <f>IF($W$2*52&gt;H$2*$B45,ROUND(NPER($B45,-$W$2*52,H$2),2)," ")</f>
-        <v>29.82</v>
+        <v>20.25</v>
       </c>
       <c r="I45" s="6">
         <f>IF($W$2*52&gt;I$2*$B45,ROUND(NPER($B45,-$W$2*52,I$2),2)," ")</f>
-        <v>40.07</v>
+        <v>25.25</v>
       </c>
       <c r="J45" s="6">
         <f>IF($W$2*52&gt;J$2*$B45,ROUND(NPER($B45,-$W$2*52,J$2),2)," ")</f>
-        <v>58.17</v>
-      </c>
-      <c r="K45" s="6" t="str">
+        <v>31.55</v>
+      </c>
+      <c r="K45" s="6">
         <f>IF($W$2*52&gt;K$2*$B45,ROUND(NPER($B45,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="L45" s="6" t="str">
+        <v>40.07</v>
+      </c>
+      <c r="L45" s="6">
         <f>IF($W$2*52&gt;L$2*$B45,ROUND(NPER($B45,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="M45" s="6" t="str">
+        <v>53.31</v>
+      </c>
+      <c r="M45" s="6">
         <f>IF($W$2*52&gt;M$2*$B45,ROUND(NPER($B45,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
+        <v>84.62</v>
       </c>
       <c r="N45" s="6" t="str">
         <f>IF($W$2*52&gt;N$2*$B45,ROUND(NPER($B45,-$W$2*52,N$2),2)," ")</f>
@@ -4986,47 +4974,47 @@
       </c>
       <c r="C46" s="6">
         <f>IF($W$2*52&gt;C$2*$B46,ROUND(NPER($B46,-$W$2*52,C$2),2)," ")</f>
-        <v>5.5</v>
+        <v>4.29</v>
       </c>
       <c r="D46" s="6">
         <f>IF($W$2*52&gt;D$2*$B46,ROUND(NPER($B46,-$W$2*52,D$2),2)," ")</f>
-        <v>8.82</v>
+        <v>6.77</v>
       </c>
       <c r="E46" s="6">
         <f>IF($W$2*52&gt;E$2*$B46,ROUND(NPER($B46,-$W$2*52,E$2),2)," ")</f>
-        <v>12.67</v>
+        <v>9.54</v>
       </c>
       <c r="F46" s="6">
         <f>IF($W$2*52&gt;F$2*$B46,ROUND(NPER($B46,-$W$2*52,F$2),2)," ")</f>
-        <v>17.28</v>
+        <v>12.67</v>
       </c>
       <c r="G46" s="6">
         <f>IF($W$2*52&gt;G$2*$B46,ROUND(NPER($B46,-$W$2*52,G$2),2)," ")</f>
-        <v>22.99</v>
+        <v>16.28</v>
       </c>
       <c r="H46" s="6">
         <f>IF($W$2*52&gt;H$2*$B46,ROUND(NPER($B46,-$W$2*52,H$2),2)," ")</f>
-        <v>30.54</v>
+        <v>20.54</v>
       </c>
       <c r="I46" s="6">
         <f>IF($W$2*52&gt;I$2*$B46,ROUND(NPER($B46,-$W$2*52,I$2),2)," ")</f>
-        <v>41.66</v>
+        <v>25.73</v>
       </c>
       <c r="J46" s="6">
         <f>IF($W$2*52&gt;J$2*$B46,ROUND(NPER($B46,-$W$2*52,J$2),2)," ")</f>
-        <v>63.26</v>
-      </c>
-      <c r="K46" s="6" t="str">
+        <v>32.39</v>
+      </c>
+      <c r="K46" s="6">
         <f>IF($W$2*52&gt;K$2*$B46,ROUND(NPER($B46,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="L46" s="6" t="str">
+        <v>41.66</v>
+      </c>
+      <c r="L46" s="6">
         <f>IF($W$2*52&gt;L$2*$B46,ROUND(NPER($B46,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="M46" s="6" t="str">
+        <v>57.09</v>
+      </c>
+      <c r="M46" s="6">
         <f>IF($W$2*52&gt;M$2*$B46,ROUND(NPER($B46,-$W$2*52,M$2),2)," ")</f>
-        <v> </v>
+        <v>115.62</v>
       </c>
       <c r="N46" s="6" t="str">
         <f>IF($W$2*52&gt;N$2*$B46,ROUND(NPER($B46,-$W$2*52,N$2),2)," ")</f>
@@ -5069,43 +5057,43 @@
       </c>
       <c r="C47" s="6">
         <f>IF($W$2*52&gt;C$2*$B47,ROUND(NPER($B47,-$W$2*52,C$2),2)," ")</f>
-        <v>5.52</v>
+        <v>4.31</v>
       </c>
       <c r="D47" s="6">
         <f>IF($W$2*52&gt;D$2*$B47,ROUND(NPER($B47,-$W$2*52,D$2),2)," ")</f>
-        <v>8.86</v>
+        <v>6.8</v>
       </c>
       <c r="E47" s="6">
         <f>IF($W$2*52&gt;E$2*$B47,ROUND(NPER($B47,-$W$2*52,E$2),2)," ")</f>
-        <v>12.77</v>
+        <v>9.6</v>
       </c>
       <c r="F47" s="6">
         <f>IF($W$2*52&gt;F$2*$B47,ROUND(NPER($B47,-$W$2*52,F$2),2)," ")</f>
-        <v>17.48</v>
+        <v>12.77</v>
       </c>
       <c r="G47" s="6">
         <f>IF($W$2*52&gt;G$2*$B47,ROUND(NPER($B47,-$W$2*52,G$2),2)," ")</f>
-        <v>23.38</v>
+        <v>16.46</v>
       </c>
       <c r="H47" s="6">
         <f>IF($W$2*52&gt;H$2*$B47,ROUND(NPER($B47,-$W$2*52,H$2),2)," ")</f>
-        <v>31.32</v>
+        <v>20.84</v>
       </c>
       <c r="I47" s="6">
         <f>IF($W$2*52&gt;I$2*$B47,ROUND(NPER($B47,-$W$2*52,I$2),2)," ")</f>
-        <v>43.47</v>
+        <v>26.24</v>
       </c>
       <c r="J47" s="6">
         <f>IF($W$2*52&gt;J$2*$B47,ROUND(NPER($B47,-$W$2*52,J$2),2)," ")</f>
-        <v>70.48</v>
-      </c>
-      <c r="K47" s="6" t="str">
+        <v>33.29</v>
+      </c>
+      <c r="K47" s="6">
         <f>IF($W$2*52&gt;K$2*$B47,ROUND(NPER($B47,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="L47" s="6" t="str">
+        <v>43.47</v>
+      </c>
+      <c r="L47" s="6">
         <f>IF($W$2*52&gt;L$2*$B47,ROUND(NPER($B47,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
+        <v>62.01</v>
       </c>
       <c r="M47" s="6" t="str">
         <f>IF($W$2*52&gt;M$2*$B47,ROUND(NPER($B47,-$W$2*52,M$2),2)," ")</f>
@@ -5152,43 +5140,43 @@
       </c>
       <c r="C48" s="6">
         <f>IF($W$2*52&gt;C$2*$B48,ROUND(NPER($B48,-$W$2*52,C$2),2)," ")</f>
-        <v>5.54</v>
+        <v>4.32</v>
       </c>
       <c r="D48" s="6">
         <f>IF($W$2*52&gt;D$2*$B48,ROUND(NPER($B48,-$W$2*52,D$2),2)," ")</f>
-        <v>8.91</v>
+        <v>6.83</v>
       </c>
       <c r="E48" s="6">
         <f>IF($W$2*52&gt;E$2*$B48,ROUND(NPER($B48,-$W$2*52,E$2),2)," ")</f>
-        <v>12.88</v>
+        <v>9.65</v>
       </c>
       <c r="F48" s="6">
         <f>IF($W$2*52&gt;F$2*$B48,ROUND(NPER($B48,-$W$2*52,F$2),2)," ")</f>
-        <v>17.68</v>
+        <v>12.88</v>
       </c>
       <c r="G48" s="6">
         <f>IF($W$2*52&gt;G$2*$B48,ROUND(NPER($B48,-$W$2*52,G$2),2)," ")</f>
-        <v>23.79</v>
+        <v>16.64</v>
       </c>
       <c r="H48" s="6">
         <f>IF($W$2*52&gt;H$2*$B48,ROUND(NPER($B48,-$W$2*52,H$2),2)," ")</f>
-        <v>32.16</v>
+        <v>21.15</v>
       </c>
       <c r="I48" s="6">
         <f>IF($W$2*52&gt;I$2*$B48,ROUND(NPER($B48,-$W$2*52,I$2),2)," ")</f>
-        <v>45.56</v>
+        <v>26.78</v>
       </c>
       <c r="J48" s="6">
         <f>IF($W$2*52&gt;J$2*$B48,ROUND(NPER($B48,-$W$2*52,J$2),2)," ")</f>
-        <v>82.53</v>
-      </c>
-      <c r="K48" s="6" t="str">
+        <v>34.28</v>
+      </c>
+      <c r="K48" s="6">
         <f>IF($W$2*52&gt;K$2*$B48,ROUND(NPER($B48,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="L48" s="6" t="str">
+        <v>45.56</v>
+      </c>
+      <c r="L48" s="6">
         <f>IF($W$2*52&gt;L$2*$B48,ROUND(NPER($B48,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
+        <v>68.95</v>
       </c>
       <c r="M48" s="6" t="str">
         <f>IF($W$2*52&gt;M$2*$B48,ROUND(NPER($B48,-$W$2*52,M$2),2)," ")</f>
@@ -5235,43 +5223,43 @@
       </c>
       <c r="C49" s="6">
         <f>IF($W$2*52&gt;C$2*$B49,ROUND(NPER($B49,-$W$2*52,C$2),2)," ")</f>
-        <v>5.56</v>
+        <v>4.33</v>
       </c>
       <c r="D49" s="6">
         <f>IF($W$2*52&gt;D$2*$B49,ROUND(NPER($B49,-$W$2*52,D$2),2)," ")</f>
-        <v>8.96</v>
+        <v>6.86</v>
       </c>
       <c r="E49" s="6">
         <f>IF($W$2*52&gt;E$2*$B49,ROUND(NPER($B49,-$W$2*52,E$2),2)," ")</f>
-        <v>12.98</v>
+        <v>9.71</v>
       </c>
       <c r="F49" s="6">
         <f>IF($W$2*52&gt;F$2*$B49,ROUND(NPER($B49,-$W$2*52,F$2),2)," ")</f>
-        <v>17.9</v>
+        <v>12.98</v>
       </c>
       <c r="G49" s="6">
         <f>IF($W$2*52&gt;G$2*$B49,ROUND(NPER($B49,-$W$2*52,G$2),2)," ")</f>
-        <v>24.22</v>
+        <v>16.82</v>
       </c>
       <c r="H49" s="6">
         <f>IF($W$2*52&gt;H$2*$B49,ROUND(NPER($B49,-$W$2*52,H$2),2)," ")</f>
-        <v>33.07</v>
+        <v>21.47</v>
       </c>
       <c r="I49" s="6">
         <f>IF($W$2*52&gt;I$2*$B49,ROUND(NPER($B49,-$W$2*52,I$2),2)," ")</f>
-        <v>48.02</v>
+        <v>27.35</v>
       </c>
       <c r="J49" s="6">
         <f>IF($W$2*52&gt;J$2*$B49,ROUND(NPER($B49,-$W$2*52,J$2),2)," ")</f>
-        <v>118.68</v>
-      </c>
-      <c r="K49" s="6" t="str">
+        <v>35.36</v>
+      </c>
+      <c r="K49" s="6">
         <f>IF($W$2*52&gt;K$2*$B49,ROUND(NPER($B49,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="L49" s="6" t="str">
+        <v>48.02</v>
+      </c>
+      <c r="L49" s="6">
         <f>IF($W$2*52&gt;L$2*$B49,ROUND(NPER($B49,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
+        <v>80.38</v>
       </c>
       <c r="M49" s="6" t="str">
         <f>IF($W$2*52&gt;M$2*$B49,ROUND(NPER($B49,-$W$2*52,M$2),2)," ")</f>
@@ -5318,43 +5306,43 @@
       </c>
       <c r="C50" s="6">
         <f>IF($W$2*52&gt;C$2*$B50,ROUND(NPER($B50,-$W$2*52,C$2),2)," ")</f>
-        <v>5.58</v>
+        <v>4.34</v>
       </c>
       <c r="D50" s="6">
         <f>IF($W$2*52&gt;D$2*$B50,ROUND(NPER($B50,-$W$2*52,D$2),2)," ")</f>
-        <v>9.01</v>
+        <v>6.89</v>
       </c>
       <c r="E50" s="6">
         <f>IF($W$2*52&gt;E$2*$B50,ROUND(NPER($B50,-$W$2*52,E$2),2)," ")</f>
-        <v>13.09</v>
+        <v>9.77</v>
       </c>
       <c r="F50" s="6">
         <f>IF($W$2*52&gt;F$2*$B50,ROUND(NPER($B50,-$W$2*52,F$2),2)," ")</f>
-        <v>18.12</v>
+        <v>13.09</v>
       </c>
       <c r="G50" s="6">
         <f>IF($W$2*52&gt;G$2*$B50,ROUND(NPER($B50,-$W$2*52,G$2),2)," ")</f>
-        <v>24.67</v>
+        <v>17.02</v>
       </c>
       <c r="H50" s="6">
         <f>IF($W$2*52&gt;H$2*$B50,ROUND(NPER($B50,-$W$2*52,H$2),2)," ")</f>
-        <v>34.07</v>
+        <v>21.81</v>
       </c>
       <c r="I50" s="6">
         <f>IF($W$2*52&gt;I$2*$B50,ROUND(NPER($B50,-$W$2*52,I$2),2)," ")</f>
+        <v>27.96</v>
+      </c>
+      <c r="J50" s="6">
+        <f>IF($W$2*52&gt;J$2*$B50,ROUND(NPER($B50,-$W$2*52,J$2),2)," ")</f>
+        <v>36.56</v>
+      </c>
+      <c r="K50" s="6">
+        <f>IF($W$2*52&gt;K$2*$B50,ROUND(NPER($B50,-$W$2*52,K$2),2)," ")</f>
         <v>50.99</v>
       </c>
-      <c r="J50" s="6" t="str">
-        <f>IF($W$2*52&gt;J$2*$B50,ROUND(NPER($B50,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="K50" s="6" t="str">
-        <f>IF($W$2*52&gt;K$2*$B50,ROUND(NPER($B50,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="L50" s="6" t="str">
+      <c r="L50" s="6">
         <f>IF($W$2*52&gt;L$2*$B50,ROUND(NPER($B50,-$W$2*52,L$2),2)," ")</f>
-        <v> </v>
+        <v>112.24</v>
       </c>
       <c r="M50" s="6" t="str">
         <f>IF($W$2*52&gt;M$2*$B50,ROUND(NPER($B50,-$W$2*52,M$2),2)," ")</f>
@@ -5401,39 +5389,39 @@
       </c>
       <c r="C51" s="6">
         <f>IF($W$2*52&gt;C$2*$B51,ROUND(NPER($B51,-$W$2*52,C$2),2)," ")</f>
-        <v>5.6</v>
+        <v>4.35</v>
       </c>
       <c r="D51" s="6">
         <f>IF($W$2*52&gt;D$2*$B51,ROUND(NPER($B51,-$W$2*52,D$2),2)," ")</f>
-        <v>9.06</v>
+        <v>6.92</v>
       </c>
       <c r="E51" s="6">
         <f>IF($W$2*52&gt;E$2*$B51,ROUND(NPER($B51,-$W$2*52,E$2),2)," ")</f>
-        <v>13.2</v>
+        <v>9.83</v>
       </c>
       <c r="F51" s="6">
         <f>IF($W$2*52&gt;F$2*$B51,ROUND(NPER($B51,-$W$2*52,F$2),2)," ")</f>
-        <v>18.35</v>
+        <v>13.2</v>
       </c>
       <c r="G51" s="6">
         <f>IF($W$2*52&gt;G$2*$B51,ROUND(NPER($B51,-$W$2*52,G$2),2)," ")</f>
-        <v>25.14</v>
+        <v>17.21</v>
       </c>
       <c r="H51" s="6">
         <f>IF($W$2*52&gt;H$2*$B51,ROUND(NPER($B51,-$W$2*52,H$2),2)," ")</f>
-        <v>35.16</v>
+        <v>22.16</v>
       </c>
       <c r="I51" s="6">
         <f>IF($W$2*52&gt;I$2*$B51,ROUND(NPER($B51,-$W$2*52,I$2),2)," ")</f>
+        <v>28.61</v>
+      </c>
+      <c r="J51" s="6">
+        <f>IF($W$2*52&gt;J$2*$B51,ROUND(NPER($B51,-$W$2*52,J$2),2)," ")</f>
+        <v>37.89</v>
+      </c>
+      <c r="K51" s="6">
+        <f>IF($W$2*52&gt;K$2*$B51,ROUND(NPER($B51,-$W$2*52,K$2),2)," ")</f>
         <v>54.71</v>
-      </c>
-      <c r="J51" s="6" t="str">
-        <f>IF($W$2*52&gt;J$2*$B51,ROUND(NPER($B51,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="K51" s="6" t="str">
-        <f>IF($W$2*52&gt;K$2*$B51,ROUND(NPER($B51,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="L51" s="6" t="str">
         <f>IF($W$2*52&gt;L$2*$B51,ROUND(NPER($B51,-$W$2*52,L$2),2)," ")</f>
@@ -5484,39 +5472,39 @@
       </c>
       <c r="C52" s="6">
         <f>IF($W$2*52&gt;C$2*$B52,ROUND(NPER($B52,-$W$2*52,C$2),2)," ")</f>
-        <v>5.62</v>
+        <v>4.37</v>
       </c>
       <c r="D52" s="6">
         <f>IF($W$2*52&gt;D$2*$B52,ROUND(NPER($B52,-$W$2*52,D$2),2)," ")</f>
-        <v>9.11</v>
+        <v>6.95</v>
       </c>
       <c r="E52" s="6">
         <f>IF($W$2*52&gt;E$2*$B52,ROUND(NPER($B52,-$W$2*52,E$2),2)," ")</f>
-        <v>13.32</v>
+        <v>9.89</v>
       </c>
       <c r="F52" s="6">
         <f>IF($W$2*52&gt;F$2*$B52,ROUND(NPER($B52,-$W$2*52,F$2),2)," ")</f>
-        <v>18.58</v>
+        <v>13.32</v>
       </c>
       <c r="G52" s="6">
         <f>IF($W$2*52&gt;G$2*$B52,ROUND(NPER($B52,-$W$2*52,G$2),2)," ")</f>
-        <v>25.64</v>
+        <v>17.42</v>
       </c>
       <c r="H52" s="6">
         <f>IF($W$2*52&gt;H$2*$B52,ROUND(NPER($B52,-$W$2*52,H$2),2)," ")</f>
-        <v>36.38</v>
+        <v>22.53</v>
       </c>
       <c r="I52" s="6">
         <f>IF($W$2*52&gt;I$2*$B52,ROUND(NPER($B52,-$W$2*52,I$2),2)," ")</f>
+        <v>29.3</v>
+      </c>
+      <c r="J52" s="6">
+        <f>IF($W$2*52&gt;J$2*$B52,ROUND(NPER($B52,-$W$2*52,J$2),2)," ")</f>
+        <v>39.39</v>
+      </c>
+      <c r="K52" s="6">
+        <f>IF($W$2*52&gt;K$2*$B52,ROUND(NPER($B52,-$W$2*52,K$2),2)," ")</f>
         <v>59.63</v>
-      </c>
-      <c r="J52" s="6" t="str">
-        <f>IF($W$2*52&gt;J$2*$B52,ROUND(NPER($B52,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="K52" s="6" t="str">
-        <f>IF($W$2*52&gt;K$2*$B52,ROUND(NPER($B52,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="L52" s="6" t="str">
         <f>IF($W$2*52&gt;L$2*$B52,ROUND(NPER($B52,-$W$2*52,L$2),2)," ")</f>
@@ -5567,39 +5555,39 @@
       </c>
       <c r="C53" s="6">
         <f>IF($W$2*52&gt;C$2*$B53,ROUND(NPER($B53,-$W$2*52,C$2),2)," ")</f>
-        <v>5.64</v>
+        <v>4.38</v>
       </c>
       <c r="D53" s="6">
         <f>IF($W$2*52&gt;D$2*$B53,ROUND(NPER($B53,-$W$2*52,D$2),2)," ")</f>
-        <v>9.17</v>
+        <v>6.98</v>
       </c>
       <c r="E53" s="6">
         <f>IF($W$2*52&gt;E$2*$B53,ROUND(NPER($B53,-$W$2*52,E$2),2)," ")</f>
-        <v>13.43</v>
+        <v>9.95</v>
       </c>
       <c r="F53" s="6">
         <f>IF($W$2*52&gt;F$2*$B53,ROUND(NPER($B53,-$W$2*52,F$2),2)," ")</f>
-        <v>18.83</v>
+        <v>13.43</v>
       </c>
       <c r="G53" s="6">
         <f>IF($W$2*52&gt;G$2*$B53,ROUND(NPER($B53,-$W$2*52,G$2),2)," ")</f>
-        <v>26.18</v>
+        <v>17.63</v>
       </c>
       <c r="H53" s="6">
         <f>IF($W$2*52&gt;H$2*$B53,ROUND(NPER($B53,-$W$2*52,H$2),2)," ")</f>
-        <v>37.73</v>
+        <v>22.92</v>
       </c>
       <c r="I53" s="6">
         <f>IF($W$2*52&gt;I$2*$B53,ROUND(NPER($B53,-$W$2*52,I$2),2)," ")</f>
+        <v>30.05</v>
+      </c>
+      <c r="J53" s="6">
+        <f>IF($W$2*52&gt;J$2*$B53,ROUND(NPER($B53,-$W$2*52,J$2),2)," ")</f>
+        <v>41.1</v>
+      </c>
+      <c r="K53" s="6">
+        <f>IF($W$2*52&gt;K$2*$B53,ROUND(NPER($B53,-$W$2*52,K$2),2)," ")</f>
         <v>66.78</v>
-      </c>
-      <c r="J53" s="6" t="str">
-        <f>IF($W$2*52&gt;J$2*$B53,ROUND(NPER($B53,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="K53" s="6" t="str">
-        <f>IF($W$2*52&gt;K$2*$B53,ROUND(NPER($B53,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="L53" s="6" t="str">
         <f>IF($W$2*52&gt;L$2*$B53,ROUND(NPER($B53,-$W$2*52,L$2),2)," ")</f>
@@ -5650,39 +5638,39 @@
       </c>
       <c r="C54" s="6">
         <f>IF($W$2*52&gt;C$2*$B54,ROUND(NPER($B54,-$W$2*52,C$2),2)," ")</f>
-        <v>5.66</v>
+        <v>4.39</v>
       </c>
       <c r="D54" s="6">
         <f>IF($W$2*52&gt;D$2*$B54,ROUND(NPER($B54,-$W$2*52,D$2),2)," ")</f>
-        <v>9.22</v>
+        <v>7.01</v>
       </c>
       <c r="E54" s="6">
         <f>IF($W$2*52&gt;E$2*$B54,ROUND(NPER($B54,-$W$2*52,E$2),2)," ")</f>
-        <v>13.55</v>
+        <v>10.01</v>
       </c>
       <c r="F54" s="6">
         <f>IF($W$2*52&gt;F$2*$B54,ROUND(NPER($B54,-$W$2*52,F$2),2)," ")</f>
-        <v>19.08</v>
+        <v>13.55</v>
       </c>
       <c r="G54" s="6">
         <f>IF($W$2*52&gt;G$2*$B54,ROUND(NPER($B54,-$W$2*52,G$2),2)," ")</f>
-        <v>26.74</v>
+        <v>17.85</v>
       </c>
       <c r="H54" s="6">
         <f>IF($W$2*52&gt;H$2*$B54,ROUND(NPER($B54,-$W$2*52,H$2),2)," ")</f>
-        <v>39.27</v>
+        <v>23.32</v>
       </c>
       <c r="I54" s="6">
         <f>IF($W$2*52&gt;I$2*$B54,ROUND(NPER($B54,-$W$2*52,I$2),2)," ")</f>
+        <v>30.87</v>
+      </c>
+      <c r="J54" s="6">
+        <f>IF($W$2*52&gt;J$2*$B54,ROUND(NPER($B54,-$W$2*52,J$2),2)," ")</f>
+        <v>43.08</v>
+      </c>
+      <c r="K54" s="6">
+        <f>IF($W$2*52&gt;K$2*$B54,ROUND(NPER($B54,-$W$2*52,K$2),2)," ")</f>
         <v>79.43</v>
-      </c>
-      <c r="J54" s="6" t="str">
-        <f>IF($W$2*52&gt;J$2*$B54,ROUND(NPER($B54,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="K54" s="6" t="str">
-        <f>IF($W$2*52&gt;K$2*$B54,ROUND(NPER($B54,-$W$2*52,K$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="L54" s="6" t="str">
         <f>IF($W$2*52&gt;L$2*$B54,ROUND(NPER($B54,-$W$2*52,L$2),2)," ")</f>
@@ -5733,35 +5721,35 @@
       </c>
       <c r="C55" s="6">
         <f>IF($W$2*52&gt;C$2*$B55,ROUND(NPER($B55,-$W$2*52,C$2),2)," ")</f>
-        <v>5.67</v>
+        <v>4.4</v>
       </c>
       <c r="D55" s="6">
         <f>IF($W$2*52&gt;D$2*$B55,ROUND(NPER($B55,-$W$2*52,D$2),2)," ")</f>
-        <v>9.27</v>
+        <v>7.04</v>
       </c>
       <c r="E55" s="6">
         <f>IF($W$2*52&gt;E$2*$B55,ROUND(NPER($B55,-$W$2*52,E$2),2)," ")</f>
-        <v>13.67</v>
+        <v>10.08</v>
       </c>
       <c r="F55" s="6">
         <f>IF($W$2*52&gt;F$2*$B55,ROUND(NPER($B55,-$W$2*52,F$2),2)," ")</f>
-        <v>19.35</v>
+        <v>13.67</v>
       </c>
       <c r="G55" s="6">
         <f>IF($W$2*52&gt;G$2*$B55,ROUND(NPER($B55,-$W$2*52,G$2),2)," ")</f>
-        <v>27.35</v>
+        <v>18.08</v>
       </c>
       <c r="H55" s="6">
         <f>IF($W$2*52&gt;H$2*$B55,ROUND(NPER($B55,-$W$2*52,H$2),2)," ")</f>
-        <v>41.02</v>
-      </c>
-      <c r="I55" s="6" t="str">
+        <v>23.75</v>
+      </c>
+      <c r="I55" s="6">
         <f>IF($W$2*52&gt;I$2*$B55,ROUND(NPER($B55,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="J55" s="6" t="str">
+        <v>31.75</v>
+      </c>
+      <c r="J55" s="6">
         <f>IF($W$2*52&gt;J$2*$B55,ROUND(NPER($B55,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
+        <v>45.42</v>
       </c>
       <c r="K55" s="6" t="str">
         <f>IF($W$2*52&gt;K$2*$B55,ROUND(NPER($B55,-$W$2*52,K$2),2)," ")</f>
@@ -5816,35 +5804,35 @@
       </c>
       <c r="C56" s="6">
         <f>IF($W$2*52&gt;C$2*$B56,ROUND(NPER($B56,-$W$2*52,C$2),2)," ")</f>
-        <v>5.7</v>
+        <v>4.41</v>
       </c>
       <c r="D56" s="6">
         <f>IF($W$2*52&gt;D$2*$B56,ROUND(NPER($B56,-$W$2*52,D$2),2)," ")</f>
-        <v>9.33</v>
+        <v>7.07</v>
       </c>
       <c r="E56" s="6">
         <f>IF($W$2*52&gt;E$2*$B56,ROUND(NPER($B56,-$W$2*52,E$2),2)," ")</f>
-        <v>13.8</v>
+        <v>10.14</v>
       </c>
       <c r="F56" s="6">
         <f>IF($W$2*52&gt;F$2*$B56,ROUND(NPER($B56,-$W$2*52,F$2),2)," ")</f>
-        <v>19.62</v>
+        <v>13.8</v>
       </c>
       <c r="G56" s="6">
         <f>IF($W$2*52&gt;G$2*$B56,ROUND(NPER($B56,-$W$2*52,G$2),2)," ")</f>
-        <v>27.99</v>
+        <v>18.31</v>
       </c>
       <c r="H56" s="6">
         <f>IF($W$2*52&gt;H$2*$B56,ROUND(NPER($B56,-$W$2*52,H$2),2)," ")</f>
-        <v>43.07</v>
-      </c>
-      <c r="I56" s="6" t="str">
+        <v>24.2</v>
+      </c>
+      <c r="I56" s="6">
         <f>IF($W$2*52&gt;I$2*$B56,ROUND(NPER($B56,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="J56" s="6" t="str">
+        <v>32.71</v>
+      </c>
+      <c r="J56" s="6">
         <f>IF($W$2*52&gt;J$2*$B56,ROUND(NPER($B56,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
+        <v>48.27</v>
       </c>
       <c r="K56" s="6" t="str">
         <f>IF($W$2*52&gt;K$2*$B56,ROUND(NPER($B56,-$W$2*52,K$2),2)," ")</f>
@@ -5899,35 +5887,35 @@
       </c>
       <c r="C57" s="6">
         <f>IF($W$2*52&gt;C$2*$B57,ROUND(NPER($B57,-$W$2*52,C$2),2)," ")</f>
-        <v>5.72</v>
+        <v>4.43</v>
       </c>
       <c r="D57" s="6">
         <f>IF($W$2*52&gt;D$2*$B57,ROUND(NPER($B57,-$W$2*52,D$2),2)," ")</f>
-        <v>9.38</v>
+        <v>7.1</v>
       </c>
       <c r="E57" s="6">
         <f>IF($W$2*52&gt;E$2*$B57,ROUND(NPER($B57,-$W$2*52,E$2),2)," ")</f>
-        <v>13.93</v>
+        <v>10.21</v>
       </c>
       <c r="F57" s="6">
         <f>IF($W$2*52&gt;F$2*$B57,ROUND(NPER($B57,-$W$2*52,F$2),2)," ")</f>
-        <v>19.91</v>
+        <v>13.93</v>
       </c>
       <c r="G57" s="6">
         <f>IF($W$2*52&gt;G$2*$B57,ROUND(NPER($B57,-$W$2*52,G$2),2)," ")</f>
-        <v>28.69</v>
+        <v>18.55</v>
       </c>
       <c r="H57" s="6">
         <f>IF($W$2*52&gt;H$2*$B57,ROUND(NPER($B57,-$W$2*52,H$2),2)," ")</f>
-        <v>45.5</v>
-      </c>
-      <c r="I57" s="6" t="str">
+        <v>24.68</v>
+      </c>
+      <c r="I57" s="6">
         <f>IF($W$2*52&gt;I$2*$B57,ROUND(NPER($B57,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="J57" s="6" t="str">
+        <v>33.78</v>
+      </c>
+      <c r="J57" s="6">
         <f>IF($W$2*52&gt;J$2*$B57,ROUND(NPER($B57,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
+        <v>51.86</v>
       </c>
       <c r="K57" s="6" t="str">
         <f>IF($W$2*52&gt;K$2*$B57,ROUND(NPER($B57,-$W$2*52,K$2),2)," ")</f>
@@ -5982,35 +5970,35 @@
       </c>
       <c r="C58" s="6">
         <f>IF($W$2*52&gt;C$2*$B58,ROUND(NPER($B58,-$W$2*52,C$2),2)," ")</f>
-        <v>5.74</v>
+        <v>4.44</v>
       </c>
       <c r="D58" s="6">
         <f>IF($W$2*52&gt;D$2*$B58,ROUND(NPER($B58,-$W$2*52,D$2),2)," ")</f>
-        <v>9.44</v>
+        <v>7.13</v>
       </c>
       <c r="E58" s="6">
         <f>IF($W$2*52&gt;E$2*$B58,ROUND(NPER($B58,-$W$2*52,E$2),2)," ")</f>
-        <v>14.06</v>
+        <v>10.27</v>
       </c>
       <c r="F58" s="6">
         <f>IF($W$2*52&gt;F$2*$B58,ROUND(NPER($B58,-$W$2*52,F$2),2)," ")</f>
-        <v>20.21</v>
+        <v>14.06</v>
       </c>
       <c r="G58" s="6">
         <f>IF($W$2*52&gt;G$2*$B58,ROUND(NPER($B58,-$W$2*52,G$2),2)," ")</f>
-        <v>29.44</v>
+        <v>18.8</v>
       </c>
       <c r="H58" s="6">
         <f>IF($W$2*52&gt;H$2*$B58,ROUND(NPER($B58,-$W$2*52,H$2),2)," ")</f>
-        <v>48.5</v>
-      </c>
-      <c r="I58" s="6" t="str">
+        <v>25.19</v>
+      </c>
+      <c r="I58" s="6">
         <f>IF($W$2*52&gt;I$2*$B58,ROUND(NPER($B58,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="J58" s="6" t="str">
+        <v>34.96</v>
+      </c>
+      <c r="J58" s="6">
         <f>IF($W$2*52&gt;J$2*$B58,ROUND(NPER($B58,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
+        <v>56.68</v>
       </c>
       <c r="K58" s="6" t="str">
         <f>IF($W$2*52&gt;K$2*$B58,ROUND(NPER($B58,-$W$2*52,K$2),2)," ")</f>
@@ -6065,35 +6053,35 @@
       </c>
       <c r="C59" s="6">
         <f>IF($W$2*52&gt;C$2*$B59,ROUND(NPER($B59,-$W$2*52,C$2),2)," ")</f>
-        <v>5.76</v>
+        <v>4.45</v>
       </c>
       <c r="D59" s="6">
         <f>IF($W$2*52&gt;D$2*$B59,ROUND(NPER($B59,-$W$2*52,D$2),2)," ")</f>
-        <v>9.49</v>
+        <v>7.16</v>
       </c>
       <c r="E59" s="6">
         <f>IF($W$2*52&gt;E$2*$B59,ROUND(NPER($B59,-$W$2*52,E$2),2)," ")</f>
-        <v>14.19</v>
+        <v>10.34</v>
       </c>
       <c r="F59" s="6">
         <f>IF($W$2*52&gt;F$2*$B59,ROUND(NPER($B59,-$W$2*52,F$2),2)," ")</f>
-        <v>20.52</v>
+        <v>14.19</v>
       </c>
       <c r="G59" s="6">
         <f>IF($W$2*52&gt;G$2*$B59,ROUND(NPER($B59,-$W$2*52,G$2),2)," ")</f>
-        <v>30.26</v>
+        <v>19.07</v>
       </c>
       <c r="H59" s="6">
         <f>IF($W$2*52&gt;H$2*$B59,ROUND(NPER($B59,-$W$2*52,H$2),2)," ")</f>
-        <v>52.35</v>
-      </c>
-      <c r="I59" s="6" t="str">
+        <v>25.73</v>
+      </c>
+      <c r="I59" s="6">
         <f>IF($W$2*52&gt;I$2*$B59,ROUND(NPER($B59,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="J59" s="6" t="str">
+        <v>36.29</v>
+      </c>
+      <c r="J59" s="6">
         <f>IF($W$2*52&gt;J$2*$B59,ROUND(NPER($B59,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
+        <v>63.89</v>
       </c>
       <c r="K59" s="6" t="str">
         <f>IF($W$2*52&gt;K$2*$B59,ROUND(NPER($B59,-$W$2*52,K$2),2)," ")</f>
@@ -6148,35 +6136,35 @@
       </c>
       <c r="C60" s="6">
         <f>IF($W$2*52&gt;C$2*$B60,ROUND(NPER($B60,-$W$2*52,C$2),2)," ")</f>
-        <v>5.78</v>
+        <v>4.46</v>
       </c>
       <c r="D60" s="6">
         <f>IF($W$2*52&gt;D$2*$B60,ROUND(NPER($B60,-$W$2*52,D$2),2)," ")</f>
-        <v>9.55</v>
+        <v>7.19</v>
       </c>
       <c r="E60" s="6">
         <f>IF($W$2*52&gt;E$2*$B60,ROUND(NPER($B60,-$W$2*52,E$2),2)," ")</f>
-        <v>14.33</v>
+        <v>10.41</v>
       </c>
       <c r="F60" s="6">
         <f>IF($W$2*52&gt;F$2*$B60,ROUND(NPER($B60,-$W$2*52,F$2),2)," ")</f>
-        <v>20.84</v>
+        <v>14.33</v>
       </c>
       <c r="G60" s="6">
         <f>IF($W$2*52&gt;G$2*$B60,ROUND(NPER($B60,-$W$2*52,G$2),2)," ")</f>
-        <v>31.15</v>
+        <v>19.34</v>
       </c>
       <c r="H60" s="6">
         <f>IF($W$2*52&gt;H$2*$B60,ROUND(NPER($B60,-$W$2*52,H$2),2)," ")</f>
-        <v>57.68</v>
-      </c>
-      <c r="I60" s="6" t="str">
+        <v>26.3</v>
+      </c>
+      <c r="I60" s="6">
         <f>IF($W$2*52&gt;I$2*$B60,ROUND(NPER($B60,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="J60" s="6" t="str">
+        <v>37.79</v>
+      </c>
+      <c r="J60" s="6">
         <f>IF($W$2*52&gt;J$2*$B60,ROUND(NPER($B60,-$W$2*52,J$2),2)," ")</f>
-        <v> </v>
+        <v>77.71</v>
       </c>
       <c r="K60" s="6" t="str">
         <f>IF($W$2*52&gt;K$2*$B60,ROUND(NPER($B60,-$W$2*52,K$2),2)," ")</f>
@@ -6231,31 +6219,31 @@
       </c>
       <c r="C61" s="6">
         <f>IF($W$2*52&gt;C$2*$B61,ROUND(NPER($B61,-$W$2*52,C$2),2)," ")</f>
-        <v>5.8</v>
+        <v>4.48</v>
       </c>
       <c r="D61" s="6">
         <f>IF($W$2*52&gt;D$2*$B61,ROUND(NPER($B61,-$W$2*52,D$2),2)," ")</f>
-        <v>9.61</v>
+        <v>7.23</v>
       </c>
       <c r="E61" s="6">
         <f>IF($W$2*52&gt;E$2*$B61,ROUND(NPER($B61,-$W$2*52,E$2),2)," ")</f>
-        <v>14.47</v>
+        <v>10.48</v>
       </c>
       <c r="F61" s="6">
         <f>IF($W$2*52&gt;F$2*$B61,ROUND(NPER($B61,-$W$2*52,F$2),2)," ")</f>
-        <v>21.18</v>
+        <v>14.47</v>
       </c>
       <c r="G61" s="6">
         <f>IF($W$2*52&gt;G$2*$B61,ROUND(NPER($B61,-$W$2*52,G$2),2)," ")</f>
-        <v>32.12</v>
+        <v>19.62</v>
       </c>
       <c r="H61" s="6">
         <f>IF($W$2*52&gt;H$2*$B61,ROUND(NPER($B61,-$W$2*52,H$2),2)," ")</f>
-        <v>66.12</v>
-      </c>
-      <c r="I61" s="6" t="str">
+        <v>26.92</v>
+      </c>
+      <c r="I61" s="6">
         <f>IF($W$2*52&gt;I$2*$B61,ROUND(NPER($B61,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>39.53</v>
       </c>
       <c r="J61" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B61,ROUND(NPER($B61,-$W$2*52,J$2),2)," ")</f>
@@ -6314,31 +6302,31 @@
       </c>
       <c r="C62" s="6">
         <f>IF($W$2*52&gt;C$2*$B62,ROUND(NPER($B62,-$W$2*52,C$2),2)," ")</f>
-        <v>5.82</v>
+        <v>4.49</v>
       </c>
       <c r="D62" s="6">
         <f>IF($W$2*52&gt;D$2*$B62,ROUND(NPER($B62,-$W$2*52,D$2),2)," ")</f>
-        <v>9.67</v>
+        <v>7.26</v>
       </c>
       <c r="E62" s="6">
         <f>IF($W$2*52&gt;E$2*$B62,ROUND(NPER($B62,-$W$2*52,E$2),2)," ")</f>
-        <v>14.61</v>
+        <v>10.55</v>
       </c>
       <c r="F62" s="6">
         <f>IF($W$2*52&gt;F$2*$B62,ROUND(NPER($B62,-$W$2*52,F$2),2)," ")</f>
-        <v>21.54</v>
+        <v>14.61</v>
       </c>
       <c r="G62" s="6">
         <f>IF($W$2*52&gt;G$2*$B62,ROUND(NPER($B62,-$W$2*52,G$2),2)," ")</f>
-        <v>33.21</v>
+        <v>19.92</v>
       </c>
       <c r="H62" s="6">
         <f>IF($W$2*52&gt;H$2*$B62,ROUND(NPER($B62,-$W$2*52,H$2),2)," ")</f>
-        <v>86.04</v>
-      </c>
-      <c r="I62" s="6" t="str">
+        <v>27.58</v>
+      </c>
+      <c r="I62" s="6">
         <f>IF($W$2*52&gt;I$2*$B62,ROUND(NPER($B62,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>41.56</v>
       </c>
       <c r="J62" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B62,ROUND(NPER($B62,-$W$2*52,J$2),2)," ")</f>
@@ -6397,31 +6385,31 @@
       </c>
       <c r="C63" s="6">
         <f>IF($W$2*52&gt;C$2*$B63,ROUND(NPER($B63,-$W$2*52,C$2),2)," ")</f>
-        <v>5.84</v>
+        <v>4.5</v>
       </c>
       <c r="D63" s="6">
         <f>IF($W$2*52&gt;D$2*$B63,ROUND(NPER($B63,-$W$2*52,D$2),2)," ")</f>
-        <v>9.73</v>
+        <v>7.29</v>
       </c>
       <c r="E63" s="6">
         <f>IF($W$2*52&gt;E$2*$B63,ROUND(NPER($B63,-$W$2*52,E$2),2)," ")</f>
-        <v>14.76</v>
+        <v>10.62</v>
       </c>
       <c r="F63" s="6">
         <f>IF($W$2*52&gt;F$2*$B63,ROUND(NPER($B63,-$W$2*52,F$2),2)," ")</f>
-        <v>21.92</v>
+        <v>14.76</v>
       </c>
       <c r="G63" s="6">
         <f>IF($W$2*52&gt;G$2*$B63,ROUND(NPER($B63,-$W$2*52,G$2),2)," ")</f>
-        <v>34.42</v>
-      </c>
-      <c r="H63" s="6" t="str">
+        <v>20.23</v>
+      </c>
+      <c r="H63" s="6">
         <f>IF($W$2*52&gt;H$2*$B63,ROUND(NPER($B63,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="I63" s="6" t="str">
+        <v>28.29</v>
+      </c>
+      <c r="I63" s="6">
         <f>IF($W$2*52&gt;I$2*$B63,ROUND(NPER($B63,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>44.02</v>
       </c>
       <c r="J63" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B63,ROUND(NPER($B63,-$W$2*52,J$2),2)," ")</f>
@@ -6480,31 +6468,31 @@
       </c>
       <c r="C64" s="6">
         <f>IF($W$2*52&gt;C$2*$B64,ROUND(NPER($B64,-$W$2*52,C$2),2)," ")</f>
-        <v>5.86</v>
+        <v>4.52</v>
       </c>
       <c r="D64" s="6">
         <f>IF($W$2*52&gt;D$2*$B64,ROUND(NPER($B64,-$W$2*52,D$2),2)," ")</f>
-        <v>9.79</v>
+        <v>7.33</v>
       </c>
       <c r="E64" s="6">
         <f>IF($W$2*52&gt;E$2*$B64,ROUND(NPER($B64,-$W$2*52,E$2),2)," ")</f>
-        <v>14.92</v>
+        <v>10.7</v>
       </c>
       <c r="F64" s="6">
         <f>IF($W$2*52&gt;F$2*$B64,ROUND(NPER($B64,-$W$2*52,F$2),2)," ")</f>
-        <v>22.31</v>
+        <v>14.92</v>
       </c>
       <c r="G64" s="6">
         <f>IF($W$2*52&gt;G$2*$B64,ROUND(NPER($B64,-$W$2*52,G$2),2)," ")</f>
-        <v>35.78</v>
-      </c>
-      <c r="H64" s="6" t="str">
+        <v>20.55</v>
+      </c>
+      <c r="H64" s="6">
         <f>IF($W$2*52&gt;H$2*$B64,ROUND(NPER($B64,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="I64" s="6" t="str">
+        <v>29.07</v>
+      </c>
+      <c r="I64" s="6">
         <f>IF($W$2*52&gt;I$2*$B64,ROUND(NPER($B64,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>47.09</v>
       </c>
       <c r="J64" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B64,ROUND(NPER($B64,-$W$2*52,J$2),2)," ")</f>
@@ -6563,31 +6551,31 @@
       </c>
       <c r="C65" s="6">
         <f>IF($W$2*52&gt;C$2*$B65,ROUND(NPER($B65,-$W$2*52,C$2),2)," ")</f>
-        <v>5.88</v>
+        <v>4.53</v>
       </c>
       <c r="D65" s="6">
         <f>IF($W$2*52&gt;D$2*$B65,ROUND(NPER($B65,-$W$2*52,D$2),2)," ")</f>
-        <v>9.85</v>
+        <v>7.36</v>
       </c>
       <c r="E65" s="6">
         <f>IF($W$2*52&gt;E$2*$B65,ROUND(NPER($B65,-$W$2*52,E$2),2)," ")</f>
-        <v>15.07</v>
+        <v>10.77</v>
       </c>
       <c r="F65" s="6">
         <f>IF($W$2*52&gt;F$2*$B65,ROUND(NPER($B65,-$W$2*52,F$2),2)," ")</f>
-        <v>22.73</v>
+        <v>15.07</v>
       </c>
       <c r="G65" s="6">
         <f>IF($W$2*52&gt;G$2*$B65,ROUND(NPER($B65,-$W$2*52,G$2),2)," ")</f>
-        <v>37.35</v>
-      </c>
-      <c r="H65" s="6" t="str">
+        <v>20.89</v>
+      </c>
+      <c r="H65" s="6">
         <f>IF($W$2*52&gt;H$2*$B65,ROUND(NPER($B65,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="I65" s="6" t="str">
+        <v>29.91</v>
+      </c>
+      <c r="I65" s="6">
         <f>IF($W$2*52&gt;I$2*$B65,ROUND(NPER($B65,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>51.13</v>
       </c>
       <c r="J65" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B65,ROUND(NPER($B65,-$W$2*52,J$2),2)," ")</f>
@@ -6646,31 +6634,31 @@
       </c>
       <c r="C66" s="6">
         <f>IF($W$2*52&gt;C$2*$B66,ROUND(NPER($B66,-$W$2*52,C$2),2)," ")</f>
-        <v>5.91</v>
+        <v>4.54</v>
       </c>
       <c r="D66" s="6">
         <f>IF($W$2*52&gt;D$2*$B66,ROUND(NPER($B66,-$W$2*52,D$2),2)," ")</f>
-        <v>9.91</v>
+        <v>7.39</v>
       </c>
       <c r="E66" s="6">
         <f>IF($W$2*52&gt;E$2*$B66,ROUND(NPER($B66,-$W$2*52,E$2),2)," ")</f>
-        <v>15.24</v>
+        <v>10.85</v>
       </c>
       <c r="F66" s="6">
         <f>IF($W$2*52&gt;F$2*$B66,ROUND(NPER($B66,-$W$2*52,F$2),2)," ")</f>
-        <v>23.17</v>
+        <v>15.24</v>
       </c>
       <c r="G66" s="6">
         <f>IF($W$2*52&gt;G$2*$B66,ROUND(NPER($B66,-$W$2*52,G$2),2)," ")</f>
-        <v>39.17</v>
-      </c>
-      <c r="H66" s="6" t="str">
+        <v>21.25</v>
+      </c>
+      <c r="H66" s="6">
         <f>IF($W$2*52&gt;H$2*$B66,ROUND(NPER($B66,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="I66" s="6" t="str">
+        <v>30.84</v>
+      </c>
+      <c r="I66" s="6">
         <f>IF($W$2*52&gt;I$2*$B66,ROUND(NPER($B66,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>56.98</v>
       </c>
       <c r="J66" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B66,ROUND(NPER($B66,-$W$2*52,J$2),2)," ")</f>
@@ -6729,31 +6717,31 @@
       </c>
       <c r="C67" s="6">
         <f>IF($W$2*52&gt;C$2*$B67,ROUND(NPER($B67,-$W$2*52,C$2),2)," ")</f>
-        <v>5.93</v>
+        <v>4.55</v>
       </c>
       <c r="D67" s="6">
         <f>IF($W$2*52&gt;D$2*$B67,ROUND(NPER($B67,-$W$2*52,D$2),2)," ")</f>
-        <v>9.98</v>
+        <v>7.43</v>
       </c>
       <c r="E67" s="6">
         <f>IF($W$2*52&gt;E$2*$B67,ROUND(NPER($B67,-$W$2*52,E$2),2)," ")</f>
-        <v>15.4</v>
+        <v>10.93</v>
       </c>
       <c r="F67" s="6">
         <f>IF($W$2*52&gt;F$2*$B67,ROUND(NPER($B67,-$W$2*52,F$2),2)," ")</f>
-        <v>23.64</v>
+        <v>15.4</v>
       </c>
       <c r="G67" s="6">
         <f>IF($W$2*52&gt;G$2*$B67,ROUND(NPER($B67,-$W$2*52,G$2),2)," ")</f>
-        <v>41.35</v>
-      </c>
-      <c r="H67" s="6" t="str">
+        <v>21.62</v>
+      </c>
+      <c r="H67" s="6">
         <f>IF($W$2*52&gt;H$2*$B67,ROUND(NPER($B67,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="I67" s="6" t="str">
+        <v>31.87</v>
+      </c>
+      <c r="I67" s="6">
         <f>IF($W$2*52&gt;I$2*$B67,ROUND(NPER($B67,-$W$2*52,I$2),2)," ")</f>
-        <v> </v>
+        <v>67.29</v>
       </c>
       <c r="J67" s="6" t="str">
         <f>IF($W$2*52&gt;J$2*$B67,ROUND(NPER($B67,-$W$2*52,J$2),2)," ")</f>
@@ -6812,27 +6800,27 @@
       </c>
       <c r="C68" s="6">
         <f>IF($W$2*52&gt;C$2*$B68,ROUND(NPER($B68,-$W$2*52,C$2),2)," ")</f>
-        <v>5.95</v>
+        <v>4.57</v>
       </c>
       <c r="D68" s="6">
         <f>IF($W$2*52&gt;D$2*$B68,ROUND(NPER($B68,-$W$2*52,D$2),2)," ")</f>
-        <v>10.04</v>
+        <v>7.46</v>
       </c>
       <c r="E68" s="6">
         <f>IF($W$2*52&gt;E$2*$B68,ROUND(NPER($B68,-$W$2*52,E$2),2)," ")</f>
-        <v>15.57</v>
+        <v>11.01</v>
       </c>
       <c r="F68" s="6">
         <f>IF($W$2*52&gt;F$2*$B68,ROUND(NPER($B68,-$W$2*52,F$2),2)," ")</f>
-        <v>24.13</v>
+        <v>15.57</v>
       </c>
       <c r="G68" s="6">
         <f>IF($W$2*52&gt;G$2*$B68,ROUND(NPER($B68,-$W$2*52,G$2),2)," ")</f>
-        <v>44.03</v>
-      </c>
-      <c r="H68" s="6" t="str">
+        <v>22.01</v>
+      </c>
+      <c r="H68" s="6">
         <f>IF($W$2*52&gt;H$2*$B68,ROUND(NPER($B68,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>33.02</v>
       </c>
       <c r="I68" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B68,ROUND(NPER($B68,-$W$2*52,I$2),2)," ")</f>
@@ -6895,27 +6883,27 @@
       </c>
       <c r="C69" s="6">
         <f>IF($W$2*52&gt;C$2*$B69,ROUND(NPER($B69,-$W$2*52,C$2),2)," ")</f>
-        <v>5.97</v>
+        <v>4.58</v>
       </c>
       <c r="D69" s="6">
         <f>IF($W$2*52&gt;D$2*$B69,ROUND(NPER($B69,-$W$2*52,D$2),2)," ")</f>
-        <v>10.11</v>
+        <v>7.5</v>
       </c>
       <c r="E69" s="6">
         <f>IF($W$2*52&gt;E$2*$B69,ROUND(NPER($B69,-$W$2*52,E$2),2)," ")</f>
-        <v>15.75</v>
+        <v>11.09</v>
       </c>
       <c r="F69" s="6">
         <f>IF($W$2*52&gt;F$2*$B69,ROUND(NPER($B69,-$W$2*52,F$2),2)," ")</f>
-        <v>24.66</v>
+        <v>15.75</v>
       </c>
       <c r="G69" s="6">
         <f>IF($W$2*52&gt;G$2*$B69,ROUND(NPER($B69,-$W$2*52,G$2),2)," ")</f>
-        <v>47.49</v>
-      </c>
-      <c r="H69" s="6" t="str">
+        <v>22.43</v>
+      </c>
+      <c r="H69" s="6">
         <f>IF($W$2*52&gt;H$2*$B69,ROUND(NPER($B69,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>34.32</v>
       </c>
       <c r="I69" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B69,ROUND(NPER($B69,-$W$2*52,I$2),2)," ")</f>
@@ -6978,27 +6966,27 @@
       </c>
       <c r="C70" s="6">
         <f>IF($W$2*52&gt;C$2*$B70,ROUND(NPER($B70,-$W$2*52,C$2),2)," ")</f>
-        <v>5.99</v>
+        <v>4.6</v>
       </c>
       <c r="D70" s="6">
         <f>IF($W$2*52&gt;D$2*$B70,ROUND(NPER($B70,-$W$2*52,D$2),2)," ")</f>
-        <v>10.18</v>
+        <v>7.53</v>
       </c>
       <c r="E70" s="6">
         <f>IF($W$2*52&gt;E$2*$B70,ROUND(NPER($B70,-$W$2*52,E$2),2)," ")</f>
-        <v>15.94</v>
+        <v>11.17</v>
       </c>
       <c r="F70" s="6">
         <f>IF($W$2*52&gt;F$2*$B70,ROUND(NPER($B70,-$W$2*52,F$2),2)," ")</f>
-        <v>25.23</v>
+        <v>15.94</v>
       </c>
       <c r="G70" s="6">
         <f>IF($W$2*52&gt;G$2*$B70,ROUND(NPER($B70,-$W$2*52,G$2),2)," ")</f>
-        <v>52.3</v>
-      </c>
-      <c r="H70" s="6" t="str">
+        <v>22.87</v>
+      </c>
+      <c r="H70" s="6">
         <f>IF($W$2*52&gt;H$2*$B70,ROUND(NPER($B70,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>35.81</v>
       </c>
       <c r="I70" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B70,ROUND(NPER($B70,-$W$2*52,I$2),2)," ")</f>
@@ -7061,27 +7049,27 @@
       </c>
       <c r="C71" s="6">
         <f>IF($W$2*52&gt;C$2*$B71,ROUND(NPER($B71,-$W$2*52,C$2),2)," ")</f>
-        <v>6.02</v>
+        <v>4.61</v>
       </c>
       <c r="D71" s="6">
         <f>IF($W$2*52&gt;D$2*$B71,ROUND(NPER($B71,-$W$2*52,D$2),2)," ")</f>
-        <v>10.25</v>
+        <v>7.57</v>
       </c>
       <c r="E71" s="6">
         <f>IF($W$2*52&gt;E$2*$B71,ROUND(NPER($B71,-$W$2*52,E$2),2)," ")</f>
-        <v>16.13</v>
+        <v>11.25</v>
       </c>
       <c r="F71" s="6">
         <f>IF($W$2*52&gt;F$2*$B71,ROUND(NPER($B71,-$W$2*52,F$2),2)," ")</f>
-        <v>25.84</v>
+        <v>16.13</v>
       </c>
       <c r="G71" s="6">
         <f>IF($W$2*52&gt;G$2*$B71,ROUND(NPER($B71,-$W$2*52,G$2),2)," ")</f>
-        <v>60.06</v>
-      </c>
-      <c r="H71" s="6" t="str">
+        <v>23.34</v>
+      </c>
+      <c r="H71" s="6">
         <f>IF($W$2*52&gt;H$2*$B71,ROUND(NPER($B71,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>37.54</v>
       </c>
       <c r="I71" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B71,ROUND(NPER($B71,-$W$2*52,I$2),2)," ")</f>
@@ -7144,27 +7132,27 @@
       </c>
       <c r="C72" s="6">
         <f>IF($W$2*52&gt;C$2*$B72,ROUND(NPER($B72,-$W$2*52,C$2),2)," ")</f>
-        <v>6.04</v>
+        <v>4.62</v>
       </c>
       <c r="D72" s="6">
         <f>IF($W$2*52&gt;D$2*$B72,ROUND(NPER($B72,-$W$2*52,D$2),2)," ")</f>
-        <v>10.32</v>
+        <v>7.61</v>
       </c>
       <c r="E72" s="6">
         <f>IF($W$2*52&gt;E$2*$B72,ROUND(NPER($B72,-$W$2*52,E$2),2)," ")</f>
-        <v>16.32</v>
+        <v>11.34</v>
       </c>
       <c r="F72" s="6">
         <f>IF($W$2*52&gt;F$2*$B72,ROUND(NPER($B72,-$W$2*52,F$2),2)," ")</f>
-        <v>26.5</v>
+        <v>16.32</v>
       </c>
       <c r="G72" s="6">
         <f>IF($W$2*52&gt;G$2*$B72,ROUND(NPER($B72,-$W$2*52,G$2),2)," ")</f>
-        <v>79.99</v>
-      </c>
-      <c r="H72" s="6" t="str">
+        <v>23.84</v>
+      </c>
+      <c r="H72" s="6">
         <f>IF($W$2*52&gt;H$2*$B72,ROUND(NPER($B72,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>39.61</v>
       </c>
       <c r="I72" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B72,ROUND(NPER($B72,-$W$2*52,I$2),2)," ")</f>
@@ -7227,27 +7215,27 @@
       </c>
       <c r="C73" s="6">
         <f>IF($W$2*52&gt;C$2*$B73,ROUND(NPER($B73,-$W$2*52,C$2),2)," ")</f>
-        <v>6.06</v>
+        <v>4.64</v>
       </c>
       <c r="D73" s="6">
         <f>IF($W$2*52&gt;D$2*$B73,ROUND(NPER($B73,-$W$2*52,D$2),2)," ")</f>
-        <v>10.39</v>
+        <v>7.65</v>
       </c>
       <c r="E73" s="6">
         <f>IF($W$2*52&gt;E$2*$B73,ROUND(NPER($B73,-$W$2*52,E$2),2)," ")</f>
-        <v>16.52</v>
+        <v>11.43</v>
       </c>
       <c r="F73" s="6">
         <f>IF($W$2*52&gt;F$2*$B73,ROUND(NPER($B73,-$W$2*52,F$2),2)," ")</f>
-        <v>27.21</v>
-      </c>
-      <c r="G73" s="6" t="str">
+        <v>16.52</v>
+      </c>
+      <c r="G73" s="6">
         <f>IF($W$2*52&gt;G$2*$B73,ROUND(NPER($B73,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="H73" s="6" t="str">
+        <v>24.37</v>
+      </c>
+      <c r="H73" s="6">
         <f>IF($W$2*52&gt;H$2*$B73,ROUND(NPER($B73,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>42.16</v>
       </c>
       <c r="I73" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B73,ROUND(NPER($B73,-$W$2*52,I$2),2)," ")</f>
@@ -7310,27 +7298,27 @@
       </c>
       <c r="C74" s="6">
         <f>IF($W$2*52&gt;C$2*$B74,ROUND(NPER($B74,-$W$2*52,C$2),2)," ")</f>
-        <v>6.09</v>
+        <v>4.65</v>
       </c>
       <c r="D74" s="6">
         <f>IF($W$2*52&gt;D$2*$B74,ROUND(NPER($B74,-$W$2*52,D$2),2)," ")</f>
-        <v>10.46</v>
+        <v>7.68</v>
       </c>
       <c r="E74" s="6">
         <f>IF($W$2*52&gt;E$2*$B74,ROUND(NPER($B74,-$W$2*52,E$2),2)," ")</f>
-        <v>16.73</v>
+        <v>11.52</v>
       </c>
       <c r="F74" s="6">
         <f>IF($W$2*52&gt;F$2*$B74,ROUND(NPER($B74,-$W$2*52,F$2),2)," ")</f>
-        <v>27.99</v>
-      </c>
-      <c r="G74" s="6" t="str">
+        <v>16.73</v>
+      </c>
+      <c r="G74" s="6">
         <f>IF($W$2*52&gt;G$2*$B74,ROUND(NPER($B74,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="H74" s="6" t="str">
+        <v>24.94</v>
+      </c>
+      <c r="H74" s="6">
         <f>IF($W$2*52&gt;H$2*$B74,ROUND(NPER($B74,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>45.46</v>
       </c>
       <c r="I74" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B74,ROUND(NPER($B74,-$W$2*52,I$2),2)," ")</f>
@@ -7393,27 +7381,27 @@
       </c>
       <c r="C75" s="6">
         <f>IF($W$2*52&gt;C$2*$B75,ROUND(NPER($B75,-$W$2*52,C$2),2)," ")</f>
-        <v>6.11</v>
+        <v>4.66</v>
       </c>
       <c r="D75" s="6">
         <f>IF($W$2*52&gt;D$2*$B75,ROUND(NPER($B75,-$W$2*52,D$2),2)," ")</f>
-        <v>10.53</v>
+        <v>7.72</v>
       </c>
       <c r="E75" s="6">
         <f>IF($W$2*52&gt;E$2*$B75,ROUND(NPER($B75,-$W$2*52,E$2),2)," ")</f>
-        <v>16.95</v>
+        <v>11.61</v>
       </c>
       <c r="F75" s="6">
         <f>IF($W$2*52&gt;F$2*$B75,ROUND(NPER($B75,-$W$2*52,F$2),2)," ")</f>
-        <v>28.84</v>
-      </c>
-      <c r="G75" s="6" t="str">
+        <v>16.95</v>
+      </c>
+      <c r="G75" s="6">
         <f>IF($W$2*52&gt;G$2*$B75,ROUND(NPER($B75,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="H75" s="6" t="str">
+        <v>25.55</v>
+      </c>
+      <c r="H75" s="6">
         <f>IF($W$2*52&gt;H$2*$B75,ROUND(NPER($B75,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>50.07</v>
       </c>
       <c r="I75" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B75,ROUND(NPER($B75,-$W$2*52,I$2),2)," ")</f>
@@ -7476,27 +7464,27 @@
       </c>
       <c r="C76" s="6">
         <f>IF($W$2*52&gt;C$2*$B76,ROUND(NPER($B76,-$W$2*52,C$2),2)," ")</f>
-        <v>6.14</v>
+        <v>4.68</v>
       </c>
       <c r="D76" s="6">
         <f>IF($W$2*52&gt;D$2*$B76,ROUND(NPER($B76,-$W$2*52,D$2),2)," ")</f>
-        <v>10.61</v>
+        <v>7.76</v>
       </c>
       <c r="E76" s="6">
         <f>IF($W$2*52&gt;E$2*$B76,ROUND(NPER($B76,-$W$2*52,E$2),2)," ")</f>
-        <v>17.18</v>
+        <v>11.7</v>
       </c>
       <c r="F76" s="6">
         <f>IF($W$2*52&gt;F$2*$B76,ROUND(NPER($B76,-$W$2*52,F$2),2)," ")</f>
-        <v>29.79</v>
-      </c>
-      <c r="G76" s="6" t="str">
+        <v>17.18</v>
+      </c>
+      <c r="G76" s="6">
         <f>IF($W$2*52&gt;G$2*$B76,ROUND(NPER($B76,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="H76" s="6" t="str">
+        <v>26.22</v>
+      </c>
+      <c r="H76" s="6">
         <f>IF($W$2*52&gt;H$2*$B76,ROUND(NPER($B76,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>57.57</v>
       </c>
       <c r="I76" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B76,ROUND(NPER($B76,-$W$2*52,I$2),2)," ")</f>
@@ -7559,27 +7547,27 @@
       </c>
       <c r="C77" s="6">
         <f>IF($W$2*52&gt;C$2*$B77,ROUND(NPER($B77,-$W$2*52,C$2),2)," ")</f>
-        <v>6.16</v>
+        <v>4.69</v>
       </c>
       <c r="D77" s="6">
         <f>IF($W$2*52&gt;D$2*$B77,ROUND(NPER($B77,-$W$2*52,D$2),2)," ")</f>
-        <v>10.69</v>
+        <v>7.8</v>
       </c>
       <c r="E77" s="6">
         <f>IF($W$2*52&gt;E$2*$B77,ROUND(NPER($B77,-$W$2*52,E$2),2)," ")</f>
-        <v>17.41</v>
+        <v>11.8</v>
       </c>
       <c r="F77" s="6">
         <f>IF($W$2*52&gt;F$2*$B77,ROUND(NPER($B77,-$W$2*52,F$2),2)," ")</f>
-        <v>30.85</v>
-      </c>
-      <c r="G77" s="6" t="str">
+        <v>17.41</v>
+      </c>
+      <c r="G77" s="6">
         <f>IF($W$2*52&gt;G$2*$B77,ROUND(NPER($B77,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="H77" s="6" t="str">
+        <v>26.94</v>
+      </c>
+      <c r="H77" s="6">
         <f>IF($W$2*52&gt;H$2*$B77,ROUND(NPER($B77,-$W$2*52,H$2),2)," ")</f>
-        <v> </v>
+        <v>77.89</v>
       </c>
       <c r="I77" s="6" t="str">
         <f>IF($W$2*52&gt;I$2*$B77,ROUND(NPER($B77,-$W$2*52,I$2),2)," ")</f>
@@ -7642,23 +7630,23 @@
       </c>
       <c r="C78" s="6">
         <f>IF($W$2*52&gt;C$2*$B78,ROUND(NPER($B78,-$W$2*52,C$2),2)," ")</f>
-        <v>6.18</v>
+        <v>4.71</v>
       </c>
       <c r="D78" s="6">
         <f>IF($W$2*52&gt;D$2*$B78,ROUND(NPER($B78,-$W$2*52,D$2),2)," ")</f>
-        <v>10.76</v>
+        <v>7.84</v>
       </c>
       <c r="E78" s="6">
         <f>IF($W$2*52&gt;E$2*$B78,ROUND(NPER($B78,-$W$2*52,E$2),2)," ")</f>
-        <v>17.66</v>
+        <v>11.89</v>
       </c>
       <c r="F78" s="6">
         <f>IF($W$2*52&gt;F$2*$B78,ROUND(NPER($B78,-$W$2*52,F$2),2)," ")</f>
-        <v>32.04</v>
-      </c>
-      <c r="G78" s="6" t="str">
+        <v>17.66</v>
+      </c>
+      <c r="G78" s="6">
         <f>IF($W$2*52&gt;G$2*$B78,ROUND(NPER($B78,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>27.73</v>
       </c>
       <c r="H78" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B78,ROUND(NPER($B78,-$W$2*52,H$2),2)," ")</f>
@@ -7725,23 +7713,23 @@
       </c>
       <c r="C79" s="6">
         <f>IF($W$2*52&gt;C$2*$B79,ROUND(NPER($B79,-$W$2*52,C$2),2)," ")</f>
-        <v>6.21</v>
+        <v>4.72</v>
       </c>
       <c r="D79" s="6">
         <f>IF($W$2*52&gt;D$2*$B79,ROUND(NPER($B79,-$W$2*52,D$2),2)," ")</f>
-        <v>10.84</v>
+        <v>7.88</v>
       </c>
       <c r="E79" s="6">
         <f>IF($W$2*52&gt;E$2*$B79,ROUND(NPER($B79,-$W$2*52,E$2),2)," ")</f>
-        <v>17.91</v>
+        <v>11.99</v>
       </c>
       <c r="F79" s="6">
         <f>IF($W$2*52&gt;F$2*$B79,ROUND(NPER($B79,-$W$2*52,F$2),2)," ")</f>
-        <v>33.41</v>
-      </c>
-      <c r="G79" s="6" t="str">
+        <v>17.91</v>
+      </c>
+      <c r="G79" s="6">
         <f>IF($W$2*52&gt;G$2*$B79,ROUND(NPER($B79,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>28.6</v>
       </c>
       <c r="H79" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B79,ROUND(NPER($B79,-$W$2*52,H$2),2)," ")</f>
@@ -7808,23 +7796,23 @@
       </c>
       <c r="C80" s="6">
         <f>IF($W$2*52&gt;C$2*$B80,ROUND(NPER($B80,-$W$2*52,C$2),2)," ")</f>
-        <v>6.23</v>
+        <v>4.73</v>
       </c>
       <c r="D80" s="6">
         <f>IF($W$2*52&gt;D$2*$B80,ROUND(NPER($B80,-$W$2*52,D$2),2)," ")</f>
-        <v>10.92</v>
+        <v>7.92</v>
       </c>
       <c r="E80" s="6">
         <f>IF($W$2*52&gt;E$2*$B80,ROUND(NPER($B80,-$W$2*52,E$2),2)," ")</f>
-        <v>18.18</v>
+        <v>12.1</v>
       </c>
       <c r="F80" s="6">
         <f>IF($W$2*52&gt;F$2*$B80,ROUND(NPER($B80,-$W$2*52,F$2),2)," ")</f>
-        <v>35.01</v>
-      </c>
-      <c r="G80" s="6" t="str">
+        <v>18.18</v>
+      </c>
+      <c r="G80" s="6">
         <f>IF($W$2*52&gt;G$2*$B80,ROUND(NPER($B80,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>29.57</v>
       </c>
       <c r="H80" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B80,ROUND(NPER($B80,-$W$2*52,H$2),2)," ")</f>
@@ -7891,23 +7879,23 @@
       </c>
       <c r="C81" s="6">
         <f>IF($W$2*52&gt;C$2*$B81,ROUND(NPER($B81,-$W$2*52,C$2),2)," ")</f>
-        <v>6.26</v>
+        <v>4.75</v>
       </c>
       <c r="D81" s="6">
         <f>IF($W$2*52&gt;D$2*$B81,ROUND(NPER($B81,-$W$2*52,D$2),2)," ")</f>
-        <v>11.01</v>
+        <v>7.96</v>
       </c>
       <c r="E81" s="6">
         <f>IF($W$2*52&gt;E$2*$B81,ROUND(NPER($B81,-$W$2*52,E$2),2)," ")</f>
-        <v>18.46</v>
+        <v>12.2</v>
       </c>
       <c r="F81" s="6">
         <f>IF($W$2*52&gt;F$2*$B81,ROUND(NPER($B81,-$W$2*52,F$2),2)," ")</f>
-        <v>36.91</v>
-      </c>
-      <c r="G81" s="6" t="str">
+        <v>18.46</v>
+      </c>
+      <c r="G81" s="6">
         <f>IF($W$2*52&gt;G$2*$B81,ROUND(NPER($B81,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>30.66</v>
       </c>
       <c r="H81" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B81,ROUND(NPER($B81,-$W$2*52,H$2),2)," ")</f>
@@ -7974,23 +7962,23 @@
       </c>
       <c r="C82" s="6">
         <f>IF($W$2*52&gt;C$2*$B82,ROUND(NPER($B82,-$W$2*52,C$2),2)," ")</f>
-        <v>6.28</v>
+        <v>4.76</v>
       </c>
       <c r="D82" s="6">
         <f>IF($W$2*52&gt;D$2*$B82,ROUND(NPER($B82,-$W$2*52,D$2),2)," ")</f>
-        <v>11.09</v>
+        <v>8</v>
       </c>
       <c r="E82" s="6">
         <f>IF($W$2*52&gt;E$2*$B82,ROUND(NPER($B82,-$W$2*52,E$2),2)," ")</f>
-        <v>18.75</v>
+        <v>12.31</v>
       </c>
       <c r="F82" s="6">
         <f>IF($W$2*52&gt;F$2*$B82,ROUND(NPER($B82,-$W$2*52,F$2),2)," ")</f>
-        <v>39.27</v>
-      </c>
-      <c r="G82" s="6" t="str">
+        <v>18.75</v>
+      </c>
+      <c r="G82" s="6">
         <f>IF($W$2*52&gt;G$2*$B82,ROUND(NPER($B82,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>31.9</v>
       </c>
       <c r="H82" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B82,ROUND(NPER($B82,-$W$2*52,H$2),2)," ")</f>
@@ -8057,23 +8045,23 @@
       </c>
       <c r="C83" s="6">
         <f>IF($W$2*52&gt;C$2*$B83,ROUND(NPER($B83,-$W$2*52,C$2),2)," ")</f>
-        <v>6.31</v>
+        <v>4.78</v>
       </c>
       <c r="D83" s="6">
         <f>IF($W$2*52&gt;D$2*$B83,ROUND(NPER($B83,-$W$2*52,D$2),2)," ")</f>
-        <v>11.18</v>
+        <v>8.04</v>
       </c>
       <c r="E83" s="6">
         <f>IF($W$2*52&gt;E$2*$B83,ROUND(NPER($B83,-$W$2*52,E$2),2)," ")</f>
-        <v>19.05</v>
+        <v>12.42</v>
       </c>
       <c r="F83" s="6">
         <f>IF($W$2*52&gt;F$2*$B83,ROUND(NPER($B83,-$W$2*52,F$2),2)," ")</f>
-        <v>42.33</v>
-      </c>
-      <c r="G83" s="6" t="str">
+        <v>19.05</v>
+      </c>
+      <c r="G83" s="6">
         <f>IF($W$2*52&gt;G$2*$B83,ROUND(NPER($B83,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>33.33</v>
       </c>
       <c r="H83" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B83,ROUND(NPER($B83,-$W$2*52,H$2),2)," ")</f>
@@ -8140,23 +8128,23 @@
       </c>
       <c r="C84" s="6">
         <f>IF($W$2*52&gt;C$2*$B84,ROUND(NPER($B84,-$W$2*52,C$2),2)," ")</f>
-        <v>6.33</v>
+        <v>4.79</v>
       </c>
       <c r="D84" s="6">
         <f>IF($W$2*52&gt;D$2*$B84,ROUND(NPER($B84,-$W$2*52,D$2),2)," ")</f>
-        <v>11.27</v>
+        <v>8.09</v>
       </c>
       <c r="E84" s="6">
         <f>IF($W$2*52&gt;E$2*$B84,ROUND(NPER($B84,-$W$2*52,E$2),2)," ")</f>
-        <v>19.37</v>
+        <v>12.53</v>
       </c>
       <c r="F84" s="6">
         <f>IF($W$2*52&gt;F$2*$B84,ROUND(NPER($B84,-$W$2*52,F$2),2)," ")</f>
-        <v>46.64</v>
-      </c>
-      <c r="G84" s="6" t="str">
+        <v>19.37</v>
+      </c>
+      <c r="G84" s="6">
         <f>IF($W$2*52&gt;G$2*$B84,ROUND(NPER($B84,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>35.02</v>
       </c>
       <c r="H84" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B84,ROUND(NPER($B84,-$W$2*52,H$2),2)," ")</f>
@@ -8223,23 +8211,23 @@
       </c>
       <c r="C85" s="6">
         <f>IF($W$2*52&gt;C$2*$B85,ROUND(NPER($B85,-$W$2*52,C$2),2)," ")</f>
-        <v>6.36</v>
+        <v>4.81</v>
       </c>
       <c r="D85" s="6">
         <f>IF($W$2*52&gt;D$2*$B85,ROUND(NPER($B85,-$W$2*52,D$2),2)," ")</f>
-        <v>11.35</v>
+        <v>8.13</v>
       </c>
       <c r="E85" s="6">
         <f>IF($W$2*52&gt;E$2*$B85,ROUND(NPER($B85,-$W$2*52,E$2),2)," ")</f>
-        <v>19.71</v>
+        <v>12.64</v>
       </c>
       <c r="F85" s="6">
         <f>IF($W$2*52&gt;F$2*$B85,ROUND(NPER($B85,-$W$2*52,F$2),2)," ")</f>
-        <v>53.79</v>
-      </c>
-      <c r="G85" s="6" t="str">
+        <v>19.71</v>
+      </c>
+      <c r="G85" s="6">
         <f>IF($W$2*52&gt;G$2*$B85,ROUND(NPER($B85,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>37.07</v>
       </c>
       <c r="H85" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B85,ROUND(NPER($B85,-$W$2*52,H$2),2)," ")</f>
@@ -8306,23 +8294,23 @@
       </c>
       <c r="C86" s="6">
         <f>IF($W$2*52&gt;C$2*$B86,ROUND(NPER($B86,-$W$2*52,C$2),2)," ")</f>
-        <v>6.39</v>
+        <v>4.82</v>
       </c>
       <c r="D86" s="6">
         <f>IF($W$2*52&gt;D$2*$B86,ROUND(NPER($B86,-$W$2*52,D$2),2)," ")</f>
-        <v>11.45</v>
+        <v>8.17</v>
       </c>
       <c r="E86" s="6">
         <f>IF($W$2*52&gt;E$2*$B86,ROUND(NPER($B86,-$W$2*52,E$2),2)," ")</f>
-        <v>20.06</v>
+        <v>12.76</v>
       </c>
       <c r="F86" s="6">
         <f>IF($W$2*52&gt;F$2*$B86,ROUND(NPER($B86,-$W$2*52,F$2),2)," ")</f>
-        <v>75.63</v>
-      </c>
-      <c r="G86" s="6" t="str">
+        <v>20.06</v>
+      </c>
+      <c r="G86" s="6">
         <f>IF($W$2*52&gt;G$2*$B86,ROUND(NPER($B86,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>39.67</v>
       </c>
       <c r="H86" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B86,ROUND(NPER($B86,-$W$2*52,H$2),2)," ")</f>
@@ -8389,23 +8377,23 @@
       </c>
       <c r="C87" s="6">
         <f>IF($W$2*52&gt;C$2*$B87,ROUND(NPER($B87,-$W$2*52,C$2),2)," ")</f>
-        <v>6.41</v>
+        <v>4.84</v>
       </c>
       <c r="D87" s="6">
         <f>IF($W$2*52&gt;D$2*$B87,ROUND(NPER($B87,-$W$2*52,D$2),2)," ")</f>
-        <v>11.54</v>
+        <v>8.22</v>
       </c>
       <c r="E87" s="6">
         <f>IF($W$2*52&gt;E$2*$B87,ROUND(NPER($B87,-$W$2*52,E$2),2)," ")</f>
+        <v>12.88</v>
+      </c>
+      <c r="F87" s="6">
+        <f>IF($W$2*52&gt;F$2*$B87,ROUND(NPER($B87,-$W$2*52,F$2),2)," ")</f>
         <v>20.44</v>
       </c>
-      <c r="F87" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B87,ROUND(NPER($B87,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="G87" s="6" t="str">
+      <c r="G87" s="6">
         <f>IF($W$2*52&gt;G$2*$B87,ROUND(NPER($B87,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>43.16</v>
       </c>
       <c r="H87" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B87,ROUND(NPER($B87,-$W$2*52,H$2),2)," ")</f>
@@ -8472,23 +8460,23 @@
       </c>
       <c r="C88" s="6">
         <f>IF($W$2*52&gt;C$2*$B88,ROUND(NPER($B88,-$W$2*52,C$2),2)," ")</f>
-        <v>6.44</v>
+        <v>4.85</v>
       </c>
       <c r="D88" s="6">
         <f>IF($W$2*52&gt;D$2*$B88,ROUND(NPER($B88,-$W$2*52,D$2),2)," ")</f>
-        <v>11.64</v>
+        <v>8.26</v>
       </c>
       <c r="E88" s="6">
         <f>IF($W$2*52&gt;E$2*$B88,ROUND(NPER($B88,-$W$2*52,E$2),2)," ")</f>
+        <v>13</v>
+      </c>
+      <c r="F88" s="6">
+        <f>IF($W$2*52&gt;F$2*$B88,ROUND(NPER($B88,-$W$2*52,F$2),2)," ")</f>
         <v>20.84</v>
       </c>
-      <c r="F88" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B88,ROUND(NPER($B88,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="G88" s="6" t="str">
+      <c r="G88" s="6">
         <f>IF($W$2*52&gt;G$2*$B88,ROUND(NPER($B88,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>48.43</v>
       </c>
       <c r="H88" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B88,ROUND(NPER($B88,-$W$2*52,H$2),2)," ")</f>
@@ -8555,23 +8543,23 @@
       </c>
       <c r="C89" s="6">
         <f>IF($W$2*52&gt;C$2*$B89,ROUND(NPER($B89,-$W$2*52,C$2),2)," ")</f>
-        <v>6.47</v>
+        <v>4.87</v>
       </c>
       <c r="D89" s="6">
         <f>IF($W$2*52&gt;D$2*$B89,ROUND(NPER($B89,-$W$2*52,D$2),2)," ")</f>
-        <v>11.73</v>
+        <v>8.31</v>
       </c>
       <c r="E89" s="6">
         <f>IF($W$2*52&gt;E$2*$B89,ROUND(NPER($B89,-$W$2*52,E$2),2)," ")</f>
+        <v>13.13</v>
+      </c>
+      <c r="F89" s="6">
+        <f>IF($W$2*52&gt;F$2*$B89,ROUND(NPER($B89,-$W$2*52,F$2),2)," ")</f>
         <v>21.26</v>
       </c>
-      <c r="F89" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B89,ROUND(NPER($B89,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
-      </c>
-      <c r="G89" s="6" t="str">
+      <c r="G89" s="6">
         <f>IF($W$2*52&gt;G$2*$B89,ROUND(NPER($B89,-$W$2*52,G$2),2)," ")</f>
-        <v> </v>
+        <v>59</v>
       </c>
       <c r="H89" s="6" t="str">
         <f>IF($W$2*52&gt;H$2*$B89,ROUND(NPER($B89,-$W$2*52,H$2),2)," ")</f>
@@ -8638,19 +8626,19 @@
       </c>
       <c r="C90" s="6">
         <f>IF($W$2*52&gt;C$2*$B90,ROUND(NPER($B90,-$W$2*52,C$2),2)," ")</f>
-        <v>6.49</v>
+        <v>4.88</v>
       </c>
       <c r="D90" s="6">
         <f>IF($W$2*52&gt;D$2*$B90,ROUND(NPER($B90,-$W$2*52,D$2),2)," ")</f>
-        <v>11.83</v>
+        <v>8.36</v>
       </c>
       <c r="E90" s="6">
         <f>IF($W$2*52&gt;E$2*$B90,ROUND(NPER($B90,-$W$2*52,E$2),2)," ")</f>
+        <v>13.26</v>
+      </c>
+      <c r="F90" s="6">
+        <f>IF($W$2*52&gt;F$2*$B90,ROUND(NPER($B90,-$W$2*52,F$2),2)," ")</f>
         <v>21.71</v>
-      </c>
-      <c r="F90" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B90,ROUND(NPER($B90,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G90" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B90,ROUND(NPER($B90,-$W$2*52,G$2),2)," ")</f>
@@ -8721,19 +8709,19 @@
       </c>
       <c r="C91" s="6">
         <f>IF($W$2*52&gt;C$2*$B91,ROUND(NPER($B91,-$W$2*52,C$2),2)," ")</f>
-        <v>6.52</v>
+        <v>4.9</v>
       </c>
       <c r="D91" s="6">
         <f>IF($W$2*52&gt;D$2*$B91,ROUND(NPER($B91,-$W$2*52,D$2),2)," ")</f>
-        <v>11.94</v>
+        <v>8.4</v>
       </c>
       <c r="E91" s="6">
         <f>IF($W$2*52&gt;E$2*$B91,ROUND(NPER($B91,-$W$2*52,E$2),2)," ")</f>
+        <v>13.4</v>
+      </c>
+      <c r="F91" s="6">
+        <f>IF($W$2*52&gt;F$2*$B91,ROUND(NPER($B91,-$W$2*52,F$2),2)," ")</f>
         <v>22.19</v>
-      </c>
-      <c r="F91" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B91,ROUND(NPER($B91,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G91" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B91,ROUND(NPER($B91,-$W$2*52,G$2),2)," ")</f>
@@ -8804,19 +8792,19 @@
       </c>
       <c r="C92" s="6">
         <f>IF($W$2*52&gt;C$2*$B92,ROUND(NPER($B92,-$W$2*52,C$2),2)," ")</f>
-        <v>6.55</v>
+        <v>4.91</v>
       </c>
       <c r="D92" s="6">
         <f>IF($W$2*52&gt;D$2*$B92,ROUND(NPER($B92,-$W$2*52,D$2),2)," ")</f>
-        <v>12.04</v>
+        <v>8.45</v>
       </c>
       <c r="E92" s="6">
         <f>IF($W$2*52&gt;E$2*$B92,ROUND(NPER($B92,-$W$2*52,E$2),2)," ")</f>
+        <v>13.53</v>
+      </c>
+      <c r="F92" s="6">
+        <f>IF($W$2*52&gt;F$2*$B92,ROUND(NPER($B92,-$W$2*52,F$2),2)," ")</f>
         <v>22.71</v>
-      </c>
-      <c r="F92" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B92,ROUND(NPER($B92,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G92" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B92,ROUND(NPER($B92,-$W$2*52,G$2),2)," ")</f>
@@ -8887,19 +8875,19 @@
       </c>
       <c r="C93" s="6">
         <f>IF($W$2*52&gt;C$2*$B93,ROUND(NPER($B93,-$W$2*52,C$2),2)," ")</f>
-        <v>6.58</v>
+        <v>4.93</v>
       </c>
       <c r="D93" s="6">
         <f>IF($W$2*52&gt;D$2*$B93,ROUND(NPER($B93,-$W$2*52,D$2),2)," ")</f>
-        <v>12.15</v>
+        <v>8.5</v>
       </c>
       <c r="E93" s="6">
         <f>IF($W$2*52&gt;E$2*$B93,ROUND(NPER($B93,-$W$2*52,E$2),2)," ")</f>
+        <v>13.68</v>
+      </c>
+      <c r="F93" s="6">
+        <f>IF($W$2*52&gt;F$2*$B93,ROUND(NPER($B93,-$W$2*52,F$2),2)," ")</f>
         <v>23.27</v>
-      </c>
-      <c r="F93" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B93,ROUND(NPER($B93,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G93" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B93,ROUND(NPER($B93,-$W$2*52,G$2),2)," ")</f>
@@ -8970,19 +8958,19 @@
       </c>
       <c r="C94" s="6">
         <f>IF($W$2*52&gt;C$2*$B94,ROUND(NPER($B94,-$W$2*52,C$2),2)," ")</f>
-        <v>6.61</v>
+        <v>4.95</v>
       </c>
       <c r="D94" s="6">
         <f>IF($W$2*52&gt;D$2*$B94,ROUND(NPER($B94,-$W$2*52,D$2),2)," ")</f>
-        <v>12.26</v>
+        <v>8.55</v>
       </c>
       <c r="E94" s="6">
         <f>IF($W$2*52&gt;E$2*$B94,ROUND(NPER($B94,-$W$2*52,E$2),2)," ")</f>
+        <v>13.82</v>
+      </c>
+      <c r="F94" s="6">
+        <f>IF($W$2*52&gt;F$2*$B94,ROUND(NPER($B94,-$W$2*52,F$2),2)," ")</f>
         <v>23.88</v>
-      </c>
-      <c r="F94" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B94,ROUND(NPER($B94,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G94" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B94,ROUND(NPER($B94,-$W$2*52,G$2),2)," ")</f>
@@ -9053,19 +9041,19 @@
       </c>
       <c r="C95" s="6">
         <f>IF($W$2*52&gt;C$2*$B95,ROUND(NPER($B95,-$W$2*52,C$2),2)," ")</f>
-        <v>6.63</v>
+        <v>4.96</v>
       </c>
       <c r="D95" s="6">
         <f>IF($W$2*52&gt;D$2*$B95,ROUND(NPER($B95,-$W$2*52,D$2),2)," ")</f>
-        <v>12.37</v>
+        <v>8.6</v>
       </c>
       <c r="E95" s="6">
         <f>IF($W$2*52&gt;E$2*$B95,ROUND(NPER($B95,-$W$2*52,E$2),2)," ")</f>
+        <v>13.97</v>
+      </c>
+      <c r="F95" s="6">
+        <f>IF($W$2*52&gt;F$2*$B95,ROUND(NPER($B95,-$W$2*52,F$2),2)," ")</f>
         <v>24.54</v>
-      </c>
-      <c r="F95" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B95,ROUND(NPER($B95,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G95" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B95,ROUND(NPER($B95,-$W$2*52,G$2),2)," ")</f>
@@ -9136,19 +9124,19 @@
       </c>
       <c r="C96" s="6">
         <f>IF($W$2*52&gt;C$2*$B96,ROUND(NPER($B96,-$W$2*52,C$2),2)," ")</f>
-        <v>6.66</v>
+        <v>4.98</v>
       </c>
       <c r="D96" s="6">
         <f>IF($W$2*52&gt;D$2*$B96,ROUND(NPER($B96,-$W$2*52,D$2),2)," ")</f>
-        <v>12.49</v>
+        <v>8.65</v>
       </c>
       <c r="E96" s="6">
         <f>IF($W$2*52&gt;E$2*$B96,ROUND(NPER($B96,-$W$2*52,E$2),2)," ")</f>
+        <v>14.13</v>
+      </c>
+      <c r="F96" s="6">
+        <f>IF($W$2*52&gt;F$2*$B96,ROUND(NPER($B96,-$W$2*52,F$2),2)," ")</f>
         <v>25.26</v>
-      </c>
-      <c r="F96" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B96,ROUND(NPER($B96,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G96" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B96,ROUND(NPER($B96,-$W$2*52,G$2),2)," ")</f>
@@ -9219,19 +9207,19 @@
       </c>
       <c r="C97" s="6">
         <f>IF($W$2*52&gt;C$2*$B97,ROUND(NPER($B97,-$W$2*52,C$2),2)," ")</f>
-        <v>6.69</v>
+        <v>4.99</v>
       </c>
       <c r="D97" s="6">
         <f>IF($W$2*52&gt;D$2*$B97,ROUND(NPER($B97,-$W$2*52,D$2),2)," ")</f>
-        <v>12.61</v>
+        <v>8.7</v>
       </c>
       <c r="E97" s="6">
         <f>IF($W$2*52&gt;E$2*$B97,ROUND(NPER($B97,-$W$2*52,E$2),2)," ")</f>
+        <v>14.29</v>
+      </c>
+      <c r="F97" s="6">
+        <f>IF($W$2*52&gt;F$2*$B97,ROUND(NPER($B97,-$W$2*52,F$2),2)," ")</f>
         <v>26.07</v>
-      </c>
-      <c r="F97" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B97,ROUND(NPER($B97,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G97" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B97,ROUND(NPER($B97,-$W$2*52,G$2),2)," ")</f>
@@ -9302,19 +9290,19 @@
       </c>
       <c r="C98" s="6">
         <f>IF($W$2*52&gt;C$2*$B98,ROUND(NPER($B98,-$W$2*52,C$2),2)," ")</f>
-        <v>6.72</v>
+        <v>5.01</v>
       </c>
       <c r="D98" s="6">
         <f>IF($W$2*52&gt;D$2*$B98,ROUND(NPER($B98,-$W$2*52,D$2),2)," ")</f>
-        <v>12.73</v>
+        <v>8.75</v>
       </c>
       <c r="E98" s="6">
         <f>IF($W$2*52&gt;E$2*$B98,ROUND(NPER($B98,-$W$2*52,E$2),2)," ")</f>
+        <v>14.46</v>
+      </c>
+      <c r="F98" s="6">
+        <f>IF($W$2*52&gt;F$2*$B98,ROUND(NPER($B98,-$W$2*52,F$2),2)," ")</f>
         <v>26.96</v>
-      </c>
-      <c r="F98" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B98,ROUND(NPER($B98,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G98" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B98,ROUND(NPER($B98,-$W$2*52,G$2),2)," ")</f>
@@ -9385,19 +9373,19 @@
       </c>
       <c r="C99" s="6">
         <f>IF($W$2*52&gt;C$2*$B99,ROUND(NPER($B99,-$W$2*52,C$2),2)," ")</f>
-        <v>6.75</v>
+        <v>5.03</v>
       </c>
       <c r="D99" s="6">
         <f>IF($W$2*52&gt;D$2*$B99,ROUND(NPER($B99,-$W$2*52,D$2),2)," ")</f>
-        <v>12.86</v>
+        <v>8.8</v>
       </c>
       <c r="E99" s="6">
         <f>IF($W$2*52&gt;E$2*$B99,ROUND(NPER($B99,-$W$2*52,E$2),2)," ")</f>
+        <v>14.63</v>
+      </c>
+      <c r="F99" s="6">
+        <f>IF($W$2*52&gt;F$2*$B99,ROUND(NPER($B99,-$W$2*52,F$2),2)," ")</f>
         <v>27.98</v>
-      </c>
-      <c r="F99" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B99,ROUND(NPER($B99,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G99" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B99,ROUND(NPER($B99,-$W$2*52,G$2),2)," ")</f>
@@ -9468,19 +9456,19 @@
       </c>
       <c r="C100" s="6">
         <f>IF($W$2*52&gt;C$2*$B100,ROUND(NPER($B100,-$W$2*52,C$2),2)," ")</f>
-        <v>6.78</v>
+        <v>5.04</v>
       </c>
       <c r="D100" s="6">
         <f>IF($W$2*52&gt;D$2*$B100,ROUND(NPER($B100,-$W$2*52,D$2),2)," ")</f>
-        <v>12.99</v>
+        <v>8.86</v>
       </c>
       <c r="E100" s="6">
         <f>IF($W$2*52&gt;E$2*$B100,ROUND(NPER($B100,-$W$2*52,E$2),2)," ")</f>
+        <v>14.81</v>
+      </c>
+      <c r="F100" s="6">
+        <f>IF($W$2*52&gt;F$2*$B100,ROUND(NPER($B100,-$W$2*52,F$2),2)," ")</f>
         <v>29.15</v>
-      </c>
-      <c r="F100" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B100,ROUND(NPER($B100,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G100" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B100,ROUND(NPER($B100,-$W$2*52,G$2),2)," ")</f>
@@ -9551,19 +9539,19 @@
       </c>
       <c r="C101" s="6">
         <f>IF($W$2*52&gt;C$2*$B101,ROUND(NPER($B101,-$W$2*52,C$2),2)," ")</f>
-        <v>6.81</v>
+        <v>5.06</v>
       </c>
       <c r="D101" s="6">
         <f>IF($W$2*52&gt;D$2*$B101,ROUND(NPER($B101,-$W$2*52,D$2),2)," ")</f>
-        <v>13.12</v>
+        <v>8.91</v>
       </c>
       <c r="E101" s="6">
         <f>IF($W$2*52&gt;E$2*$B101,ROUND(NPER($B101,-$W$2*52,E$2),2)," ")</f>
+        <v>14.99</v>
+      </c>
+      <c r="F101" s="6">
+        <f>IF($W$2*52&gt;F$2*$B101,ROUND(NPER($B101,-$W$2*52,F$2),2)," ")</f>
         <v>30.51</v>
-      </c>
-      <c r="F101" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B101,ROUND(NPER($B101,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G101" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B101,ROUND(NPER($B101,-$W$2*52,G$2),2)," ")</f>
@@ -9634,19 +9622,19 @@
       </c>
       <c r="C102" s="6">
         <f>IF($W$2*52&gt;C$2*$B102,ROUND(NPER($B102,-$W$2*52,C$2),2)," ")</f>
-        <v>6.85</v>
+        <v>5.08</v>
       </c>
       <c r="D102" s="6">
         <f>IF($W$2*52&gt;D$2*$B102,ROUND(NPER($B102,-$W$2*52,D$2),2)," ")</f>
-        <v>13.26</v>
+        <v>8.97</v>
       </c>
       <c r="E102" s="6">
         <f>IF($W$2*52&gt;E$2*$B102,ROUND(NPER($B102,-$W$2*52,E$2),2)," ")</f>
+        <v>15.19</v>
+      </c>
+      <c r="F102" s="6">
+        <f>IF($W$2*52&gt;F$2*$B102,ROUND(NPER($B102,-$W$2*52,F$2),2)," ")</f>
         <v>32.15</v>
-      </c>
-      <c r="F102" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B102,ROUND(NPER($B102,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G102" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B102,ROUND(NPER($B102,-$W$2*52,G$2),2)," ")</f>
@@ -9717,19 +9705,19 @@
       </c>
       <c r="C103" s="6">
         <f>IF($W$2*52&gt;C$2*$B103,ROUND(NPER($B103,-$W$2*52,C$2),2)," ")</f>
-        <v>6.88</v>
+        <v>5.09</v>
       </c>
       <c r="D103" s="6">
         <f>IF($W$2*52&gt;D$2*$B103,ROUND(NPER($B103,-$W$2*52,D$2),2)," ")</f>
-        <v>13.4</v>
+        <v>9.03</v>
       </c>
       <c r="E103" s="6">
         <f>IF($W$2*52&gt;E$2*$B103,ROUND(NPER($B103,-$W$2*52,E$2),2)," ")</f>
+        <v>15.38</v>
+      </c>
+      <c r="F103" s="6">
+        <f>IF($W$2*52&gt;F$2*$B103,ROUND(NPER($B103,-$W$2*52,F$2),2)," ")</f>
         <v>34.18</v>
-      </c>
-      <c r="F103" s="6" t="str">
-        <f>IF($W$2*52&gt;F$2*$B103,ROUND(NPER($B103,-$W$2*52,F$2),2)," ")</f>
-        <v> </v>
       </c>
       <c r="G103" s="6" t="str">
         <f>IF($W$2*52&gt;G$2*$B103,ROUND(NPER($B103,-$W$2*52,G$2),2)," ")</f>

--- a/Home Loan Calculator.xlsx
+++ b/Home Loan Calculator.xlsx
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="H65" sqref="B53:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
@@ -1286,7 +1286,7 @@
     <col min="23" max="23" width="18.2920353982301" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" ht="15.75" spans="1:23">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1396,7 +1396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="15" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
